--- a/r/xlsx/themes.xlsx
+++ b/r/xlsx/themes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/Projects/sheds/lmg-restore/r/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/ecosheds/lmg-restore/r/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F3D318-C816-AD4E-9C00-405FEF2DA325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63CB4CD-AEF5-B540-B258-69B2BB6EC0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{AE99D6E3-0A03-B54F-A17C-78F34962647F}"/>
+    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{AE99D6E3-0A03-B54F-A17C-78F34962647F}"/>
   </bookViews>
   <sheets>
     <sheet name="themes" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="849">
   <si>
     <t>theme</t>
   </si>
@@ -2465,6 +2465,126 @@
   </si>
   <si>
     <t>100th Percentile Streamflow Trend Slope (MK)</t>
+  </si>
+  <si>
+    <t>huc12-hydroalt</t>
+  </si>
+  <si>
+    <t>Hydrologic Alteration</t>
+  </si>
+  <si>
+    <t>Modeled daily streamflow data for 9,201 12-digit hydrologic unit code (HUC12) pour points draining to the Gulf of Mexico were used to calculate hydrologic alteration using three methods. The first method is streamflow trend analysis using the Quantile-Kendall methodology developed by Robert M. Hirsch. The second method is calculating hydro change which is a modified method of calculating ecosurplus and ecodeficit. For this project ecosurplus and ecodeficit have been combined to assess overall hydrologic regime change. The third method is the confidence interval hypothesis test developed by Charles N. Kroll. The first two methods are a means of quantifying hydrologic alteration while the third is a hypothesis test to simply determine if statistically significant alteration has occurred. All three methods are employed to determine which is the best at determining alteration of the hydrologic regime in the Gulf Coast Ecosystem Restoration Council (RESTORE) study area. Statistical analysis was done in RStudio. The HUC12 pour points are the geographic data used to view the results spatially.</t>
+  </si>
+  <si>
+    <t>Crowley-Ornelas, E.R., and Roland, V.L., 2021, Assessment of hydrologic alteration at 12-digit hydrologic unit code (HUC12) pour points in the southeastern United States, 1950 - 2009: U.S. Geological Survey data release.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5066/P93TLFWJ</t>
+  </si>
+  <si>
+    <t>Assessment of hydrologic alteration at HUC12 pour points in the southeastern United States 1950-2009.xml</t>
+  </si>
+  <si>
+    <t>hydro_change.csv</t>
+  </si>
+  <si>
+    <t>exceedance_probs</t>
+  </si>
+  <si>
+    <t>Probability streamflow exceeds a given value. The exceedance probability is used to calculate flow duration curves.</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>Pre-alteration streamflow in cubic feet per second (cfs) derived from pre-alteration flow duration curve.</t>
+  </si>
+  <si>
+    <t>cfs</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>Post-alteration streamflow in cubic feet per second (cfs) derived from post-alteration flow duration curve.</t>
+  </si>
+  <si>
+    <t>ecochange</t>
+  </si>
+  <si>
+    <t>Value designating eco-deficit 'D' or eco-surplus 'S'.</t>
+  </si>
+  <si>
+    <t>pre_int</t>
+  </si>
+  <si>
+    <t>Integral of pre-alteration flow duration curve. Representative of streamflow volume in cubic feet(cf)</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>post_int</t>
+  </si>
+  <si>
+    <t>Integral of post-alteration flow duration curve. Representative of streamflow volume in cubic feet(cf)</t>
+  </si>
+  <si>
+    <t>eco_val</t>
+  </si>
+  <si>
+    <t>Difference pre- and post-alteration streamflow volume.</t>
+  </si>
+  <si>
+    <t>eco_ratio</t>
+  </si>
+  <si>
+    <t>Net pre- and post-alteration streamflow volume (eco_val) divided by the integral of the pre-alteration flow duration curve.</t>
+  </si>
+  <si>
+    <t>net_change</t>
+  </si>
+  <si>
+    <t>Difference of surplus and deficit values of eco_ratio. Represent the relative change is streamflow volume between pre- and post-alteration periods.</t>
+  </si>
+  <si>
+    <t>Exceedance Probability</t>
+  </si>
+  <si>
+    <t>Pre-alteration Flow</t>
+  </si>
+  <si>
+    <t>Post-alteration Flow</t>
+  </si>
+  <si>
+    <t>Eco-Deficit or Surplus</t>
+  </si>
+  <si>
+    <t>Pre-alteration Flow Volume</t>
+  </si>
+  <si>
+    <t>Post-alteration Flow Volume</t>
+  </si>
+  <si>
+    <t>Change in Flow Volume</t>
+  </si>
+  <si>
+    <t>Relative Change in Flow Volume</t>
+  </si>
+  <si>
+    <t>Flow Volume Ratio</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Eco-Surplus</t>
+  </si>
+  <si>
+    <t>Eco-Deficit</t>
   </si>
 </sst>
 </file>
@@ -2883,10 +3003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3299DF9C-F617-B646-BEE4-AB38FAC7FD15}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="F8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3356,6 +3476,47 @@
         <v>277</v>
       </c>
     </row>
+    <row r="12" spans="1:15" ht="170" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>814</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>815</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{8E000033-4D60-B44D-B2E5-4F42B9601881}"/>
@@ -3363,6 +3524,7 @@
     <hyperlink ref="G6" r:id="rId3" xr:uid="{2A6DFADB-88E1-5A48-96D8-44A804028C72}"/>
     <hyperlink ref="G7" r:id="rId4" xr:uid="{796C75A3-A990-CE43-9F4F-B9CF62A99DD8}"/>
     <hyperlink ref="G5" r:id="rId5" xr:uid="{CB3A387E-3E47-3544-8A79-337A24241FC9}"/>
+    <hyperlink ref="G12" r:id="rId6" xr:uid="{0999B51A-918A-E94F-97CE-572937D40B57}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3370,12 +3532,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356FD21B-BA3B-0140-999A-460BCE259E1F}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:S219"/>
+  <dimension ref="A1:S222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M196" sqref="M196"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L220" sqref="L220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3459,7 +3620,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3518,7 +3679,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3577,7 +3738,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3636,7 +3797,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3695,7 +3856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3751,7 +3912,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3810,7 +3971,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3869,7 +4030,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3925,7 +4086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3984,7 +4145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4016,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4048,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4080,7 +4241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4112,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4144,7 +4305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4176,7 +4337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4208,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4240,7 +4401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4272,7 +4433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4304,7 +4465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4336,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4368,7 +4529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -4427,7 +4588,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4486,7 +4647,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -4545,7 +4706,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4604,7 +4765,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4660,7 +4821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4716,7 +4877,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4775,7 +4936,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4834,7 +4995,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4893,7 +5054,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -4952,7 +5113,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -5011,7 +5172,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -5070,7 +5231,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -5129,7 +5290,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -5188,7 +5349,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -5247,7 +5408,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5306,7 +5467,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5365,7 +5526,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5424,7 +5585,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -5483,7 +5644,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5542,7 +5703,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5601,7 +5762,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -5660,7 +5821,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -5719,7 +5880,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>1</v>
       </c>
@@ -5778,7 +5939,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>2</v>
       </c>
@@ -5837,7 +5998,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>3</v>
       </c>
@@ -5896,7 +6057,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>4</v>
       </c>
@@ -5955,7 +6116,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5</v>
       </c>
@@ -6011,7 +6172,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>6</v>
       </c>
@@ -6067,7 +6228,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>7</v>
       </c>
@@ -6126,7 +6287,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>8</v>
       </c>
@@ -6185,7 +6346,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>9</v>
       </c>
@@ -6241,7 +6402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>10</v>
       </c>
@@ -6297,7 +6458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>11</v>
       </c>
@@ -6353,7 +6514,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>12</v>
       </c>
@@ -6409,7 +6570,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>13</v>
       </c>
@@ -6465,7 +6626,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>14</v>
       </c>
@@ -6521,7 +6682,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>15</v>
       </c>
@@ -6580,7 +6741,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>16</v>
       </c>
@@ -6639,7 +6800,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>17</v>
       </c>
@@ -6698,7 +6859,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>18</v>
       </c>
@@ -6757,7 +6918,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>19</v>
       </c>
@@ -6816,7 +6977,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>20</v>
       </c>
@@ -6875,7 +7036,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>21</v>
       </c>
@@ -6934,7 +7095,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>22</v>
       </c>
@@ -6993,7 +7154,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>23</v>
       </c>
@@ -7052,7 +7213,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>24</v>
       </c>
@@ -7111,7 +7272,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>25</v>
       </c>
@@ -7170,7 +7331,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>26</v>
       </c>
@@ -7229,7 +7390,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>27</v>
       </c>
@@ -7288,7 +7449,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>28</v>
       </c>
@@ -7347,7 +7508,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>29</v>
       </c>
@@ -7406,7 +7567,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>30</v>
       </c>
@@ -7465,7 +7626,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>31</v>
       </c>
@@ -7524,7 +7685,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>32</v>
       </c>
@@ -7583,7 +7744,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>33</v>
       </c>
@@ -7642,7 +7803,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>34</v>
       </c>
@@ -7701,7 +7862,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>35</v>
       </c>
@@ -7760,7 +7921,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>36</v>
       </c>
@@ -7819,7 +7980,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>37</v>
       </c>
@@ -7878,7 +8039,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>38</v>
       </c>
@@ -7937,7 +8098,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>39</v>
       </c>
@@ -7996,7 +8157,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>40</v>
       </c>
@@ -8055,7 +8216,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>41</v>
       </c>
@@ -8114,7 +8275,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -8173,7 +8334,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2</v>
       </c>
@@ -8232,7 +8393,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3</v>
       </c>
@@ -8291,7 +8452,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4</v>
       </c>
@@ -8350,7 +8511,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>5</v>
       </c>
@@ -8409,7 +8570,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>6</v>
       </c>
@@ -8468,7 +8629,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>7</v>
       </c>
@@ -8527,7 +8688,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>8</v>
       </c>
@@ -8586,7 +8747,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>9</v>
       </c>
@@ -8645,7 +8806,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>10</v>
       </c>
@@ -8704,7 +8865,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>11</v>
       </c>
@@ -8763,7 +8924,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>12</v>
       </c>
@@ -8822,7 +8983,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="99" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>13</v>
       </c>
@@ -8881,7 +9042,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="100" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>14</v>
       </c>
@@ -8940,7 +9101,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="101" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>15</v>
       </c>
@@ -8999,7 +9160,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="102" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>16</v>
       </c>
@@ -9058,7 +9219,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>17</v>
       </c>
@@ -9117,7 +9278,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>18</v>
       </c>
@@ -9176,7 +9337,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>19</v>
       </c>
@@ -9235,7 +9396,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>20</v>
       </c>
@@ -9294,7 +9455,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>21</v>
       </c>
@@ -9353,7 +9514,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>22</v>
       </c>
@@ -9412,7 +9573,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>23</v>
       </c>
@@ -9471,7 +9632,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>24</v>
       </c>
@@ -9530,7 +9691,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>25</v>
       </c>
@@ -9589,7 +9750,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>26</v>
       </c>
@@ -9648,7 +9809,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>27</v>
       </c>
@@ -9707,7 +9868,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>28</v>
       </c>
@@ -9766,7 +9927,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="115" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>29</v>
       </c>
@@ -9825,7 +9986,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>30</v>
       </c>
@@ -9884,7 +10045,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>31</v>
       </c>
@@ -9943,7 +10104,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="118" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>32</v>
       </c>
@@ -10002,7 +10163,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>33</v>
       </c>
@@ -10061,7 +10222,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>34</v>
       </c>
@@ -10120,7 +10281,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="121" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>35</v>
       </c>
@@ -10179,7 +10340,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>36</v>
       </c>
@@ -10238,7 +10399,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>37</v>
       </c>
@@ -10297,7 +10458,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="124" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>38</v>
       </c>
@@ -10356,7 +10517,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>39</v>
       </c>
@@ -10415,7 +10576,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>40</v>
       </c>
@@ -10474,7 +10635,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="127" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>41</v>
       </c>
@@ -10533,7 +10694,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>42</v>
       </c>
@@ -10592,7 +10753,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1</v>
       </c>
@@ -10651,7 +10812,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2</v>
       </c>
@@ -10710,7 +10871,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>3</v>
       </c>
@@ -10769,7 +10930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>4</v>
       </c>
@@ -10828,7 +10989,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>5</v>
       </c>
@@ -10887,7 +11048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>6</v>
       </c>
@@ -10946,7 +11107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>7</v>
       </c>
@@ -11005,7 +11166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>8</v>
       </c>
@@ -11064,7 +11225,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>9</v>
       </c>
@@ -11123,7 +11284,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>10</v>
       </c>
@@ -11182,7 +11343,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>11</v>
       </c>
@@ -11241,7 +11402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>12</v>
       </c>
@@ -11300,7 +11461,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>13</v>
       </c>
@@ -11359,7 +11520,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>1</v>
       </c>
@@ -11418,7 +11579,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2</v>
       </c>
@@ -11477,7 +11638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>3</v>
       </c>
@@ -11536,7 +11697,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>4</v>
       </c>
@@ -11595,7 +11756,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>5</v>
       </c>
@@ -11651,7 +11812,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>6</v>
       </c>
@@ -11710,7 +11871,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>7</v>
       </c>
@@ -11769,7 +11930,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>8</v>
       </c>
@@ -11825,7 +11986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>9</v>
       </c>
@@ -11884,7 +12045,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>10</v>
       </c>
@@ -11916,7 +12077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>11</v>
       </c>
@@ -11948,7 +12109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>12</v>
       </c>
@@ -11980,7 +12141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>13</v>
       </c>
@@ -12012,7 +12173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>14</v>
       </c>
@@ -12044,7 +12205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>15</v>
       </c>
@@ -12076,7 +12237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>16</v>
       </c>
@@ -12108,7 +12269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>17</v>
       </c>
@@ -12140,7 +12301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>18</v>
       </c>
@@ -12172,7 +12333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>19</v>
       </c>
@@ -12204,7 +12365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>20</v>
       </c>
@@ -12236,7 +12397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>21</v>
       </c>
@@ -12268,7 +12429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>22</v>
       </c>
@@ -12327,7 +12488,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>23</v>
       </c>
@@ -12386,7 +12547,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="165" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>24</v>
       </c>
@@ -12445,7 +12606,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>25</v>
       </c>
@@ -12504,7 +12665,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="167" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>26</v>
       </c>
@@ -12560,7 +12721,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>27</v>
       </c>
@@ -12616,7 +12777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>28</v>
       </c>
@@ -12675,7 +12836,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>29</v>
       </c>
@@ -12734,7 +12895,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>30</v>
       </c>
@@ -12793,7 +12954,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="172" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>31</v>
       </c>
@@ -12852,7 +13013,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="173" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>32</v>
       </c>
@@ -12911,7 +13072,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="174" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>33</v>
       </c>
@@ -12970,7 +13131,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="175" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>34</v>
       </c>
@@ -13029,7 +13190,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="176" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>35</v>
       </c>
@@ -13088,7 +13249,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="177" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>36</v>
       </c>
@@ -13147,7 +13308,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>37</v>
       </c>
@@ -13206,7 +13367,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>38</v>
       </c>
@@ -13265,7 +13426,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>39</v>
       </c>
@@ -13324,7 +13485,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="181" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>40</v>
       </c>
@@ -13383,7 +13544,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>41</v>
       </c>
@@ -13442,7 +13603,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>42</v>
       </c>
@@ -13501,7 +13662,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="184" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>43</v>
       </c>
@@ -13560,7 +13721,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="185" spans="1:19" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>44</v>
       </c>
@@ -14504,7 +14665,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1</v>
       </c>
@@ -14563,7 +14724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2</v>
       </c>
@@ -14622,7 +14783,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>3</v>
       </c>
@@ -14681,7 +14842,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>4</v>
       </c>
@@ -14740,7 +14901,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>5</v>
       </c>
@@ -14799,7 +14960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>6</v>
       </c>
@@ -14858,7 +15019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>7</v>
       </c>
@@ -14917,7 +15078,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>8</v>
       </c>
@@ -14976,7 +15137,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>9</v>
       </c>
@@ -15035,7 +15196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>10</v>
       </c>
@@ -15094,7 +15255,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>11</v>
       </c>
@@ -15153,7 +15314,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>12</v>
       </c>
@@ -15212,7 +15373,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>13</v>
       </c>
@@ -15271,17 +15432,506 @@
         <v>37</v>
       </c>
     </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214" t="s">
+        <v>809</v>
+      </c>
+      <c r="C214" t="b">
+        <v>0</v>
+      </c>
+      <c r="D214" t="s">
+        <v>810</v>
+      </c>
+      <c r="E214" t="s">
+        <v>816</v>
+      </c>
+      <c r="F214" t="s">
+        <v>837</v>
+      </c>
+      <c r="G214" t="s">
+        <v>818</v>
+      </c>
+      <c r="H214" t="s">
+        <v>817</v>
+      </c>
+      <c r="I214" t="s">
+        <v>35</v>
+      </c>
+      <c r="J214">
+        <v>0.03</v>
+      </c>
+      <c r="K214">
+        <v>100</v>
+      </c>
+      <c r="L214">
+        <v>0.03</v>
+      </c>
+      <c r="M214">
+        <v>100</v>
+      </c>
+      <c r="N214" t="s">
+        <v>42</v>
+      </c>
+      <c r="O214" t="s">
+        <v>37</v>
+      </c>
+      <c r="P214" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>37</v>
+      </c>
+      <c r="R214" t="b">
+        <v>1</v>
+      </c>
+      <c r="S214" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>2</v>
+      </c>
+      <c r="B215" t="s">
+        <v>809</v>
+      </c>
+      <c r="C215" t="b">
+        <v>0</v>
+      </c>
+      <c r="D215" t="s">
+        <v>810</v>
+      </c>
+      <c r="E215" t="s">
+        <v>819</v>
+      </c>
+      <c r="F215" t="s">
+        <v>838</v>
+      </c>
+      <c r="G215" t="s">
+        <v>821</v>
+      </c>
+      <c r="H215" t="s">
+        <v>820</v>
+      </c>
+      <c r="I215" t="s">
+        <v>35</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>9100</v>
+      </c>
+      <c r="L215">
+        <v>1E-4</v>
+      </c>
+      <c r="M215">
+        <v>1000</v>
+      </c>
+      <c r="N215" t="s">
+        <v>36</v>
+      </c>
+      <c r="O215" t="s">
+        <v>331</v>
+      </c>
+      <c r="P215" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>312</v>
+      </c>
+      <c r="R215" t="b">
+        <v>1</v>
+      </c>
+      <c r="S215" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>3</v>
+      </c>
+      <c r="B216" t="s">
+        <v>809</v>
+      </c>
+      <c r="C216" t="b">
+        <v>0</v>
+      </c>
+      <c r="D216" t="s">
+        <v>810</v>
+      </c>
+      <c r="E216" t="s">
+        <v>822</v>
+      </c>
+      <c r="F216" t="s">
+        <v>839</v>
+      </c>
+      <c r="G216" t="s">
+        <v>821</v>
+      </c>
+      <c r="H216" t="s">
+        <v>823</v>
+      </c>
+      <c r="I216" t="s">
+        <v>35</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>15500</v>
+      </c>
+      <c r="L216">
+        <v>1E-4</v>
+      </c>
+      <c r="M216">
+        <v>100000</v>
+      </c>
+      <c r="N216" t="s">
+        <v>36</v>
+      </c>
+      <c r="O216" t="s">
+        <v>331</v>
+      </c>
+      <c r="P216" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>312</v>
+      </c>
+      <c r="R216" t="b">
+        <v>1</v>
+      </c>
+      <c r="S216" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>4</v>
+      </c>
+      <c r="B217" t="s">
+        <v>809</v>
+      </c>
+      <c r="C217" t="b">
+        <v>0</v>
+      </c>
+      <c r="D217" t="s">
+        <v>810</v>
+      </c>
+      <c r="E217" t="s">
+        <v>824</v>
+      </c>
+      <c r="F217" t="s">
+        <v>840</v>
+      </c>
+      <c r="H217" t="s">
+        <v>825</v>
+      </c>
+      <c r="I217" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>5</v>
+      </c>
+      <c r="B218" t="s">
+        <v>809</v>
+      </c>
+      <c r="C218" t="b">
+        <v>0</v>
+      </c>
+      <c r="D218" t="s">
+        <v>810</v>
+      </c>
+      <c r="E218" t="s">
+        <v>826</v>
+      </c>
+      <c r="F218" t="s">
+        <v>841</v>
+      </c>
+      <c r="G218" t="s">
+        <v>828</v>
+      </c>
+      <c r="H218" t="s">
+        <v>827</v>
+      </c>
+      <c r="I218" t="s">
+        <v>35</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>18700</v>
+      </c>
+      <c r="L218">
+        <v>1E-4</v>
+      </c>
+      <c r="M218">
+        <v>10000</v>
+      </c>
+      <c r="N218" t="s">
+        <v>36</v>
+      </c>
+      <c r="O218" t="s">
+        <v>331</v>
+      </c>
+      <c r="P218" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>312</v>
+      </c>
+      <c r="R218" t="b">
+        <v>1</v>
+      </c>
+      <c r="S218" t="s">
+        <v>312</v>
+      </c>
+    </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L219" s="5"/>
+      <c r="A219">
+        <v>6</v>
+      </c>
+      <c r="B219" t="s">
+        <v>809</v>
+      </c>
+      <c r="C219" t="b">
+        <v>0</v>
+      </c>
+      <c r="D219" t="s">
+        <v>810</v>
+      </c>
+      <c r="E219" t="s">
+        <v>829</v>
+      </c>
+      <c r="F219" t="s">
+        <v>842</v>
+      </c>
+      <c r="G219" t="s">
+        <v>828</v>
+      </c>
+      <c r="H219" t="s">
+        <v>830</v>
+      </c>
+      <c r="I219" t="s">
+        <v>35</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>18000</v>
+      </c>
+      <c r="L219">
+        <v>1E-4</v>
+      </c>
+      <c r="M219">
+        <v>10000</v>
+      </c>
+      <c r="N219" t="s">
+        <v>36</v>
+      </c>
+      <c r="O219" t="s">
+        <v>331</v>
+      </c>
+      <c r="P219" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>312</v>
+      </c>
+      <c r="R219" t="b">
+        <v>1</v>
+      </c>
+      <c r="S219" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>7</v>
+      </c>
+      <c r="B220" t="s">
+        <v>809</v>
+      </c>
+      <c r="C220" t="b">
+        <v>0</v>
+      </c>
+      <c r="D220" t="s">
+        <v>810</v>
+      </c>
+      <c r="E220" t="s">
+        <v>831</v>
+      </c>
+      <c r="F220" t="s">
+        <v>843</v>
+      </c>
+      <c r="G220" t="s">
+        <v>828</v>
+      </c>
+      <c r="H220" t="s">
+        <v>832</v>
+      </c>
+      <c r="I220" t="s">
+        <v>35</v>
+      </c>
+      <c r="J220">
+        <v>-500</v>
+      </c>
+      <c r="K220">
+        <v>6700</v>
+      </c>
+      <c r="L220">
+        <v>-500</v>
+      </c>
+      <c r="M220">
+        <v>6700</v>
+      </c>
+      <c r="N220" t="s">
+        <v>42</v>
+      </c>
+      <c r="O220" t="s">
+        <v>37</v>
+      </c>
+      <c r="P220" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>37</v>
+      </c>
+      <c r="R220" t="b">
+        <v>1</v>
+      </c>
+      <c r="S220" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>8</v>
+      </c>
+      <c r="B221" t="s">
+        <v>809</v>
+      </c>
+      <c r="C221" t="b">
+        <v>0</v>
+      </c>
+      <c r="D221" t="s">
+        <v>810</v>
+      </c>
+      <c r="E221" t="s">
+        <v>833</v>
+      </c>
+      <c r="F221" t="s">
+        <v>845</v>
+      </c>
+      <c r="G221" t="s">
+        <v>818</v>
+      </c>
+      <c r="H221" t="s">
+        <v>834</v>
+      </c>
+      <c r="I221" t="s">
+        <v>35</v>
+      </c>
+      <c r="J221">
+        <v>-5.1700000000000003E-2</v>
+      </c>
+      <c r="K221">
+        <v>2.8969999999999998</v>
+      </c>
+      <c r="L221">
+        <v>-0.1</v>
+      </c>
+      <c r="M221">
+        <v>3</v>
+      </c>
+      <c r="N221" t="s">
+        <v>42</v>
+      </c>
+      <c r="O221" t="s">
+        <v>37</v>
+      </c>
+      <c r="P221" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>37</v>
+      </c>
+      <c r="R221" t="b">
+        <v>1</v>
+      </c>
+      <c r="S221" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>9</v>
+      </c>
+      <c r="B222" t="s">
+        <v>809</v>
+      </c>
+      <c r="C222" t="b">
+        <v>0</v>
+      </c>
+      <c r="D222" t="s">
+        <v>810</v>
+      </c>
+      <c r="E222" t="s">
+        <v>835</v>
+      </c>
+      <c r="F222" t="s">
+        <v>844</v>
+      </c>
+      <c r="G222" t="s">
+        <v>818</v>
+      </c>
+      <c r="H222" t="s">
+        <v>836</v>
+      </c>
+      <c r="I222" t="s">
+        <v>35</v>
+      </c>
+      <c r="J222">
+        <v>-0.54657999999999995</v>
+      </c>
+      <c r="K222">
+        <v>2.8970199999999999</v>
+      </c>
+      <c r="L222">
+        <v>-0.6</v>
+      </c>
+      <c r="M222">
+        <v>3</v>
+      </c>
+      <c r="N222" t="s">
+        <v>42</v>
+      </c>
+      <c r="O222" t="s">
+        <v>37</v>
+      </c>
+      <c r="P222" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>37</v>
+      </c>
+      <c r="R222" t="b">
+        <v>1</v>
+      </c>
+      <c r="S222" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S213" xr:uid="{E0968736-1BA0-284C-93D4-E8D02CD98242}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="huc12-qquantile"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:S213" xr:uid="{E0968736-1BA0-284C-93D4-E8D02CD98242}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15289,9 +15939,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987CF23D-DD6E-FA4F-ABEA-A0891733CE0A}">
-  <dimension ref="A1:D283"/>
+  <dimension ref="A1:D285"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="A285" sqref="A285"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19261,6 +19913,34 @@
         <v>625</v>
       </c>
     </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>809</v>
+      </c>
+      <c r="B284" t="s">
+        <v>824</v>
+      </c>
+      <c r="C284" t="s">
+        <v>846</v>
+      </c>
+      <c r="D284" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>809</v>
+      </c>
+      <c r="B285" t="s">
+        <v>824</v>
+      </c>
+      <c r="C285" t="s">
+        <v>621</v>
+      </c>
+      <c r="D285" t="s">
+        <v>848</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/r/xlsx/themes.xlsx
+++ b/r/xlsx/themes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/ecosheds/lmg-restore/r/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63CB4CD-AEF5-B540-B258-69B2BB6EC0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7704823D-87C4-BB4D-8B5F-47C8805C9827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{AE99D6E3-0A03-B54F-A17C-78F34962647F}"/>
+    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{AE99D6E3-0A03-B54F-A17C-78F34962647F}"/>
   </bookViews>
   <sheets>
     <sheet name="themes" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="850">
   <si>
     <t>theme</t>
   </si>
@@ -2494,9 +2494,6 @@
     <t>Probability streamflow exceeds a given value. The exceedance probability is used to calculate flow duration curves.</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>pre</t>
   </si>
   <si>
@@ -2585,6 +2582,12 @@
   </si>
   <si>
     <t>Eco-Deficit</t>
+  </si>
+  <si>
+    <t>dims_exceedance</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -3003,10 +3006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3299DF9C-F617-B646-BEE4-AB38FAC7FD15}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView topLeftCell="F8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3022,7 +3025,7 @@
     <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>213</v>
       </c>
@@ -3060,16 +3063,19 @@
         <v>475</v>
       </c>
       <c r="M1" t="s">
+        <v>848</v>
+      </c>
+      <c r="N1" t="s">
         <v>266</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>267</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -3097,8 +3103,11 @@
       <c r="L2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>214</v>
       </c>
@@ -3133,17 +3142,20 @@
       <c r="L3" t="b">
         <v>0</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>214</v>
       </c>
@@ -3178,17 +3190,20 @@
       <c r="L4" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="119" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>214</v>
       </c>
@@ -3225,14 +3240,17 @@
       <c r="L5" t="b">
         <v>1</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="136" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>214</v>
       </c>
@@ -3267,8 +3285,11 @@
       <c r="L6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>214</v>
       </c>
@@ -3301,17 +3322,20 @@
       <c r="L7" t="b">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
         <v>272</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="102" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>215</v>
       </c>
@@ -3342,8 +3366,11 @@
       <c r="L8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>215</v>
       </c>
@@ -3376,145 +3403,157 @@
       <c r="L9" t="b">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
         <v>274</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="170" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>809</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>472</v>
+        <v>810</v>
       </c>
       <c r="D10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>719</v>
+        <v>811</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>328</v>
+        <v>812</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>329</v>
+        <v>813</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
       </c>
-      <c r="M10" t="s">
-        <v>295</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>814</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>220</v>
+        <v>472</v>
       </c>
       <c r="D11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
       </c>
-      <c r="M11" t="s">
-        <v>276</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="170" x14ac:dyDescent="0.2">
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>295</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>809</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>810</v>
+        <v>220</v>
       </c>
       <c r="D12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>811</v>
+        <v>720</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>812</v>
+        <v>330</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>813</v>
+        <v>327</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>215</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" t="b">
         <v>0</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
       </c>
-      <c r="M12" t="s">
-        <v>814</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12" t="s">
-        <v>815</v>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>276</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3524,7 +3563,7 @@
     <hyperlink ref="G6" r:id="rId3" xr:uid="{2A6DFADB-88E1-5A48-96D8-44A804028C72}"/>
     <hyperlink ref="G7" r:id="rId4" xr:uid="{796C75A3-A990-CE43-9F4F-B9CF62A99DD8}"/>
     <hyperlink ref="G5" r:id="rId5" xr:uid="{CB3A387E-3E47-3544-8A79-337A24241FC9}"/>
-    <hyperlink ref="G12" r:id="rId6" xr:uid="{0999B51A-918A-E94F-97CE-572937D40B57}"/>
+    <hyperlink ref="G10" r:id="rId6" xr:uid="{0999B51A-918A-E94F-97CE-572937D40B57}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3534,9 +3573,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356FD21B-BA3B-0140-999A-460BCE259E1F}">
   <dimension ref="A1:S222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L220" sqref="L220"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N212" sqref="N212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15446,49 +15485,49 @@
         <v>810</v>
       </c>
       <c r="E214" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="F214" t="s">
         <v>837</v>
       </c>
       <c r="G214" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="H214" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="I214" t="s">
         <v>35</v>
       </c>
       <c r="J214">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="K214">
-        <v>100</v>
+        <v>9100</v>
       </c>
       <c r="L214">
-        <v>0.03</v>
+        <v>1E-4</v>
       </c>
       <c r="M214">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N214" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O214" t="s">
-        <v>37</v>
+        <v>331</v>
       </c>
       <c r="P214" t="b">
         <v>1</v>
       </c>
       <c r="Q214" t="s">
-        <v>37</v>
+        <v>312</v>
       </c>
       <c r="R214" t="b">
         <v>1</v>
       </c>
       <c r="S214" t="s">
-        <v>37</v>
+        <v>312</v>
       </c>
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.2">
@@ -15505,16 +15544,16 @@
         <v>810</v>
       </c>
       <c r="E215" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F215" t="s">
         <v>838</v>
       </c>
       <c r="G215" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H215" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="I215" t="s">
         <v>35</v>
@@ -15523,13 +15562,13 @@
         <v>0</v>
       </c>
       <c r="K215">
-        <v>9100</v>
+        <v>15500</v>
       </c>
       <c r="L215">
         <v>1E-4</v>
       </c>
       <c r="M215">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="N215" t="s">
         <v>36</v>
@@ -15564,49 +15603,22 @@
         <v>810</v>
       </c>
       <c r="E216" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F216" t="s">
         <v>839</v>
       </c>
-      <c r="G216" t="s">
-        <v>821</v>
-      </c>
       <c r="H216" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="I216" t="s">
-        <v>35</v>
-      </c>
-      <c r="J216">
-        <v>0</v>
-      </c>
-      <c r="K216">
-        <v>15500</v>
-      </c>
-      <c r="L216">
-        <v>1E-4</v>
-      </c>
-      <c r="M216">
-        <v>100000</v>
-      </c>
-      <c r="N216" t="s">
-        <v>36</v>
-      </c>
-      <c r="O216" t="s">
-        <v>331</v>
+        <v>72</v>
       </c>
       <c r="P216" t="b">
         <v>1</v>
       </c>
-      <c r="Q216" t="s">
-        <v>312</v>
-      </c>
       <c r="R216" t="b">
         <v>1</v>
-      </c>
-      <c r="S216" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.2">
@@ -15623,16 +15635,49 @@
         <v>810</v>
       </c>
       <c r="E217" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F217" t="s">
         <v>840</v>
       </c>
+      <c r="G217" t="s">
+        <v>827</v>
+      </c>
       <c r="H217" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="I217" t="s">
-        <v>72</v>
+        <v>35</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>18700</v>
+      </c>
+      <c r="L217">
+        <v>1E-4</v>
+      </c>
+      <c r="M217">
+        <v>10000</v>
+      </c>
+      <c r="N217" t="s">
+        <v>36</v>
+      </c>
+      <c r="O217" t="s">
+        <v>331</v>
+      </c>
+      <c r="P217" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>312</v>
+      </c>
+      <c r="R217" t="b">
+        <v>1</v>
+      </c>
+      <c r="S217" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.2">
@@ -15649,16 +15694,16 @@
         <v>810</v>
       </c>
       <c r="E218" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="F218" t="s">
         <v>841</v>
       </c>
       <c r="G218" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H218" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I218" t="s">
         <v>35</v>
@@ -15667,7 +15712,7 @@
         <v>0</v>
       </c>
       <c r="K218">
-        <v>18700</v>
+        <v>18000</v>
       </c>
       <c r="L218">
         <v>1E-4</v>
@@ -15708,49 +15753,49 @@
         <v>810</v>
       </c>
       <c r="E219" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F219" t="s">
         <v>842</v>
       </c>
       <c r="G219" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H219" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="I219" t="s">
         <v>35</v>
       </c>
       <c r="J219">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="K219">
-        <v>18000</v>
+        <v>6700</v>
       </c>
       <c r="L219">
-        <v>1E-4</v>
+        <v>-1</v>
       </c>
       <c r="M219">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="N219" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="O219" t="s">
-        <v>331</v>
+        <v>37</v>
       </c>
       <c r="P219" t="b">
         <v>1</v>
       </c>
       <c r="Q219" t="s">
-        <v>312</v>
+        <v>37</v>
       </c>
       <c r="R219" t="b">
         <v>1</v>
       </c>
       <c r="S219" t="s">
-        <v>312</v>
+        <v>37</v>
       </c>
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.2">
@@ -15767,31 +15812,28 @@
         <v>810</v>
       </c>
       <c r="E220" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F220" t="s">
-        <v>843</v>
-      </c>
-      <c r="G220" t="s">
-        <v>828</v>
+        <v>844</v>
       </c>
       <c r="H220" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="I220" t="s">
         <v>35</v>
       </c>
       <c r="J220">
-        <v>-500</v>
+        <v>-5.1700000000000003E-2</v>
       </c>
       <c r="K220">
-        <v>6700</v>
+        <v>2.8969999999999998</v>
       </c>
       <c r="L220">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="M220">
-        <v>6700</v>
+        <v>3</v>
       </c>
       <c r="N220" t="s">
         <v>42</v>
@@ -15826,28 +15868,25 @@
         <v>810</v>
       </c>
       <c r="E221" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F221" t="s">
-        <v>845</v>
-      </c>
-      <c r="G221" t="s">
-        <v>818</v>
+        <v>843</v>
       </c>
       <c r="H221" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="I221" t="s">
         <v>35</v>
       </c>
       <c r="J221">
-        <v>-5.1700000000000003E-2</v>
+        <v>-0.54657999999999995</v>
       </c>
       <c r="K221">
-        <v>2.8969999999999998</v>
+        <v>2.8970199999999999</v>
       </c>
       <c r="L221">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="M221">
         <v>3</v>
@@ -15885,31 +15924,28 @@
         <v>810</v>
       </c>
       <c r="E222" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="F222" t="s">
-        <v>844</v>
-      </c>
-      <c r="G222" t="s">
-        <v>818</v>
+        <v>836</v>
       </c>
       <c r="H222" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
       <c r="I222" t="s">
         <v>35</v>
       </c>
       <c r="J222">
-        <v>-0.54657999999999995</v>
+        <v>0.03</v>
       </c>
       <c r="K222">
-        <v>2.8970199999999999</v>
+        <v>100</v>
       </c>
       <c r="L222">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="M222">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="N222" t="s">
         <v>42</v>
@@ -15918,13 +15954,13 @@
         <v>37</v>
       </c>
       <c r="P222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q222" t="s">
         <v>37</v>
       </c>
       <c r="R222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S222" t="s">
         <v>37</v>
@@ -15939,10 +15975,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987CF23D-DD6E-FA4F-ABEA-A0891733CE0A}">
-  <dimension ref="A1:D285"/>
+  <dimension ref="A1:D286"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="A285" sqref="A285"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="D286" sqref="D286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19918,13 +19954,13 @@
         <v>809</v>
       </c>
       <c r="B284" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C284" t="s">
+        <v>845</v>
+      </c>
+      <c r="D284" t="s">
         <v>846</v>
-      </c>
-      <c r="D284" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -19932,13 +19968,27 @@
         <v>809</v>
       </c>
       <c r="B285" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C285" t="s">
         <v>621</v>
       </c>
       <c r="D285" t="s">
-        <v>848</v>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>809</v>
+      </c>
+      <c r="B286" t="s">
+        <v>823</v>
+      </c>
+      <c r="C286" t="s">
+        <v>849</v>
+      </c>
+      <c r="D286" t="s">
+        <v>849</v>
       </c>
     </row>
   </sheetData>

--- a/r/xlsx/themes.xlsx
+++ b/r/xlsx/themes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/ecosheds/lmg-restore/r/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7704823D-87C4-BB4D-8B5F-47C8805C9827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA107397-C7AC-924B-BDCC-CB7C4F4303B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{AE99D6E3-0A03-B54F-A17C-78F34962647F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{AE99D6E3-0A03-B54F-A17C-78F34962647F}"/>
   </bookViews>
   <sheets>
     <sheet name="themes" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3564" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="853">
   <si>
     <t>theme</t>
   </si>
@@ -2497,84 +2497,36 @@
     <t>pre</t>
   </si>
   <si>
-    <t>Pre-alteration streamflow in cubic feet per second (cfs) derived from pre-alteration flow duration curve.</t>
-  </si>
-  <si>
     <t>cfs</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>Post-alteration streamflow in cubic feet per second (cfs) derived from post-alteration flow duration curve.</t>
-  </si>
-  <si>
     <t>ecochange</t>
   </si>
   <si>
-    <t>Value designating eco-deficit 'D' or eco-surplus 'S'.</t>
-  </si>
-  <si>
     <t>pre_int</t>
   </si>
   <si>
-    <t>Integral of pre-alteration flow duration curve. Representative of streamflow volume in cubic feet(cf)</t>
-  </si>
-  <si>
     <t>cf</t>
   </si>
   <si>
     <t>post_int</t>
   </si>
   <si>
-    <t>Integral of post-alteration flow duration curve. Representative of streamflow volume in cubic feet(cf)</t>
-  </si>
-  <si>
     <t>eco_val</t>
   </si>
   <si>
-    <t>Difference pre- and post-alteration streamflow volume.</t>
-  </si>
-  <si>
     <t>eco_ratio</t>
   </si>
   <si>
-    <t>Net pre- and post-alteration streamflow volume (eco_val) divided by the integral of the pre-alteration flow duration curve.</t>
-  </si>
-  <si>
     <t>net_change</t>
   </si>
   <si>
-    <t>Difference of surplus and deficit values of eco_ratio. Represent the relative change is streamflow volume between pre- and post-alteration periods.</t>
-  </si>
-  <si>
     <t>Exceedance Probability</t>
   </si>
   <si>
-    <t>Pre-alteration Flow</t>
-  </si>
-  <si>
-    <t>Post-alteration Flow</t>
-  </si>
-  <si>
-    <t>Eco-Deficit or Surplus</t>
-  </si>
-  <si>
-    <t>Pre-alteration Flow Volume</t>
-  </si>
-  <si>
-    <t>Post-alteration Flow Volume</t>
-  </si>
-  <si>
-    <t>Change in Flow Volume</t>
-  </si>
-  <si>
-    <t>Relative Change in Flow Volume</t>
-  </si>
-  <si>
-    <t>Flow Volume Ratio</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -2585,6 +2537,63 @@
   </si>
   <si>
     <t>dims_exceedance</t>
+  </si>
+  <si>
+    <t>Pre-alteration Streamflow</t>
+  </si>
+  <si>
+    <t>Post-alteration Streamflow</t>
+  </si>
+  <si>
+    <t>Flow Deficit or Surplus</t>
+  </si>
+  <si>
+    <t>"S" or "D" indicating if the overall difference between the pre- and post-alteration flow duration curves is a surplus ("S") or deficit ("D")</t>
+  </si>
+  <si>
+    <t>Pre-alteration streamflow value at given exceedance probability from pre-alteration flow duration curve</t>
+  </si>
+  <si>
+    <t>Post-alteration streamflow value at given exceedance probability from post-alteration flow duration curve</t>
+  </si>
+  <si>
+    <t>Pre-alteration integral</t>
+  </si>
+  <si>
+    <t>Integral of pre-alteration flow duration curve representing the cubic volume of streamflow</t>
+  </si>
+  <si>
+    <t>Post-alteration integral</t>
+  </si>
+  <si>
+    <t>Integral of post-alteration flow duration curve representing the cubic volume of streamflow</t>
+  </si>
+  <si>
+    <t>Ecochange value</t>
+  </si>
+  <si>
+    <t>Difference between pre- and post-alteration streamflow value</t>
+  </si>
+  <si>
+    <t>Ecochange ratio</t>
+  </si>
+  <si>
+    <t>Net pre- and post-alteration streamflow volume (Ecochange Value) divided by integral of the pre-alteration flow duration curve</t>
+  </si>
+  <si>
+    <t>Net streamflow change</t>
+  </si>
+  <si>
+    <t>Relative change in streamflow volume between pre- and post-alteration periods. Difference between surplus and deficit values of Ecochange Ratio.</t>
+  </si>
+  <si>
+    <t>p_value</t>
+  </si>
+  <si>
+    <t>p-Value of confidence interval test</t>
+  </si>
+  <si>
+    <t>P-value calculated as result of confidence interval hypothesis test. Demonstrates statistical significance of the alteration.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -3008,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3299DF9C-F617-B646-BEE4-AB38FAC7FD15}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="F6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3063,7 +3072,7 @@
         <v>475</v>
       </c>
       <c r="M1" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="N1" t="s">
         <v>266</v>
@@ -3445,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -3571,11 +3580,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356FD21B-BA3B-0140-999A-460BCE259E1F}">
-  <dimension ref="A1:S222"/>
+  <dimension ref="A1:S223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N212" sqref="N212"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M221" sqref="M221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15488,13 +15497,13 @@
         <v>818</v>
       </c>
       <c r="F214" t="s">
+        <v>833</v>
+      </c>
+      <c r="G214" t="s">
+        <v>819</v>
+      </c>
+      <c r="H214" t="s">
         <v>837</v>
-      </c>
-      <c r="G214" t="s">
-        <v>820</v>
-      </c>
-      <c r="H214" t="s">
-        <v>819</v>
       </c>
       <c r="I214" t="s">
         <v>35</v>
@@ -15506,7 +15515,7 @@
         <v>9100</v>
       </c>
       <c r="L214">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="M214">
         <v>1000</v>
@@ -15544,16 +15553,16 @@
         <v>810</v>
       </c>
       <c r="E215" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F215" t="s">
+        <v>834</v>
+      </c>
+      <c r="G215" t="s">
+        <v>819</v>
+      </c>
+      <c r="H215" t="s">
         <v>838</v>
-      </c>
-      <c r="G215" t="s">
-        <v>820</v>
-      </c>
-      <c r="H215" t="s">
-        <v>822</v>
       </c>
       <c r="I215" t="s">
         <v>35</v>
@@ -15565,10 +15574,10 @@
         <v>15500</v>
       </c>
       <c r="L215">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="M215">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="N215" t="s">
         <v>36</v>
@@ -15603,13 +15612,13 @@
         <v>810</v>
       </c>
       <c r="E216" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F216" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="H216" t="s">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="I216" t="s">
         <v>72</v>
@@ -15635,16 +15644,16 @@
         <v>810</v>
       </c>
       <c r="E217" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="F217" t="s">
+        <v>839</v>
+      </c>
+      <c r="G217" t="s">
+        <v>823</v>
+      </c>
+      <c r="H217" t="s">
         <v>840</v>
-      </c>
-      <c r="G217" t="s">
-        <v>827</v>
-      </c>
-      <c r="H217" t="s">
-        <v>826</v>
       </c>
       <c r="I217" t="s">
         <v>35</v>
@@ -15656,10 +15665,10 @@
         <v>18700</v>
       </c>
       <c r="L217">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="M217">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="N217" t="s">
         <v>36</v>
@@ -15694,16 +15703,16 @@
         <v>810</v>
       </c>
       <c r="E218" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F218" t="s">
         <v>841</v>
       </c>
       <c r="G218" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="H218" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
       <c r="I218" t="s">
         <v>35</v>
@@ -15715,10 +15724,10 @@
         <v>18000</v>
       </c>
       <c r="L218">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="M218">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="N218" t="s">
         <v>36</v>
@@ -15753,16 +15762,16 @@
         <v>810</v>
       </c>
       <c r="E219" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="F219" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G219" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="H219" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
       <c r="I219" t="s">
         <v>35</v>
@@ -15812,13 +15821,13 @@
         <v>810</v>
       </c>
       <c r="E220" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="F220" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H220" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="I220" t="s">
         <v>35</v>
@@ -15833,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="M220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N220" t="s">
         <v>42</v>
@@ -15868,13 +15877,13 @@
         <v>810</v>
       </c>
       <c r="E221" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="F221" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="H221" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="I221" t="s">
         <v>35</v>
@@ -15886,10 +15895,10 @@
         <v>2.8970199999999999</v>
       </c>
       <c r="L221">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="M221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N221" t="s">
         <v>42</v>
@@ -15924,45 +15933,77 @@
         <v>810</v>
       </c>
       <c r="E222" t="s">
+        <v>849</v>
+      </c>
+      <c r="F222" t="s">
+        <v>850</v>
+      </c>
+      <c r="H222" t="s">
+        <v>851</v>
+      </c>
+      <c r="I222" t="s">
+        <v>35</v>
+      </c>
+      <c r="P222" t="b">
+        <v>0</v>
+      </c>
+      <c r="R222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>10</v>
+      </c>
+      <c r="B223" t="s">
+        <v>809</v>
+      </c>
+      <c r="C223" t="b">
+        <v>0</v>
+      </c>
+      <c r="D223" t="s">
+        <v>810</v>
+      </c>
+      <c r="E223" t="s">
         <v>816</v>
       </c>
-      <c r="F222" t="s">
-        <v>836</v>
-      </c>
-      <c r="H222" t="s">
+      <c r="F223" t="s">
+        <v>828</v>
+      </c>
+      <c r="H223" t="s">
         <v>817</v>
       </c>
-      <c r="I222" t="s">
-        <v>35</v>
-      </c>
-      <c r="J222">
+      <c r="I223" t="s">
+        <v>35</v>
+      </c>
+      <c r="J223">
         <v>0.03</v>
       </c>
-      <c r="K222">
+      <c r="K223">
         <v>100</v>
       </c>
-      <c r="L222">
-        <v>0</v>
-      </c>
-      <c r="M222">
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
         <v>100</v>
       </c>
-      <c r="N222" t="s">
+      <c r="N223" t="s">
         <v>42</v>
       </c>
-      <c r="O222" t="s">
+      <c r="O223" t="s">
         <v>37</v>
       </c>
-      <c r="P222" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q222" t="s">
+      <c r="P223" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q223" t="s">
         <v>37</v>
       </c>
-      <c r="R222" t="b">
-        <v>0</v>
-      </c>
-      <c r="S222" t="s">
+      <c r="R223" t="b">
+        <v>0</v>
+      </c>
+      <c r="S223" t="s">
         <v>37</v>
       </c>
     </row>
@@ -15977,8 +16018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987CF23D-DD6E-FA4F-ABEA-A0891733CE0A}">
   <dimension ref="A1:D286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="D286" sqref="D286"/>
+    <sheetView topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="C287" sqref="C287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19954,13 +19995,13 @@
         <v>809</v>
       </c>
       <c r="B284" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C284" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="D284" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -19968,13 +20009,13 @@
         <v>809</v>
       </c>
       <c r="B285" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C285" t="s">
         <v>621</v>
       </c>
       <c r="D285" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -19982,13 +20023,13 @@
         <v>809</v>
       </c>
       <c r="B286" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C286" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="D286" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
   </sheetData>

--- a/r/xlsx/themes.xlsx
+++ b/r/xlsx/themes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/ecosheds/lmg-restore/r/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA107397-C7AC-924B-BDCC-CB7C4F4303B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBA8C71-8C46-F84C-A420-0FCA6631505D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{AE99D6E3-0A03-B54F-A17C-78F34962647F}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="categories" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">variables!$A$1:$S$213</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">variables!$A$1:$T$213</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4112" uniqueCount="982">
   <si>
     <t>theme</t>
   </si>
@@ -2597,6 +2597,393 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>huc12-lff</t>
+  </si>
+  <si>
+    <t>Low Flow Frequency Statistics</t>
+  </si>
+  <si>
+    <t>Low flow frequency statistics for HUC12 pour points</t>
+  </si>
+  <si>
+    <t>huc12_SyntheticLFF_Statistics_wBiasCorr.txt</t>
+  </si>
+  <si>
+    <t>Corr_7Q2</t>
+  </si>
+  <si>
+    <t>Corr_7Q10</t>
+  </si>
+  <si>
+    <t>Corr_30Q5</t>
+  </si>
+  <si>
+    <t>Corr_30Q20</t>
+  </si>
+  <si>
+    <t>huc_7Day2yr_Est_Corr</t>
+  </si>
+  <si>
+    <t>huc_7Day2yr_Lwr_Corr</t>
+  </si>
+  <si>
+    <t>huc_7Day2yr_Upr_Corr</t>
+  </si>
+  <si>
+    <t>huc_7Day10yr_Est_Corr</t>
+  </si>
+  <si>
+    <t>huc_7Day10yr_Lwr_Corr</t>
+  </si>
+  <si>
+    <t>huc_7Day10yr_Upr_Corr</t>
+  </si>
+  <si>
+    <t>huc_30Day5yr_Est_Corr</t>
+  </si>
+  <si>
+    <t>huc_30Day5yr_Lwr_Corr</t>
+  </si>
+  <si>
+    <t>huc_30Day5yr_Upr_Corr</t>
+  </si>
+  <si>
+    <t>huc_30Day20yr_Est_Corr</t>
+  </si>
+  <si>
+    <t>huc_30Day20yr_Lwr_Corr</t>
+  </si>
+  <si>
+    <t>huc_30Day20yr_Upr_Corr</t>
+  </si>
+  <si>
+    <t>Spatial Bias Correction</t>
+  </si>
+  <si>
+    <t>Low Flow Statistics</t>
+  </si>
+  <si>
+    <t>An output from "Script07.R" from Whaling, A. R., and others (2021).  "Corr_7Q2" is the spatial bias correction as determined by the 7Q2 bias correction raster cell value at the location of the huc12 pour point. The 7Q2 bias correction raster is available as a companion child item of this data release.</t>
+  </si>
+  <si>
+    <t>An output from "Script07.R" from Whaling, A. R., and others (2021).  "Corr_7Q10" is the spatial bias correction as determined by the 7Q10 bias correction raster cell value at the location of the huc12 pour point. The 7Q10 bias correction raster is available as a companion child item of this data release.</t>
+  </si>
+  <si>
+    <t>An output from "Script07.R" from Whaling, A. R., and others (2021). "Corr_30Q5" is the spatial bias correction as determined by the 30Q5 bias correction raster cell value at the location of the huc12 pour point. The 30Q5 bias correction raster is available as a companion child item of this data release.</t>
+  </si>
+  <si>
+    <t>An output from "Script07.R" from Whaling, A. R., and others (2021).  "Corr_30Q20" is the spatial bias correction as determined by the 30Q20 bias correction raster cell value at the location of the huc12 pour point. The 30Q20 bias correction raster is available as a companion child item of this data release.</t>
+  </si>
+  <si>
+    <t>An output from "Script07.R" from Whaling, A. R., and others (2021).  "huc_7Day2yr_Est_Corr" is the bias-corrected 7Q2 flow statistic for the huc12 pour point and is computed as the sum of the attributes "huc_7Day2yr_Est" and "Corr_7Q2".</t>
+  </si>
+  <si>
+    <t>An output from "Script07.R" from Whaling, A. R., and others (2021).  "huc_7Day2yr_Lwr_Corr" is the bias-corrected 2.5th percentile, or lower 95-percent confidence interval, for the huc12 synthetic 7Q2 flow statistic and is computed as the sum of the attributes "huc_7Day2yr_Lwr" and "Corr_7Q2".</t>
+  </si>
+  <si>
+    <t>An output from "Script07.R" from Whaling, A. R., and others (2021).  "huc_7Day2yr_Upr_Corr" is the bias-corrected 97.5th percentile, or upper 95-percent confidence interval, for the huc12 synthetic 7Q2 flow statistic and is computed as the sum of the attributes "huc_7Day2yr_Upr" and "Corr_7Q2".</t>
+  </si>
+  <si>
+    <t>An output from "Script07.R" from Whaling, A. R., and others (2021).  "huc_7Day10yr_Est_Corr" is the bias-corrected 7Q10 flow statistic for the huc12 pour point and is computed as the sum of the attributes "huc_7Day10yr_Est" and "Corr_7Q10".</t>
+  </si>
+  <si>
+    <t>An output from "Script07.R" from Whaling, A. R., and others (2021).  "huc_7Day10yr_Lwr_Corr" is the bias-corrected 2.5th percentile, or lower 95-percent confidence interval, for the huc12 synthetic 7Q10 flow statistic and is computed as the sum of the attributes "huc_7Day10yr_Lwr" and "Corr_7Q10".</t>
+  </si>
+  <si>
+    <t>An output from "Script07.R" from Whaling, A. R., and others (2021).  "huc_7Day10yr_Upr_Corr" is the bias-corrected 97.5th percentile, or upper 95-percent confidence interval, for the huc12 synthetic 7Q10 flow statistic and is computed as the sum of the attributes "huc_7Day10yr_Upr" and "Corr_7Q10".</t>
+  </si>
+  <si>
+    <t>An output from "Script07.R" from Whaling, A. R., and others (2021).  "huc_30Da5yr_Est_Corr" is the bias-corrected 30Q5 flow statistic for the huc12 pour point and is computed as the sum of the attributes "huc_30Day5yr_Est" and "Corr_30Q5".</t>
+  </si>
+  <si>
+    <t>An output from "Script07.R" from Whaling, A. R., and others (2021).  "huc_30Day5yr_Lwr_Corr" is the bias-corrected 2.5th percentile, or lower 95-percent confidence interval, for the huc12 synthetic 30Q5 flow statistic and is computed as the sum of the attributes "huc_30Day5yr_Lwr" and "Corr_30Q5".</t>
+  </si>
+  <si>
+    <t>An output from "Script07.R" from Whaling, A. R., and others (2021).  "huc_30Day5yr_Upr_Corr" is the bias-corrected 97.5th percentile, or upper 95-percent confidence interval, for the huc12 synthetic 30Q5 flow statistic and is computed as the sum of the attributes "huc_30Day5yr_Upr" and "Corr_30Q5".</t>
+  </si>
+  <si>
+    <t>An output from "Script07.R" from Whaling, A. R., and others (2021).  "huc_30Da20yr_Est_Corr" is the bias-corrected 30Q20 flow statistic for the huc12 pour point and is computed as the sum of the attributes "huc_30Day20yr_Est" and "Corr_30Q20".</t>
+  </si>
+  <si>
+    <t>An output from "Script07.R" from Whaling, A. R., and others (2021).  "huc_30Day20yr_Lwr_Corr" is the bias-corrected 2.5th percentile, or lower 95-percent confidence interval, for the huc12 synthetic 30Q20 flow statistic and is computed as the sum of the attributes "huc_30Day20yr_Lwr" and "Corr_30Q20".</t>
+  </si>
+  <si>
+    <t>An output from "Script07.R" from Whaling, A. R., and others (2021).  "huc_30Day20yr_Upr_Corr" is the bias-corrected 97.5th percentile, or upper 95-percent confidence interval, for the huc12 synthetic 30Q20 flow statistic and is computed as the sum of the attributes "huc_30Day20yr_Upr" and "Corr_30Q20".</t>
+  </si>
+  <si>
+    <t>7Q2 Spatial Bias Correction</t>
+  </si>
+  <si>
+    <t>7Q10 Spatial Bias Correction</t>
+  </si>
+  <si>
+    <t>30Q5 Spatial Bias Correction</t>
+  </si>
+  <si>
+    <t>30Q20 Spatial Bias Correction</t>
+  </si>
+  <si>
+    <t>7Q2 Estimate</t>
+  </si>
+  <si>
+    <t>7Q2 Lower Bound</t>
+  </si>
+  <si>
+    <t>7Q2 Upper Bound</t>
+  </si>
+  <si>
+    <t>7Q10 Estimate</t>
+  </si>
+  <si>
+    <t>7Q10 Lower Bound</t>
+  </si>
+  <si>
+    <t>7Q10 Upper Bound</t>
+  </si>
+  <si>
+    <t>30Q5 Estimate</t>
+  </si>
+  <si>
+    <t>30Q5 Lower Bound</t>
+  </si>
+  <si>
+    <t>30Q5 Upper Bound</t>
+  </si>
+  <si>
+    <t>30Q20 Estimate</t>
+  </si>
+  <si>
+    <t>30Q20 Lower Bound</t>
+  </si>
+  <si>
+    <t>30Q20 Upper Bound</t>
+  </si>
+  <si>
+    <t>log10(cms)</t>
+  </si>
+  <si>
+    <t>Whaling, A. R. and others (2023) [IN REVIEW]</t>
+  </si>
+  <si>
+    <t>https://code.usgs.gov/water/restore/syntheticdv2lff</t>
+  </si>
+  <si>
+    <t>gage-lff</t>
+  </si>
+  <si>
+    <t>Low flow frequency statistics for streamflow gages</t>
+  </si>
+  <si>
+    <t>gage2huc_LFF_Statistics_wBiasCorr.txt</t>
+  </si>
+  <si>
+    <t>number_decades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of decades represented in the streamgage record determiend from the "decade" attribute provided in Robinson, A.L. and others (2019). A decade, where the 1950 decade is defined as the days January 1, 1950 to December 31, 1959, is not represented in Robinson, A.L. and others (2019) if the streamflow record had greater than 70 missing days in aggregate (a week per year equivalent). </t>
+  </si>
+  <si>
+    <t>hucCOV_gageCOV_DA_ratio</t>
+  </si>
+  <si>
+    <t>The ratio between the streamgage-huc pair drainage area computed as the "huc_COVDA" attribute divided by the "gage_COVDA" attribute.</t>
+  </si>
+  <si>
+    <t># Decades</t>
+  </si>
+  <si>
+    <t>decades</t>
+  </si>
+  <si>
+    <t>Drainage Area Ratio (Gage/HUC12)</t>
+  </si>
+  <si>
+    <t>Gage Information</t>
+  </si>
+  <si>
+    <t>gage_RecLen_7Day</t>
+  </si>
+  <si>
+    <t>An output from a function call to to "ComputeLFF.R" from Whaling, A. R., and others (2021). "gage_RecLen_7Day" is the total number of observations in the series of seven-day annual minima computed from the streamgage daily streamflow record. The series of seven-day annual minima were computed from the seven-day moving average and an annual climate year period (defined as April 1ñMarch 31). Annual minima that were computed with less than or equal to 275 days of record in the climate year (75-percent) were removed from the series and total count. See "Methods" in Whaling, A. R. and othersss (2023) and "Script05.R" for more details.</t>
+  </si>
+  <si>
+    <t>An output from a function call to to "ComputeLFF.R" from Whaling, A. R., and others (2021). "gage_RecLen_30Day" is the total number of observations in the series of seven-day annual minima computed from the streamgage daily streamflow record. The series of thirty-day annual minima were computed from the thirty-day moving average and an annual climate year period (defined as April 1ñMarch 31). Annual minima that were computed with less than or equal to 275 days of record in the climate year (75-percent) were removed from the series and total count. See "Methods" in Whaling, A. R. and otherss (2023) and "Script05.R" for more details.</t>
+  </si>
+  <si>
+    <t>gage_RecLen_30Day</t>
+  </si>
+  <si>
+    <t>gage_7Day2yr_Est_DACorr</t>
+  </si>
+  <si>
+    <t>gage_7Day2yr_Lwr_DACorr</t>
+  </si>
+  <si>
+    <t>gage_7Day2yr_Upr_DACorr</t>
+  </si>
+  <si>
+    <t>gage_7Day10yr_Est_DACorr</t>
+  </si>
+  <si>
+    <t>gage_7Day10yr_Lwr_DACorr</t>
+  </si>
+  <si>
+    <t>gage_7Day10yr_Upr_DACorr</t>
+  </si>
+  <si>
+    <t>gage_30Day5yr_Est_DACorr</t>
+  </si>
+  <si>
+    <t>gage_30Day5yr_Lwr_DACorr</t>
+  </si>
+  <si>
+    <t>gage_30Day5yr_Upr_DACorr</t>
+  </si>
+  <si>
+    <t>gage_30Day20yr_Est_DACorr</t>
+  </si>
+  <si>
+    <t>gage_30Day20yr_Lwr_DACorr</t>
+  </si>
+  <si>
+    <t>gage_30Day20yr_Upr_DACorr</t>
+  </si>
+  <si>
+    <t>An output from a function call to to "ComputeLFF.R" from Whaling, A. R., and others (2021) scaled by the attribute "hucCOV_gageCOV_DA_ratio". "gage_7Day2yr_Est_DACorr" is the seven-day, two-year annual minimum flow statistic (7Q2) computed from the series of gaged seven-day annual minima scaled by the ratio between the streamgage-huc pair drainage area. The 7Q2 represents the lowest seven-day consecutive mean discharge that occurs on average once every two years and corresponds to a non-exceedance probability of 0.5.</t>
+  </si>
+  <si>
+    <t>An output from a function call to to "ComputeLFF.R" from Whaling, A. R., and others (2021) scaled by the attribute "hucCOV_gageCOV_DA_ratio". "gage_7Day2yr_Lwr_DACorr" is the 2.5th percentile, or lower 95-percent confidence interval, for the streamgage 7Q2 flow statistic scaled by the ratio between the streamgage-huc pair drainage area.  See "Methods" in Whaling, A. R. and others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>An output from a function call to to "ComputeLFF.R" from Whaling, A. R., and others (2021) scaled by the attribute "hucCOV_gageCOV_DA_ratio". "gage_7Day2yr_Lwr_DACorr" is the 97.5th percentile, or upper 95-percent confidence interval, for the gaged 7Q2 flow statistic scaled by the ratio between the streamgage-huc pair drainage area.  See "Methods" in Whaling, A. R. and others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>An output from a function call to to "ComputeLFF.R" from Whaling, A. R., and others (2021) scaled by the attribute "hucCOV_gageCOV_DA_ratio". "gage_7Day10yr_Est_DACorr" is the seven-day, ten-year annual minimum flow statistic (7Q10) computed from the series of gaged seven-day annual minima scaled by the ratio between the streamgage-huc pair drainage area. The 7Q10 represents the lowest seven-day consecutive mean discharge that occurs on average once every ten years and corresponds to a non-exceedance probability of 0.1.</t>
+  </si>
+  <si>
+    <t>An output from a function call to to "ComputeLFF.R" from Whaling, A. R., and others (2021) scaled by the attribute "hucCOV_gageCOV_DA_ratio". "gage_7Day10yr_Lwr_DACorr" is the 2.5th percentile, or lower 95-percent confidence interval, for the streamgage 7Q10 flow statistic scaled by the ratio between the streamgage-huc pair drainage area.  See "Methods" in Whaling, A. R. and others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>An output from a function call to to "ComputeLFF.R" from Whaling, A. R., and others (2021) scaled by the attribute "hucCOV_gageCOV_DA_ratio". "gage_7Day10yr_Lwr_DACorr" is the 97.5th percentile, or upper 95-percent confidence interval, for the gaged 7Q10 flow statistic scaled by the ratio between the streamgage-huc pair drainage area.  See "Methods" in Whaling, A. R. and others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>An output from a function call to to "ComputeLFF.R" from Whaling, A. R., and others (2021) scaled by the attribute "hucCOV_gageCOV_DA_ratio". "gage_30Day5yr_Est_DACorr" is the thirty-day, five-year annual minimum flow statistic (30Q5) computed from the series of gaged thirty-day annual minima scaled by the ratio between the streamgage-huc pair drainage area. The 30Q5 represents the lowest thirty-day consecutive mean discharge that occurs on average once every five years and corresponds to a non-exceedance probability of 0.2.</t>
+  </si>
+  <si>
+    <t>An output from a function call to to "ComputeLFF.R" from Whaling, A. R., and others (2021) scaled by the attribute "hucCOV_gageCOV_DA_ratio". "gage_30Day5yr_Lwr_DACorr" is the 2.5th percentile, or lower 95-percent confidence interval, for the streamgage 30Q5 flow statistic scaled by the ratio between the streamgage-huc pair drainage area.  See "Methods" in Whaling, A. R. and others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>An output from a function call to to "ComputeLFF.R" from Whaling, A. R., and others (2021) scaled by the attribute "hucCOV_gageCOV_DA_ratio". "gage_30Day5yr_Lwr_DACorr" is the 97.5th percentile, or upper 95-percent confidence interval, for the gaged 30Q5 flow statistic scaled by the ratio between the streamgage-huc pair drainage area.  See "Methods" in Whaling, A. R. and others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>An output from a function call to to "ComputeLFF.R" from Whaling, A. R., and others (2021) scaled by the attribute "hucCOV_gageCOV_DA_ratio". "gage_30Day20yr_Est_DACorr" is the thirty-day, twenty-year annual minimum flow statistic (30Q5) computed from the series of gaged thirty-day annual minima scaled by the ratio between the streamgage-huc pair drainage area. The 30Q20 represents the lowest thirty-day consecutive mean discharge that occurs on average once every twenty years and corresponds to a non-exceedance probability of 0.05.</t>
+  </si>
+  <si>
+    <t>An output from a function call to to "ComputeLFF.R" from Whaling, A. R., and others (2021) scaled by the attribute "hucCOV_gageCOV_DA_ratio". "gage_30Day20yr_Lwr_DACorr" is the 2.5th percentile, or lower 95-percent confidence interval, for the streamgage 30Q20 flow statistic scaled by the ratio between the streamgage-huc pair drainage area.  See "Methods" in Whaling, A. R. and others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>An output from a function call to to "ComputeLFF.R" from Whaling, A. R., and others (2021) scaled by the attribute "hucCOV_gageCOV_DA_ratio". "gage_30Day20yr_Lwr_DACorr" is the 97.5th percentile, or upper 95-percent confidence interval, for the gaged 30Q20 flow statistic scaled by the ratio between the streamgage-huc pair drainage area.  See "Methods" in Whaling, A. R. and others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>HUC12 Low Flow Statistics</t>
+  </si>
+  <si>
+    <t>HUC12 Spatial Bias Correction</t>
+  </si>
+  <si>
+    <t>7Q2 Estimate (HUC12)</t>
+  </si>
+  <si>
+    <t>7Q2 Lower Bound (HUC12)</t>
+  </si>
+  <si>
+    <t>7Q2 Upper Bound (HUC12)</t>
+  </si>
+  <si>
+    <t>7Q10 Estimate (HUC12)</t>
+  </si>
+  <si>
+    <t>7Q10 Lower Bound (HUC12)</t>
+  </si>
+  <si>
+    <t>7Q10 Upper Bound (HUC12)</t>
+  </si>
+  <si>
+    <t>30Q5 Estimate (HUC12)</t>
+  </si>
+  <si>
+    <t>30Q5 Lower Bound (HUC12)</t>
+  </si>
+  <si>
+    <t>30Q5 Upper Bound (HUC12)</t>
+  </si>
+  <si>
+    <t>30Q20 Estimate (HUC12)</t>
+  </si>
+  <si>
+    <t>30Q20 Lower Bound (HUC12)</t>
+  </si>
+  <si>
+    <t>30Q20 Upper Bound (HUC12)</t>
+  </si>
+  <si>
+    <t>7Q2 Spatial Bias Correction (HUC12)</t>
+  </si>
+  <si>
+    <t>7Q10 Spatial Bias Correction (HUC12)</t>
+  </si>
+  <si>
+    <t>30Q5 Spatial Bias Correction (HUC12)</t>
+  </si>
+  <si>
+    <t>30Q20 Spatial Bias Correction (HUC12)</t>
+  </si>
+  <si>
+    <t>huc_7Day2yr_Lwr_Corr_7Q2</t>
+  </si>
+  <si>
+    <t>huc_7Day2yr_Est_Corr_7Q2</t>
+  </si>
+  <si>
+    <t>huc_7Day2yr_Upr_Corr_7Q2</t>
+  </si>
+  <si>
+    <t>huc_7Day10yr_Est_Corr_7Q10</t>
+  </si>
+  <si>
+    <t>huc_7Day10yr_Lwr_Corr_7Q10</t>
+  </si>
+  <si>
+    <t>huc_7Day10yr_Upr_Corr_7Q10</t>
+  </si>
+  <si>
+    <t>huc_30Day5yr_Est_Corr_30Q5</t>
+  </si>
+  <si>
+    <t>huc_30Day5yr_Lwr_Corr_30Q5</t>
+  </si>
+  <si>
+    <t>huc_30Day5yr_Upr_Corr_30Q5</t>
+  </si>
+  <si>
+    <t>huc_30Day20yr_Est_Corr_30Q20</t>
+  </si>
+  <si>
+    <t>huc_30Day20yr_Lwr_Corr_30Q20</t>
+  </si>
+  <si>
+    <t>huc_30Day20yr_Upr_Corr_30Q20</t>
+  </si>
+  <si>
+    <t>map_default</t>
+  </si>
+  <si>
+    <t># Obs. 30-day Annual Minima</t>
+  </si>
+  <si>
+    <t># Obs. 7-day Annual Minima</t>
   </si>
 </sst>
 </file>
@@ -3015,10 +3402,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3299DF9C-F617-B646-BEE4-AB38FAC7FD15}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView zoomScale="135" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3027,7 +3417,7 @@
     <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="102.33203125" customWidth="1"/>
-    <col min="6" max="6" width="53.6640625" customWidth="1"/>
+    <col min="6" max="6" width="72.33203125" customWidth="1"/>
     <col min="7" max="7" width="63.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -3084,7 +3474,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="119" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>214</v>
       </c>
@@ -3116,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>214</v>
       </c>
@@ -3164,7 +3554,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>214</v>
       </c>
@@ -3212,82 +3602,70 @@
         <v>271</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="119" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D5" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>716</v>
+        <v>212</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J5" s="4"/>
       <c r="K5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="O5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="136" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>910</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>219</v>
+        <v>854</v>
       </c>
       <c r="D6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>212</v>
+        <v>911</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>324</v>
+        <v>908</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>325</v>
+        <v>909</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="4"/>
+        <v>13</v>
+      </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
@@ -3297,80 +3675,86 @@
       <c r="M6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="P6" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="O7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>272</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="102" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -3378,33 +3762,40 @@
       <c r="M8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>272</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>316</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="D9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>319</v>
-      </c>
+      <c r="E9" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" t="b">
         <v>1</v>
@@ -3415,139 +3806,130 @@
       <c r="M9" t="b">
         <v>0</v>
       </c>
-      <c r="N9" t="s">
-        <v>274</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="170" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>809</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>810</v>
+        <v>216</v>
       </c>
       <c r="D10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>811</v>
+      <c r="E10" s="9" t="s">
+        <v>721</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>812</v>
+        <v>318</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>813</v>
+        <v>319</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>215</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
       <c r="K10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>814</v>
+        <v>274</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>809</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>472</v>
+        <v>810</v>
       </c>
       <c r="D11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>719</v>
+        <v>811</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>328</v>
+        <v>812</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>329</v>
+        <v>813</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="K11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>295</v>
+        <v>814</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>220</v>
+        <v>472</v>
       </c>
       <c r="D12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -3556,12 +3938,96 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
+        <v>295</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
         <v>276</v>
       </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
         <v>277</v>
       </c>
     </row>
@@ -3569,10 +4035,10 @@
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{8E000033-4D60-B44D-B2E5-4F42B9601881}"/>
     <hyperlink ref="G4" r:id="rId2" xr:uid="{4C553D61-BC9A-454A-B064-6B1612F39971}"/>
-    <hyperlink ref="G6" r:id="rId3" xr:uid="{2A6DFADB-88E1-5A48-96D8-44A804028C72}"/>
-    <hyperlink ref="G7" r:id="rId4" xr:uid="{796C75A3-A990-CE43-9F4F-B9CF62A99DD8}"/>
-    <hyperlink ref="G5" r:id="rId5" xr:uid="{CB3A387E-3E47-3544-8A79-337A24241FC9}"/>
-    <hyperlink ref="G10" r:id="rId6" xr:uid="{0999B51A-918A-E94F-97CE-572937D40B57}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{2A6DFADB-88E1-5A48-96D8-44A804028C72}"/>
+    <hyperlink ref="G8" r:id="rId4" xr:uid="{796C75A3-A990-CE43-9F4F-B9CF62A99DD8}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{CB3A387E-3E47-3544-8A79-337A24241FC9}"/>
+    <hyperlink ref="G11" r:id="rId6" xr:uid="{0999B51A-918A-E94F-97CE-572937D40B57}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3580,11 +4046,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356FD21B-BA3B-0140-999A-460BCE259E1F}">
-  <dimension ref="A1:S223"/>
+  <dimension ref="A1:T271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M221" sqref="M221"/>
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F245" sqref="F245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3605,11 +4071,12 @@
     <col min="15" max="15" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>796</v>
       </c>
@@ -3662,13 +4129,16 @@
         <v>803</v>
       </c>
       <c r="R1" t="s">
+        <v>979</v>
+      </c>
+      <c r="S1" t="s">
         <v>288</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3721,13 +4191,16 @@
         <v>317</v>
       </c>
       <c r="R2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3780,13 +4253,16 @@
         <v>43</v>
       </c>
       <c r="R3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3839,13 +4315,16 @@
         <v>43</v>
       </c>
       <c r="R4" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -3898,13 +4377,16 @@
         <v>43</v>
       </c>
       <c r="R5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3954,13 +4436,16 @@
         <v>797</v>
       </c>
       <c r="R6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4013,13 +4498,16 @@
         <v>427</v>
       </c>
       <c r="R7" t="b">
-        <v>1</v>
-      </c>
-      <c r="S7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4072,13 +4560,16 @@
         <v>428</v>
       </c>
       <c r="R8" t="b">
-        <v>1</v>
-      </c>
-      <c r="S8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4128,13 +4619,16 @@
         <v>37</v>
       </c>
       <c r="R9" t="b">
-        <v>1</v>
-      </c>
-      <c r="S9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4187,13 +4681,16 @@
         <v>37</v>
       </c>
       <c r="R10" t="b">
-        <v>1</v>
-      </c>
-      <c r="S10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S10" t="b">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4222,10 +4719,13 @@
         <v>1</v>
       </c>
       <c r="R11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4254,10 +4754,13 @@
         <v>1</v>
       </c>
       <c r="R12" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4286,10 +4789,13 @@
         <v>1</v>
       </c>
       <c r="R13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4318,10 +4824,13 @@
         <v>1</v>
       </c>
       <c r="R14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4350,10 +4859,13 @@
         <v>1</v>
       </c>
       <c r="R15" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4382,10 +4894,13 @@
         <v>1</v>
       </c>
       <c r="R16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4414,10 +4929,13 @@
         <v>1</v>
       </c>
       <c r="R17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4446,10 +4964,13 @@
         <v>1</v>
       </c>
       <c r="R18" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4478,10 +4999,13 @@
         <v>1</v>
       </c>
       <c r="R19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4510,10 +5034,13 @@
         <v>1</v>
       </c>
       <c r="R20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4542,10 +5069,13 @@
         <v>1</v>
       </c>
       <c r="R21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4574,10 +5104,13 @@
         <v>1</v>
       </c>
       <c r="R22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -4630,13 +5163,16 @@
         <v>427</v>
       </c>
       <c r="R23" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4689,13 +5225,16 @@
         <v>427</v>
       </c>
       <c r="R24" t="b">
-        <v>1</v>
-      </c>
-      <c r="S24" t="s">
+        <v>0</v>
+      </c>
+      <c r="S24" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -4748,13 +5287,16 @@
         <v>427</v>
       </c>
       <c r="R25" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S25" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4807,13 +5349,16 @@
         <v>37</v>
       </c>
       <c r="R26" t="b">
-        <v>1</v>
-      </c>
-      <c r="S26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4863,13 +5408,16 @@
         <v>43</v>
       </c>
       <c r="R27" t="b">
-        <v>1</v>
-      </c>
-      <c r="S27" t="s">
+        <v>0</v>
+      </c>
+      <c r="S27" t="b">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4919,13 +5467,16 @@
         <v>43</v>
       </c>
       <c r="R28" t="b">
-        <v>1</v>
-      </c>
-      <c r="S28" t="s">
+        <v>0</v>
+      </c>
+      <c r="S28" t="b">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4978,13 +5529,16 @@
         <v>795</v>
       </c>
       <c r="R29" t="b">
-        <v>1</v>
-      </c>
-      <c r="S29" t="s">
+        <v>0</v>
+      </c>
+      <c r="S29" t="b">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5037,13 +5591,16 @@
         <v>795</v>
       </c>
       <c r="R30" t="b">
-        <v>1</v>
-      </c>
-      <c r="S30" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30" t="b">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5096,13 +5653,16 @@
         <v>795</v>
       </c>
       <c r="R31" t="b">
-        <v>1</v>
-      </c>
-      <c r="S31" t="s">
+        <v>0</v>
+      </c>
+      <c r="S31" t="b">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -5155,13 +5715,16 @@
         <v>427</v>
       </c>
       <c r="R32" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T32" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -5214,13 +5777,16 @@
         <v>427</v>
       </c>
       <c r="R33" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S33" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T33" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -5273,13 +5839,16 @@
         <v>427</v>
       </c>
       <c r="R34" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T34" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -5332,13 +5901,16 @@
         <v>427</v>
       </c>
       <c r="R35" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S35" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T35" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -5391,13 +5963,16 @@
         <v>427</v>
       </c>
       <c r="R36" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S36" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T36" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -5450,13 +6025,16 @@
         <v>427</v>
       </c>
       <c r="R37" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S37" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T37" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5509,13 +6087,16 @@
         <v>427</v>
       </c>
       <c r="R38" t="b">
-        <v>1</v>
-      </c>
-      <c r="S38" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" t="b">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5568,13 +6149,16 @@
         <v>427</v>
       </c>
       <c r="R39" t="b">
-        <v>1</v>
-      </c>
-      <c r="S39" t="s">
+        <v>0</v>
+      </c>
+      <c r="S39" t="b">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5627,13 +6211,16 @@
         <v>427</v>
       </c>
       <c r="R40" t="b">
-        <v>1</v>
-      </c>
-      <c r="S40" t="s">
+        <v>0</v>
+      </c>
+      <c r="S40" t="b">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -5686,13 +6273,16 @@
         <v>427</v>
       </c>
       <c r="R41" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S41" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S41" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T41" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5745,13 +6335,16 @@
         <v>427</v>
       </c>
       <c r="R42" t="b">
-        <v>1</v>
-      </c>
-      <c r="S42" t="s">
+        <v>0</v>
+      </c>
+      <c r="S42" t="b">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5804,13 +6397,16 @@
         <v>427</v>
       </c>
       <c r="R43" t="b">
-        <v>1</v>
-      </c>
-      <c r="S43" t="s">
+        <v>0</v>
+      </c>
+      <c r="S43" t="b">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -5863,13 +6459,16 @@
         <v>427</v>
       </c>
       <c r="R44" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S44" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T44" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -5922,13 +6521,16 @@
         <v>427</v>
       </c>
       <c r="R45" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S45" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S45" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T45" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>1</v>
       </c>
@@ -5981,13 +6583,16 @@
         <v>795</v>
       </c>
       <c r="R46" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S46" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S46" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T46" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>2</v>
       </c>
@@ -6040,13 +6645,16 @@
         <v>795</v>
       </c>
       <c r="R47" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S47" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S47" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T47" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>3</v>
       </c>
@@ -6099,13 +6707,16 @@
         <v>795</v>
       </c>
       <c r="R48" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S48" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S48" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T48" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>4</v>
       </c>
@@ -6158,13 +6769,16 @@
         <v>43</v>
       </c>
       <c r="R49" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S49" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S49" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T49" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5</v>
       </c>
@@ -6214,13 +6828,16 @@
         <v>43</v>
       </c>
       <c r="R50" t="b">
-        <v>1</v>
-      </c>
-      <c r="S50" t="s">
+        <v>0</v>
+      </c>
+      <c r="S50" t="b">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>6</v>
       </c>
@@ -6270,13 +6887,16 @@
         <v>43</v>
       </c>
       <c r="R51" t="b">
-        <v>1</v>
-      </c>
-      <c r="S51" t="s">
+        <v>0</v>
+      </c>
+      <c r="S51" t="b">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>7</v>
       </c>
@@ -6329,13 +6949,16 @@
         <v>795</v>
       </c>
       <c r="R52" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S52" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T52" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>8</v>
       </c>
@@ -6388,13 +7011,16 @@
         <v>795</v>
       </c>
       <c r="R53" t="b">
-        <v>1</v>
-      </c>
-      <c r="S53" t="s">
+        <v>0</v>
+      </c>
+      <c r="S53" t="b">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>9</v>
       </c>
@@ -6444,13 +7070,16 @@
         <v>802</v>
       </c>
       <c r="R54" t="b">
-        <v>1</v>
-      </c>
-      <c r="S54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S54" t="b">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>10</v>
       </c>
@@ -6500,13 +7129,16 @@
         <v>802</v>
       </c>
       <c r="R55" t="b">
-        <v>1</v>
-      </c>
-      <c r="S55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S55" t="b">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>11</v>
       </c>
@@ -6556,13 +7188,16 @@
         <v>802</v>
       </c>
       <c r="R56" t="b">
-        <v>1</v>
-      </c>
-      <c r="S56" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S56" t="b">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>12</v>
       </c>
@@ -6612,13 +7247,16 @@
         <v>802</v>
       </c>
       <c r="R57" t="b">
-        <v>1</v>
-      </c>
-      <c r="S57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S57" t="b">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>13</v>
       </c>
@@ -6668,13 +7306,16 @@
         <v>802</v>
       </c>
       <c r="R58" t="b">
-        <v>1</v>
-      </c>
-      <c r="S58" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S58" t="b">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>14</v>
       </c>
@@ -6724,13 +7365,16 @@
         <v>802</v>
       </c>
       <c r="R59" t="b">
-        <v>1</v>
-      </c>
-      <c r="S59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S59" t="b">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>15</v>
       </c>
@@ -6783,13 +7427,16 @@
         <v>795</v>
       </c>
       <c r="R60" t="b">
-        <v>1</v>
-      </c>
-      <c r="S60" t="s">
+        <v>0</v>
+      </c>
+      <c r="S60" t="b">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>16</v>
       </c>
@@ -6842,13 +7489,16 @@
         <v>795</v>
       </c>
       <c r="R61" t="b">
-        <v>1</v>
-      </c>
-      <c r="S61" t="s">
+        <v>0</v>
+      </c>
+      <c r="S61" t="b">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6">
         <v>17</v>
       </c>
@@ -6901,13 +7551,16 @@
         <v>795</v>
       </c>
       <c r="R62" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S62" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S62" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T62" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>18</v>
       </c>
@@ -6960,13 +7613,16 @@
         <v>795</v>
       </c>
       <c r="R63" t="b">
-        <v>1</v>
-      </c>
-      <c r="S63" t="s">
+        <v>0</v>
+      </c>
+      <c r="S63" t="b">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>19</v>
       </c>
@@ -7019,13 +7675,16 @@
         <v>795</v>
       </c>
       <c r="R64" t="b">
-        <v>1</v>
-      </c>
-      <c r="S64" t="s">
+        <v>0</v>
+      </c>
+      <c r="S64" t="b">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>20</v>
       </c>
@@ -7078,13 +7737,16 @@
         <v>795</v>
       </c>
       <c r="R65" t="b">
-        <v>1</v>
-      </c>
-      <c r="S65" t="s">
+        <v>0</v>
+      </c>
+      <c r="S65" t="b">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>21</v>
       </c>
@@ -7137,13 +7799,16 @@
         <v>795</v>
       </c>
       <c r="R66" t="b">
-        <v>1</v>
-      </c>
-      <c r="S66" t="s">
+        <v>0</v>
+      </c>
+      <c r="S66" t="b">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>22</v>
       </c>
@@ -7196,13 +7861,16 @@
         <v>795</v>
       </c>
       <c r="R67" t="b">
-        <v>1</v>
-      </c>
-      <c r="S67" t="s">
+        <v>0</v>
+      </c>
+      <c r="S67" t="b">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>23</v>
       </c>
@@ -7255,13 +7923,16 @@
         <v>795</v>
       </c>
       <c r="R68" t="b">
-        <v>1</v>
-      </c>
-      <c r="S68" t="s">
+        <v>0</v>
+      </c>
+      <c r="S68" t="b">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>24</v>
       </c>
@@ -7314,13 +7985,16 @@
         <v>795</v>
       </c>
       <c r="R69" t="b">
-        <v>1</v>
-      </c>
-      <c r="S69" t="s">
+        <v>0</v>
+      </c>
+      <c r="S69" t="b">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>25</v>
       </c>
@@ -7373,13 +8047,16 @@
         <v>795</v>
       </c>
       <c r="R70" t="b">
-        <v>1</v>
-      </c>
-      <c r="S70" t="s">
+        <v>0</v>
+      </c>
+      <c r="S70" t="b">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>26</v>
       </c>
@@ -7432,13 +8109,16 @@
         <v>795</v>
       </c>
       <c r="R71" t="b">
-        <v>1</v>
-      </c>
-      <c r="S71" t="s">
+        <v>0</v>
+      </c>
+      <c r="S71" t="b">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>27</v>
       </c>
@@ -7491,13 +8171,16 @@
         <v>795</v>
       </c>
       <c r="R72" t="b">
-        <v>1</v>
-      </c>
-      <c r="S72" t="s">
+        <v>0</v>
+      </c>
+      <c r="S72" t="b">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
         <v>28</v>
       </c>
@@ -7550,13 +8233,16 @@
         <v>795</v>
       </c>
       <c r="R73" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S73" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S73" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T73" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>29</v>
       </c>
@@ -7609,13 +8295,16 @@
         <v>795</v>
       </c>
       <c r="R74" t="b">
-        <v>1</v>
-      </c>
-      <c r="S74" t="s">
+        <v>0</v>
+      </c>
+      <c r="S74" t="b">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>30</v>
       </c>
@@ -7668,13 +8357,16 @@
         <v>795</v>
       </c>
       <c r="R75" t="b">
-        <v>1</v>
-      </c>
-      <c r="S75" t="s">
+        <v>0</v>
+      </c>
+      <c r="S75" t="b">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>31</v>
       </c>
@@ -7727,13 +8419,16 @@
         <v>795</v>
       </c>
       <c r="R76" t="b">
-        <v>1</v>
-      </c>
-      <c r="S76" t="s">
+        <v>0</v>
+      </c>
+      <c r="S76" t="b">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>32</v>
       </c>
@@ -7786,13 +8481,16 @@
         <v>795</v>
       </c>
       <c r="R77" t="b">
-        <v>1</v>
-      </c>
-      <c r="S77" t="s">
+        <v>0</v>
+      </c>
+      <c r="S77" t="b">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="6">
         <v>33</v>
       </c>
@@ -7845,13 +8543,16 @@
         <v>795</v>
       </c>
       <c r="R78" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S78" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S78" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T78" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>34</v>
       </c>
@@ -7904,13 +8605,16 @@
         <v>795</v>
       </c>
       <c r="R79" t="b">
-        <v>1</v>
-      </c>
-      <c r="S79" t="s">
+        <v>0</v>
+      </c>
+      <c r="S79" t="b">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>35</v>
       </c>
@@ -7963,13 +8667,16 @@
         <v>795</v>
       </c>
       <c r="R80" t="b">
-        <v>1</v>
-      </c>
-      <c r="S80" t="s">
+        <v>0</v>
+      </c>
+      <c r="S80" t="b">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>36</v>
       </c>
@@ -8022,13 +8729,16 @@
         <v>795</v>
       </c>
       <c r="R81" t="b">
-        <v>1</v>
-      </c>
-      <c r="S81" t="s">
+        <v>0</v>
+      </c>
+      <c r="S81" t="b">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>37</v>
       </c>
@@ -8081,13 +8791,16 @@
         <v>795</v>
       </c>
       <c r="R82" t="b">
-        <v>1</v>
-      </c>
-      <c r="S82" t="s">
+        <v>0</v>
+      </c>
+      <c r="S82" t="b">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>38</v>
       </c>
@@ -8140,13 +8853,16 @@
         <v>795</v>
       </c>
       <c r="R83" t="b">
-        <v>1</v>
-      </c>
-      <c r="S83" t="s">
+        <v>0</v>
+      </c>
+      <c r="S83" t="b">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>39</v>
       </c>
@@ -8199,13 +8915,16 @@
         <v>795</v>
       </c>
       <c r="R84" t="b">
-        <v>1</v>
-      </c>
-      <c r="S84" t="s">
+        <v>0</v>
+      </c>
+      <c r="S84" t="b">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>40</v>
       </c>
@@ -8258,13 +8977,16 @@
         <v>795</v>
       </c>
       <c r="R85" t="b">
-        <v>1</v>
-      </c>
-      <c r="S85" t="s">
+        <v>0</v>
+      </c>
+      <c r="S85" t="b">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>41</v>
       </c>
@@ -8317,13 +9039,16 @@
         <v>795</v>
       </c>
       <c r="R86" t="b">
-        <v>1</v>
-      </c>
-      <c r="S86" t="s">
+        <v>0</v>
+      </c>
+      <c r="S86" t="b">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -8376,13 +9101,16 @@
         <v>427</v>
       </c>
       <c r="R87" t="b">
-        <v>1</v>
-      </c>
-      <c r="S87" t="s">
+        <v>0</v>
+      </c>
+      <c r="S87" t="b">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2</v>
       </c>
@@ -8435,13 +9163,16 @@
         <v>427</v>
       </c>
       <c r="R88" t="b">
-        <v>1</v>
-      </c>
-      <c r="S88" t="s">
+        <v>0</v>
+      </c>
+      <c r="S88" t="b">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3</v>
       </c>
@@ -8494,13 +9225,16 @@
         <v>427</v>
       </c>
       <c r="R89" t="b">
-        <v>1</v>
-      </c>
-      <c r="S89" t="s">
+        <v>0</v>
+      </c>
+      <c r="S89" t="b">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4</v>
       </c>
@@ -8553,13 +9287,16 @@
         <v>427</v>
       </c>
       <c r="R90" t="b">
-        <v>1</v>
-      </c>
-      <c r="S90" t="s">
+        <v>0</v>
+      </c>
+      <c r="S90" t="b">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>5</v>
       </c>
@@ -8612,13 +9349,16 @@
         <v>427</v>
       </c>
       <c r="R91" t="b">
-        <v>1</v>
-      </c>
-      <c r="S91" t="s">
+        <v>0</v>
+      </c>
+      <c r="S91" t="b">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>6</v>
       </c>
@@ -8671,13 +9411,16 @@
         <v>427</v>
       </c>
       <c r="R92" t="b">
-        <v>1</v>
-      </c>
-      <c r="S92" t="s">
+        <v>0</v>
+      </c>
+      <c r="S92" t="b">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>7</v>
       </c>
@@ -8730,13 +9473,16 @@
         <v>427</v>
       </c>
       <c r="R93" t="b">
-        <v>1</v>
-      </c>
-      <c r="S93" t="s">
+        <v>0</v>
+      </c>
+      <c r="S93" t="b">
+        <v>1</v>
+      </c>
+      <c r="T93" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>8</v>
       </c>
@@ -8789,13 +9535,16 @@
         <v>427</v>
       </c>
       <c r="R94" t="b">
-        <v>1</v>
-      </c>
-      <c r="S94" t="s">
+        <v>0</v>
+      </c>
+      <c r="S94" t="b">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>9</v>
       </c>
@@ -8848,13 +9597,16 @@
         <v>427</v>
       </c>
       <c r="R95" t="b">
-        <v>1</v>
-      </c>
-      <c r="S95" t="s">
+        <v>0</v>
+      </c>
+      <c r="S95" t="b">
+        <v>1</v>
+      </c>
+      <c r="T95" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>10</v>
       </c>
@@ -8907,13 +9659,16 @@
         <v>427</v>
       </c>
       <c r="R96" t="b">
-        <v>1</v>
-      </c>
-      <c r="S96" t="s">
+        <v>0</v>
+      </c>
+      <c r="S96" t="b">
+        <v>1</v>
+      </c>
+      <c r="T96" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>11</v>
       </c>
@@ -8966,13 +9721,16 @@
         <v>427</v>
       </c>
       <c r="R97" t="b">
-        <v>1</v>
-      </c>
-      <c r="S97" t="s">
+        <v>0</v>
+      </c>
+      <c r="S97" t="b">
+        <v>1</v>
+      </c>
+      <c r="T97" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>12</v>
       </c>
@@ -9025,13 +9783,16 @@
         <v>427</v>
       </c>
       <c r="R98" t="b">
-        <v>1</v>
-      </c>
-      <c r="S98" t="s">
+        <v>0</v>
+      </c>
+      <c r="S98" t="b">
+        <v>1</v>
+      </c>
+      <c r="T98" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="99" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6">
         <v>13</v>
       </c>
@@ -9084,13 +9845,16 @@
         <v>427</v>
       </c>
       <c r="R99" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S99" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S99" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T99" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="100" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
         <v>14</v>
       </c>
@@ -9143,13 +9907,16 @@
         <v>427</v>
       </c>
       <c r="R100" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S100" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S100" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T100" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="101" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
         <v>15</v>
       </c>
@@ -9202,13 +9969,16 @@
         <v>427</v>
       </c>
       <c r="R101" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S101" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S101" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T101" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="102" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>16</v>
       </c>
@@ -9261,13 +10031,16 @@
         <v>427</v>
       </c>
       <c r="R102" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S102" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S102" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T102" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>17</v>
       </c>
@@ -9320,13 +10093,16 @@
         <v>427</v>
       </c>
       <c r="R103" t="b">
-        <v>1</v>
-      </c>
-      <c r="S103" t="s">
+        <v>0</v>
+      </c>
+      <c r="S103" t="b">
+        <v>1</v>
+      </c>
+      <c r="T103" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>18</v>
       </c>
@@ -9379,13 +10155,16 @@
         <v>427</v>
       </c>
       <c r="R104" t="b">
-        <v>1</v>
-      </c>
-      <c r="S104" t="s">
+        <v>0</v>
+      </c>
+      <c r="S104" t="b">
+        <v>1</v>
+      </c>
+      <c r="T104" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>19</v>
       </c>
@@ -9438,13 +10217,16 @@
         <v>427</v>
       </c>
       <c r="R105" t="b">
-        <v>1</v>
-      </c>
-      <c r="S105" t="s">
+        <v>0</v>
+      </c>
+      <c r="S105" t="b">
+        <v>1</v>
+      </c>
+      <c r="T105" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>20</v>
       </c>
@@ -9497,13 +10279,16 @@
         <v>427</v>
       </c>
       <c r="R106" t="b">
-        <v>1</v>
-      </c>
-      <c r="S106" t="s">
+        <v>0</v>
+      </c>
+      <c r="S106" t="b">
+        <v>1</v>
+      </c>
+      <c r="T106" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>21</v>
       </c>
@@ -9556,13 +10341,16 @@
         <v>427</v>
       </c>
       <c r="R107" t="b">
-        <v>1</v>
-      </c>
-      <c r="S107" t="s">
+        <v>0</v>
+      </c>
+      <c r="S107" t="b">
+        <v>1</v>
+      </c>
+      <c r="T107" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>22</v>
       </c>
@@ -9615,13 +10403,16 @@
         <v>427</v>
       </c>
       <c r="R108" t="b">
-        <v>1</v>
-      </c>
-      <c r="S108" t="s">
+        <v>0</v>
+      </c>
+      <c r="S108" t="b">
+        <v>1</v>
+      </c>
+      <c r="T108" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>23</v>
       </c>
@@ -9674,13 +10465,16 @@
         <v>427</v>
       </c>
       <c r="R109" t="b">
-        <v>1</v>
-      </c>
-      <c r="S109" t="s">
+        <v>0</v>
+      </c>
+      <c r="S109" t="b">
+        <v>1</v>
+      </c>
+      <c r="T109" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>24</v>
       </c>
@@ -9733,13 +10527,16 @@
         <v>427</v>
       </c>
       <c r="R110" t="b">
-        <v>1</v>
-      </c>
-      <c r="S110" t="s">
+        <v>0</v>
+      </c>
+      <c r="S110" t="b">
+        <v>1</v>
+      </c>
+      <c r="T110" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>25</v>
       </c>
@@ -9792,13 +10589,16 @@
         <v>427</v>
       </c>
       <c r="R111" t="b">
-        <v>1</v>
-      </c>
-      <c r="S111" t="s">
+        <v>0</v>
+      </c>
+      <c r="S111" t="b">
+        <v>1</v>
+      </c>
+      <c r="T111" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>26</v>
       </c>
@@ -9851,13 +10651,16 @@
         <v>427</v>
       </c>
       <c r="R112" t="b">
-        <v>1</v>
-      </c>
-      <c r="S112" t="s">
+        <v>0</v>
+      </c>
+      <c r="S112" t="b">
+        <v>1</v>
+      </c>
+      <c r="T112" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>27</v>
       </c>
@@ -9910,13 +10713,16 @@
         <v>427</v>
       </c>
       <c r="R113" t="b">
-        <v>1</v>
-      </c>
-      <c r="S113" t="s">
+        <v>0</v>
+      </c>
+      <c r="S113" t="b">
+        <v>1</v>
+      </c>
+      <c r="T113" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>28</v>
       </c>
@@ -9969,13 +10775,16 @@
         <v>427</v>
       </c>
       <c r="R114" t="b">
-        <v>1</v>
-      </c>
-      <c r="S114" t="s">
+        <v>0</v>
+      </c>
+      <c r="S114" t="b">
+        <v>1</v>
+      </c>
+      <c r="T114" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="115" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>29</v>
       </c>
@@ -10028,13 +10837,16 @@
         <v>427</v>
       </c>
       <c r="R115" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S115" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S115" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T115" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>30</v>
       </c>
@@ -10087,13 +10899,16 @@
         <v>427</v>
       </c>
       <c r="R116" t="b">
-        <v>1</v>
-      </c>
-      <c r="S116" t="s">
+        <v>0</v>
+      </c>
+      <c r="S116" t="b">
+        <v>1</v>
+      </c>
+      <c r="T116" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>31</v>
       </c>
@@ -10146,13 +10961,16 @@
         <v>427</v>
       </c>
       <c r="R117" t="b">
-        <v>1</v>
-      </c>
-      <c r="S117" t="s">
+        <v>0</v>
+      </c>
+      <c r="S117" t="b">
+        <v>1</v>
+      </c>
+      <c r="T117" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="118" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
         <v>32</v>
       </c>
@@ -10205,13 +11023,16 @@
         <v>427</v>
       </c>
       <c r="R118" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S118" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S118" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T118" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>33</v>
       </c>
@@ -10264,13 +11085,16 @@
         <v>427</v>
       </c>
       <c r="R119" t="b">
-        <v>1</v>
-      </c>
-      <c r="S119" t="s">
+        <v>0</v>
+      </c>
+      <c r="S119" t="b">
+        <v>1</v>
+      </c>
+      <c r="T119" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>34</v>
       </c>
@@ -10323,13 +11147,16 @@
         <v>427</v>
       </c>
       <c r="R120" t="b">
-        <v>1</v>
-      </c>
-      <c r="S120" t="s">
+        <v>0</v>
+      </c>
+      <c r="S120" t="b">
+        <v>1</v>
+      </c>
+      <c r="T120" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="121" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
         <v>35</v>
       </c>
@@ -10382,13 +11209,16 @@
         <v>427</v>
       </c>
       <c r="R121" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S121" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S121" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T121" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>36</v>
       </c>
@@ -10441,13 +11271,16 @@
         <v>427</v>
       </c>
       <c r="R122" t="b">
-        <v>1</v>
-      </c>
-      <c r="S122" t="s">
+        <v>0</v>
+      </c>
+      <c r="S122" t="b">
+        <v>1</v>
+      </c>
+      <c r="T122" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>37</v>
       </c>
@@ -10500,13 +11333,16 @@
         <v>427</v>
       </c>
       <c r="R123" t="b">
-        <v>1</v>
-      </c>
-      <c r="S123" t="s">
+        <v>0</v>
+      </c>
+      <c r="S123" t="b">
+        <v>1</v>
+      </c>
+      <c r="T123" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="124" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>38</v>
       </c>
@@ -10559,13 +11395,16 @@
         <v>427</v>
       </c>
       <c r="R124" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S124" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S124" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T124" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>39</v>
       </c>
@@ -10618,13 +11457,16 @@
         <v>427</v>
       </c>
       <c r="R125" t="b">
-        <v>1</v>
-      </c>
-      <c r="S125" t="s">
+        <v>0</v>
+      </c>
+      <c r="S125" t="b">
+        <v>1</v>
+      </c>
+      <c r="T125" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>40</v>
       </c>
@@ -10677,13 +11519,16 @@
         <v>427</v>
       </c>
       <c r="R126" t="b">
-        <v>1</v>
-      </c>
-      <c r="S126" t="s">
+        <v>0</v>
+      </c>
+      <c r="S126" t="b">
+        <v>1</v>
+      </c>
+      <c r="T126" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="127" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
         <v>41</v>
       </c>
@@ -10736,13 +11581,16 @@
         <v>427</v>
       </c>
       <c r="R127" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S127" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S127" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T127" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>42</v>
       </c>
@@ -10795,13 +11643,16 @@
         <v>427</v>
       </c>
       <c r="R128" t="b">
-        <v>1</v>
-      </c>
-      <c r="S128" t="s">
+        <v>0</v>
+      </c>
+      <c r="S128" t="b">
+        <v>1</v>
+      </c>
+      <c r="T128" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1</v>
       </c>
@@ -10854,13 +11705,16 @@
         <v>37</v>
       </c>
       <c r="R129" t="b">
-        <v>1</v>
-      </c>
-      <c r="S129" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S129" t="b">
+        <v>1</v>
+      </c>
+      <c r="T129" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2</v>
       </c>
@@ -10913,13 +11767,16 @@
         <v>37</v>
       </c>
       <c r="R130" t="b">
-        <v>1</v>
-      </c>
-      <c r="S130" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S130" t="b">
+        <v>1</v>
+      </c>
+      <c r="T130" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>3</v>
       </c>
@@ -10972,13 +11829,16 @@
         <v>37</v>
       </c>
       <c r="R131" t="b">
-        <v>1</v>
-      </c>
-      <c r="S131" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S131" t="b">
+        <v>1</v>
+      </c>
+      <c r="T131" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>4</v>
       </c>
@@ -11031,13 +11891,16 @@
         <v>37</v>
       </c>
       <c r="R132" t="b">
-        <v>1</v>
-      </c>
-      <c r="S132" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S132" t="b">
+        <v>1</v>
+      </c>
+      <c r="T132" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>5</v>
       </c>
@@ -11090,13 +11953,16 @@
         <v>37</v>
       </c>
       <c r="R133" t="b">
-        <v>1</v>
-      </c>
-      <c r="S133" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S133" t="b">
+        <v>1</v>
+      </c>
+      <c r="T133" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>6</v>
       </c>
@@ -11149,13 +12015,16 @@
         <v>37</v>
       </c>
       <c r="R134" t="b">
-        <v>1</v>
-      </c>
-      <c r="S134" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S134" t="b">
+        <v>1</v>
+      </c>
+      <c r="T134" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>7</v>
       </c>
@@ -11208,13 +12077,16 @@
         <v>37</v>
       </c>
       <c r="R135" t="b">
-        <v>1</v>
-      </c>
-      <c r="S135" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S135" t="b">
+        <v>1</v>
+      </c>
+      <c r="T135" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>8</v>
       </c>
@@ -11267,13 +12139,16 @@
         <v>37</v>
       </c>
       <c r="R136" t="b">
-        <v>1</v>
-      </c>
-      <c r="S136" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S136" t="b">
+        <v>1</v>
+      </c>
+      <c r="T136" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>9</v>
       </c>
@@ -11326,13 +12201,16 @@
         <v>37</v>
       </c>
       <c r="R137" t="b">
-        <v>1</v>
-      </c>
-      <c r="S137" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S137" t="b">
+        <v>1</v>
+      </c>
+      <c r="T137" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>10</v>
       </c>
@@ -11385,13 +12263,16 @@
         <v>37</v>
       </c>
       <c r="R138" t="b">
-        <v>1</v>
-      </c>
-      <c r="S138" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S138" t="b">
+        <v>1</v>
+      </c>
+      <c r="T138" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>11</v>
       </c>
@@ -11444,13 +12325,16 @@
         <v>37</v>
       </c>
       <c r="R139" t="b">
-        <v>1</v>
-      </c>
-      <c r="S139" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S139" t="b">
+        <v>1</v>
+      </c>
+      <c r="T139" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>12</v>
       </c>
@@ -11503,13 +12387,16 @@
         <v>37</v>
       </c>
       <c r="R140" t="b">
-        <v>1</v>
-      </c>
-      <c r="S140" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S140" t="b">
+        <v>1</v>
+      </c>
+      <c r="T140" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>13</v>
       </c>
@@ -11562,13 +12449,16 @@
         <v>37</v>
       </c>
       <c r="R141" t="b">
-        <v>1</v>
-      </c>
-      <c r="S141" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S141" t="b">
+        <v>1</v>
+      </c>
+      <c r="T141" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
         <v>1</v>
       </c>
@@ -11621,13 +12511,16 @@
         <v>317</v>
       </c>
       <c r="R142" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S142" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S142" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T142" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2</v>
       </c>
@@ -11680,13 +12573,16 @@
         <v>43</v>
       </c>
       <c r="R143" t="b">
-        <v>1</v>
-      </c>
-      <c r="S143" t="s">
+        <v>0</v>
+      </c>
+      <c r="S143" t="b">
+        <v>1</v>
+      </c>
+      <c r="T143" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>3</v>
       </c>
@@ -11739,13 +12635,16 @@
         <v>43</v>
       </c>
       <c r="R144" t="b">
-        <v>1</v>
-      </c>
-      <c r="S144" t="s">
+        <v>0</v>
+      </c>
+      <c r="S144" t="b">
+        <v>1</v>
+      </c>
+      <c r="T144" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
         <v>4</v>
       </c>
@@ -11798,13 +12697,16 @@
         <v>43</v>
       </c>
       <c r="R145" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S145" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S145" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T145" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>5</v>
       </c>
@@ -11854,13 +12756,16 @@
         <v>797</v>
       </c>
       <c r="R146" t="b">
-        <v>1</v>
-      </c>
-      <c r="S146" t="s">
+        <v>0</v>
+      </c>
+      <c r="S146" t="b">
+        <v>1</v>
+      </c>
+      <c r="T146" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>6</v>
       </c>
@@ -11913,13 +12818,16 @@
         <v>427</v>
       </c>
       <c r="R147" t="b">
-        <v>1</v>
-      </c>
-      <c r="S147" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S147" t="b">
+        <v>1</v>
+      </c>
+      <c r="T147" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>7</v>
       </c>
@@ -11972,13 +12880,16 @@
         <v>428</v>
       </c>
       <c r="R148" t="b">
-        <v>1</v>
-      </c>
-      <c r="S148" t="s">
+        <v>0</v>
+      </c>
+      <c r="S148" t="b">
+        <v>1</v>
+      </c>
+      <c r="T148" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>8</v>
       </c>
@@ -12028,13 +12939,16 @@
         <v>37</v>
       </c>
       <c r="R149" t="b">
-        <v>1</v>
-      </c>
-      <c r="S149" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S149" t="b">
+        <v>1</v>
+      </c>
+      <c r="T149" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>9</v>
       </c>
@@ -12087,13 +13001,16 @@
         <v>37</v>
       </c>
       <c r="R150" t="b">
-        <v>1</v>
-      </c>
-      <c r="S150" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S150" t="b">
+        <v>1</v>
+      </c>
+      <c r="T150" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>10</v>
       </c>
@@ -12122,10 +13039,13 @@
         <v>1</v>
       </c>
       <c r="R151" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
         <v>11</v>
       </c>
@@ -12154,10 +13074,13 @@
         <v>1</v>
       </c>
       <c r="R152" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S152" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>12</v>
       </c>
@@ -12186,10 +13109,13 @@
         <v>1</v>
       </c>
       <c r="R153" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>13</v>
       </c>
@@ -12218,10 +13144,13 @@
         <v>1</v>
       </c>
       <c r="R154" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
         <v>14</v>
       </c>
@@ -12250,10 +13179,13 @@
         <v>1</v>
       </c>
       <c r="R155" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S155" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>15</v>
       </c>
@@ -12282,10 +13214,13 @@
         <v>1</v>
       </c>
       <c r="R156" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>16</v>
       </c>
@@ -12314,10 +13249,13 @@
         <v>1</v>
       </c>
       <c r="R157" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
         <v>17</v>
       </c>
@@ -12346,10 +13284,13 @@
         <v>1</v>
       </c>
       <c r="R158" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S158" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>18</v>
       </c>
@@ -12378,10 +13319,13 @@
         <v>1</v>
       </c>
       <c r="R159" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>19</v>
       </c>
@@ -12410,10 +13354,13 @@
         <v>1</v>
       </c>
       <c r="R160" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>20</v>
       </c>
@@ -12442,10 +13389,13 @@
         <v>1</v>
       </c>
       <c r="R161" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>21</v>
       </c>
@@ -12474,10 +13424,13 @@
         <v>1</v>
       </c>
       <c r="R162" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
         <v>22</v>
       </c>
@@ -12530,13 +13483,16 @@
         <v>427</v>
       </c>
       <c r="R163" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S163" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S163" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T163" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>23</v>
       </c>
@@ -12589,13 +13545,16 @@
         <v>427</v>
       </c>
       <c r="R164" t="b">
-        <v>1</v>
-      </c>
-      <c r="S164" t="s">
+        <v>0</v>
+      </c>
+      <c r="S164" t="b">
+        <v>1</v>
+      </c>
+      <c r="T164" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="165" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
         <v>24</v>
       </c>
@@ -12648,13 +13607,16 @@
         <v>427</v>
       </c>
       <c r="R165" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S165" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S165" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T165" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>25</v>
       </c>
@@ -12707,13 +13669,16 @@
         <v>37</v>
       </c>
       <c r="R166" t="b">
-        <v>1</v>
-      </c>
-      <c r="S166" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S166" t="b">
+        <v>1</v>
+      </c>
+      <c r="T166" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
         <v>26</v>
       </c>
@@ -12763,13 +13728,16 @@
         <v>43</v>
       </c>
       <c r="R167" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S167" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S167" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T167" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>27</v>
       </c>
@@ -12819,13 +13787,16 @@
         <v>43</v>
       </c>
       <c r="R168" t="b">
-        <v>1</v>
-      </c>
-      <c r="S168" t="s">
+        <v>0</v>
+      </c>
+      <c r="S168" t="b">
+        <v>1</v>
+      </c>
+      <c r="T168" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>28</v>
       </c>
@@ -12878,13 +13849,16 @@
         <v>795</v>
       </c>
       <c r="R169" t="b">
-        <v>1</v>
-      </c>
-      <c r="S169" t="s">
+        <v>0</v>
+      </c>
+      <c r="S169" t="b">
+        <v>1</v>
+      </c>
+      <c r="T169" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>29</v>
       </c>
@@ -12937,13 +13911,16 @@
         <v>795</v>
       </c>
       <c r="R170" t="b">
-        <v>1</v>
-      </c>
-      <c r="S170" t="s">
+        <v>0</v>
+      </c>
+      <c r="S170" t="b">
+        <v>1</v>
+      </c>
+      <c r="T170" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>30</v>
       </c>
@@ -12996,13 +13973,16 @@
         <v>795</v>
       </c>
       <c r="R171" t="b">
-        <v>1</v>
-      </c>
-      <c r="S171" t="s">
+        <v>0</v>
+      </c>
+      <c r="S171" t="b">
+        <v>1</v>
+      </c>
+      <c r="T171" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="172" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
         <v>31</v>
       </c>
@@ -13055,13 +14035,16 @@
         <v>427</v>
       </c>
       <c r="R172" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S172" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S172" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T172" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="173" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
         <v>32</v>
       </c>
@@ -13114,13 +14097,16 @@
         <v>427</v>
       </c>
       <c r="R173" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S173" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S173" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T173" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="174" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
         <v>33</v>
       </c>
@@ -13173,13 +14159,16 @@
         <v>427</v>
       </c>
       <c r="R174" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S174" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S174" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T174" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="175" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
         <v>34</v>
       </c>
@@ -13232,13 +14221,16 @@
         <v>427</v>
       </c>
       <c r="R175" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S175" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S175" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T175" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="176" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
         <v>35</v>
       </c>
@@ -13291,13 +14283,16 @@
         <v>427</v>
       </c>
       <c r="R176" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S176" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S176" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T176" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="177" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
         <v>36</v>
       </c>
@@ -13350,13 +14345,16 @@
         <v>427</v>
       </c>
       <c r="R177" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S177" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S177" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T177" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>37</v>
       </c>
@@ -13409,13 +14407,16 @@
         <v>427</v>
       </c>
       <c r="R178" t="b">
-        <v>1</v>
-      </c>
-      <c r="S178" t="s">
+        <v>0</v>
+      </c>
+      <c r="S178" t="b">
+        <v>1</v>
+      </c>
+      <c r="T178" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>38</v>
       </c>
@@ -13468,13 +14469,16 @@
         <v>427</v>
       </c>
       <c r="R179" t="b">
-        <v>1</v>
-      </c>
-      <c r="S179" t="s">
+        <v>0</v>
+      </c>
+      <c r="S179" t="b">
+        <v>1</v>
+      </c>
+      <c r="T179" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>39</v>
       </c>
@@ -13527,13 +14531,16 @@
         <v>427</v>
       </c>
       <c r="R180" t="b">
-        <v>1</v>
-      </c>
-      <c r="S180" t="s">
+        <v>0</v>
+      </c>
+      <c r="S180" t="b">
+        <v>1</v>
+      </c>
+      <c r="T180" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="181" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
         <v>40</v>
       </c>
@@ -13586,13 +14593,16 @@
         <v>427</v>
       </c>
       <c r="R181" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S181" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S181" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T181" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>41</v>
       </c>
@@ -13645,13 +14655,16 @@
         <v>427</v>
       </c>
       <c r="R182" t="b">
-        <v>1</v>
-      </c>
-      <c r="S182" t="s">
+        <v>0</v>
+      </c>
+      <c r="S182" t="b">
+        <v>1</v>
+      </c>
+      <c r="T182" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>42</v>
       </c>
@@ -13704,13 +14717,16 @@
         <v>427</v>
       </c>
       <c r="R183" t="b">
-        <v>1</v>
-      </c>
-      <c r="S183" t="s">
+        <v>0</v>
+      </c>
+      <c r="S183" t="b">
+        <v>1</v>
+      </c>
+      <c r="T183" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="184" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
         <v>43</v>
       </c>
@@ -13763,13 +14779,16 @@
         <v>427</v>
       </c>
       <c r="R184" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S184" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S184" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T184" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="185" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
         <v>44</v>
       </c>
@@ -13822,13 +14841,16 @@
         <v>427</v>
       </c>
       <c r="R185" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S185" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S185" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T185" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1</v>
       </c>
@@ -13881,13 +14903,16 @@
         <v>312</v>
       </c>
       <c r="R186" t="b">
-        <v>1</v>
-      </c>
-      <c r="S186" t="s">
+        <v>0</v>
+      </c>
+      <c r="S186" t="b">
+        <v>1</v>
+      </c>
+      <c r="T186" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2</v>
       </c>
@@ -13940,13 +14965,16 @@
         <v>312</v>
       </c>
       <c r="R187" t="b">
-        <v>1</v>
-      </c>
-      <c r="S187" t="s">
+        <v>0</v>
+      </c>
+      <c r="S187" t="b">
+        <v>1</v>
+      </c>
+      <c r="T187" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="188" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
         <v>3</v>
       </c>
@@ -13999,13 +15027,16 @@
         <v>312</v>
       </c>
       <c r="R188" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S188" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S188" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T188" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>4</v>
       </c>
@@ -14058,13 +15089,16 @@
         <v>312</v>
       </c>
       <c r="R189" t="b">
-        <v>1</v>
-      </c>
-      <c r="S189" t="s">
+        <v>0</v>
+      </c>
+      <c r="S189" t="b">
+        <v>1</v>
+      </c>
+      <c r="T189" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>5</v>
       </c>
@@ -14117,13 +15151,16 @@
         <v>312</v>
       </c>
       <c r="R190" t="b">
-        <v>1</v>
-      </c>
-      <c r="S190" t="s">
+        <v>0</v>
+      </c>
+      <c r="S190" t="b">
+        <v>1</v>
+      </c>
+      <c r="T190" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>6</v>
       </c>
@@ -14176,13 +15213,16 @@
         <v>312</v>
       </c>
       <c r="R191" t="b">
-        <v>1</v>
-      </c>
-      <c r="S191" t="s">
+        <v>0</v>
+      </c>
+      <c r="S191" t="b">
+        <v>1</v>
+      </c>
+      <c r="T191" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>7</v>
       </c>
@@ -14235,13 +15275,16 @@
         <v>312</v>
       </c>
       <c r="R192" t="b">
-        <v>1</v>
-      </c>
-      <c r="S192" t="s">
+        <v>0</v>
+      </c>
+      <c r="S192" t="b">
+        <v>1</v>
+      </c>
+      <c r="T192" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="193" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
         <v>8</v>
       </c>
@@ -14294,13 +15337,16 @@
         <v>312</v>
       </c>
       <c r="R193" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S193" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S193" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T193" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>9</v>
       </c>
@@ -14353,13 +15399,16 @@
         <v>312</v>
       </c>
       <c r="R194" t="b">
-        <v>1</v>
-      </c>
-      <c r="S194" t="s">
+        <v>0</v>
+      </c>
+      <c r="S194" t="b">
+        <v>1</v>
+      </c>
+      <c r="T194" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>10</v>
       </c>
@@ -14412,13 +15461,16 @@
         <v>312</v>
       </c>
       <c r="R195" t="b">
-        <v>1</v>
-      </c>
-      <c r="S195" t="s">
+        <v>0</v>
+      </c>
+      <c r="S195" t="b">
+        <v>1</v>
+      </c>
+      <c r="T195" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>11</v>
       </c>
@@ -14471,13 +15523,16 @@
         <v>312</v>
       </c>
       <c r="R196" t="b">
-        <v>1</v>
-      </c>
-      <c r="S196" t="s">
+        <v>0</v>
+      </c>
+      <c r="S196" t="b">
+        <v>1</v>
+      </c>
+      <c r="T196" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>12</v>
       </c>
@@ -14530,13 +15585,16 @@
         <v>312</v>
       </c>
       <c r="R197" t="b">
-        <v>1</v>
-      </c>
-      <c r="S197" t="s">
+        <v>0</v>
+      </c>
+      <c r="S197" t="b">
+        <v>1</v>
+      </c>
+      <c r="T197" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="198" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
         <v>13</v>
       </c>
@@ -14589,13 +15647,16 @@
         <v>312</v>
       </c>
       <c r="R198" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S198" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S198" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="T198" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>14</v>
       </c>
@@ -14648,13 +15709,16 @@
         <v>312</v>
       </c>
       <c r="R199" t="b">
-        <v>1</v>
-      </c>
-      <c r="S199" t="s">
+        <v>0</v>
+      </c>
+      <c r="S199" t="b">
+        <v>1</v>
+      </c>
+      <c r="T199" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>15</v>
       </c>
@@ -14707,13 +15771,16 @@
         <v>312</v>
       </c>
       <c r="R200" t="b">
-        <v>1</v>
-      </c>
-      <c r="S200" t="s">
+        <v>0</v>
+      </c>
+      <c r="S200" t="b">
+        <v>1</v>
+      </c>
+      <c r="T200" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1</v>
       </c>
@@ -14766,13 +15833,16 @@
         <v>37</v>
       </c>
       <c r="R201" t="b">
-        <v>1</v>
-      </c>
-      <c r="S201" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S201" t="b">
+        <v>1</v>
+      </c>
+      <c r="T201" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2</v>
       </c>
@@ -14825,13 +15895,16 @@
         <v>37</v>
       </c>
       <c r="R202" t="b">
-        <v>1</v>
-      </c>
-      <c r="S202" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S202" t="b">
+        <v>1</v>
+      </c>
+      <c r="T202" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>3</v>
       </c>
@@ -14884,13 +15957,16 @@
         <v>37</v>
       </c>
       <c r="R203" t="b">
-        <v>1</v>
-      </c>
-      <c r="S203" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S203" t="b">
+        <v>1</v>
+      </c>
+      <c r="T203" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>4</v>
       </c>
@@ -14943,13 +16019,16 @@
         <v>37</v>
       </c>
       <c r="R204" t="b">
-        <v>1</v>
-      </c>
-      <c r="S204" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S204" t="b">
+        <v>1</v>
+      </c>
+      <c r="T204" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>5</v>
       </c>
@@ -15002,13 +16081,16 @@
         <v>37</v>
       </c>
       <c r="R205" t="b">
-        <v>1</v>
-      </c>
-      <c r="S205" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S205" t="b">
+        <v>1</v>
+      </c>
+      <c r="T205" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>6</v>
       </c>
@@ -15061,13 +16143,16 @@
         <v>37</v>
       </c>
       <c r="R206" t="b">
-        <v>1</v>
-      </c>
-      <c r="S206" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S206" t="b">
+        <v>1</v>
+      </c>
+      <c r="T206" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>7</v>
       </c>
@@ -15120,13 +16205,16 @@
         <v>37</v>
       </c>
       <c r="R207" t="b">
-        <v>1</v>
-      </c>
-      <c r="S207" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S207" t="b">
+        <v>1</v>
+      </c>
+      <c r="T207" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>8</v>
       </c>
@@ -15179,13 +16267,16 @@
         <v>37</v>
       </c>
       <c r="R208" t="b">
-        <v>1</v>
-      </c>
-      <c r="S208" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S208" t="b">
+        <v>1</v>
+      </c>
+      <c r="T208" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>9</v>
       </c>
@@ -15238,13 +16329,16 @@
         <v>37</v>
       </c>
       <c r="R209" t="b">
-        <v>1</v>
-      </c>
-      <c r="S209" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S209" t="b">
+        <v>1</v>
+      </c>
+      <c r="T209" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>10</v>
       </c>
@@ -15297,13 +16391,16 @@
         <v>37</v>
       </c>
       <c r="R210" t="b">
-        <v>1</v>
-      </c>
-      <c r="S210" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S210" t="b">
+        <v>1</v>
+      </c>
+      <c r="T210" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>11</v>
       </c>
@@ -15356,13 +16453,16 @@
         <v>37</v>
       </c>
       <c r="R211" t="b">
-        <v>1</v>
-      </c>
-      <c r="S211" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S211" t="b">
+        <v>1</v>
+      </c>
+      <c r="T211" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>12</v>
       </c>
@@ -15415,13 +16515,16 @@
         <v>37</v>
       </c>
       <c r="R212" t="b">
-        <v>1</v>
-      </c>
-      <c r="S212" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S212" t="b">
+        <v>1</v>
+      </c>
+      <c r="T212" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>13</v>
       </c>
@@ -15474,13 +16577,16 @@
         <v>37</v>
       </c>
       <c r="R213" t="b">
-        <v>1</v>
-      </c>
-      <c r="S213" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S213" t="b">
+        <v>1</v>
+      </c>
+      <c r="T213" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1</v>
       </c>
@@ -15533,13 +16639,16 @@
         <v>312</v>
       </c>
       <c r="R214" t="b">
-        <v>1</v>
-      </c>
-      <c r="S214" t="s">
+        <v>0</v>
+      </c>
+      <c r="S214" t="b">
+        <v>1</v>
+      </c>
+      <c r="T214" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2</v>
       </c>
@@ -15592,13 +16701,16 @@
         <v>312</v>
       </c>
       <c r="R215" t="b">
-        <v>1</v>
-      </c>
-      <c r="S215" t="s">
+        <v>0</v>
+      </c>
+      <c r="S215" t="b">
+        <v>1</v>
+      </c>
+      <c r="T215" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>3</v>
       </c>
@@ -15627,10 +16739,13 @@
         <v>1</v>
       </c>
       <c r="R216" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S216" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>4</v>
       </c>
@@ -15683,13 +16798,16 @@
         <v>312</v>
       </c>
       <c r="R217" t="b">
-        <v>1</v>
-      </c>
-      <c r="S217" t="s">
+        <v>0</v>
+      </c>
+      <c r="S217" t="b">
+        <v>1</v>
+      </c>
+      <c r="T217" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>5</v>
       </c>
@@ -15742,13 +16860,16 @@
         <v>312</v>
       </c>
       <c r="R218" t="b">
-        <v>1</v>
-      </c>
-      <c r="S218" t="s">
+        <v>0</v>
+      </c>
+      <c r="S218" t="b">
+        <v>1</v>
+      </c>
+      <c r="T218" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>6</v>
       </c>
@@ -15801,13 +16922,16 @@
         <v>37</v>
       </c>
       <c r="R219" t="b">
-        <v>1</v>
-      </c>
-      <c r="S219" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S219" t="b">
+        <v>1</v>
+      </c>
+      <c r="T219" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>7</v>
       </c>
@@ -15857,13 +16981,16 @@
         <v>37</v>
       </c>
       <c r="R220" t="b">
-        <v>1</v>
-      </c>
-      <c r="S220" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S220" t="b">
+        <v>1</v>
+      </c>
+      <c r="T220" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>8</v>
       </c>
@@ -15913,13 +17040,16 @@
         <v>37</v>
       </c>
       <c r="R221" t="b">
-        <v>1</v>
-      </c>
-      <c r="S221" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S221" t="b">
+        <v>1</v>
+      </c>
+      <c r="T221" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>9</v>
       </c>
@@ -15950,8 +17080,11 @@
       <c r="R222" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>10</v>
       </c>
@@ -16003,12 +17136,2982 @@
       <c r="R223" t="b">
         <v>0</v>
       </c>
-      <c r="S223" t="s">
-        <v>37</v>
+      <c r="S223" t="b">
+        <v>0</v>
+      </c>
+      <c r="T223" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>1</v>
+      </c>
+      <c r="B224" t="s">
+        <v>853</v>
+      </c>
+      <c r="C224" t="b">
+        <v>0</v>
+      </c>
+      <c r="D224" t="s">
+        <v>874</v>
+      </c>
+      <c r="E224" t="s">
+        <v>861</v>
+      </c>
+      <c r="F224" t="s">
+        <v>895</v>
+      </c>
+      <c r="G224" t="s">
+        <v>907</v>
+      </c>
+      <c r="H224" t="s">
+        <v>879</v>
+      </c>
+      <c r="I224" t="s">
+        <v>35</v>
+      </c>
+      <c r="J224">
+        <v>-4</v>
+      </c>
+      <c r="K224">
+        <v>3</v>
+      </c>
+      <c r="L224">
+        <v>-5</v>
+      </c>
+      <c r="M224">
+        <v>3</v>
+      </c>
+      <c r="N224" t="s">
+        <v>42</v>
+      </c>
+      <c r="O224" t="s">
+        <v>37</v>
+      </c>
+      <c r="P224" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>37</v>
+      </c>
+      <c r="R224" t="b">
+        <v>0</v>
+      </c>
+      <c r="S224" t="b">
+        <v>1</v>
+      </c>
+      <c r="T224" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>2</v>
+      </c>
+      <c r="B225" t="s">
+        <v>853</v>
+      </c>
+      <c r="C225" t="b">
+        <v>0</v>
+      </c>
+      <c r="D225" t="s">
+        <v>874</v>
+      </c>
+      <c r="E225" t="s">
+        <v>862</v>
+      </c>
+      <c r="F225" t="s">
+        <v>896</v>
+      </c>
+      <c r="G225" t="s">
+        <v>907</v>
+      </c>
+      <c r="H225" t="s">
+        <v>880</v>
+      </c>
+      <c r="I225" t="s">
+        <v>35</v>
+      </c>
+      <c r="J225">
+        <v>-4</v>
+      </c>
+      <c r="K225">
+        <v>3</v>
+      </c>
+      <c r="L225">
+        <v>-5</v>
+      </c>
+      <c r="M225">
+        <v>3</v>
+      </c>
+      <c r="N225" t="s">
+        <v>42</v>
+      </c>
+      <c r="O225" t="s">
+        <v>37</v>
+      </c>
+      <c r="P225" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>37</v>
+      </c>
+      <c r="R225" t="b">
+        <v>0</v>
+      </c>
+      <c r="S225" t="b">
+        <v>1</v>
+      </c>
+      <c r="T225" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>3</v>
+      </c>
+      <c r="B226" t="s">
+        <v>853</v>
+      </c>
+      <c r="C226" t="b">
+        <v>0</v>
+      </c>
+      <c r="D226" t="s">
+        <v>874</v>
+      </c>
+      <c r="E226" t="s">
+        <v>863</v>
+      </c>
+      <c r="F226" t="s">
+        <v>897</v>
+      </c>
+      <c r="G226" t="s">
+        <v>907</v>
+      </c>
+      <c r="H226" t="s">
+        <v>881</v>
+      </c>
+      <c r="I226" t="s">
+        <v>35</v>
+      </c>
+      <c r="J226">
+        <v>-4</v>
+      </c>
+      <c r="K226">
+        <v>3</v>
+      </c>
+      <c r="L226">
+        <v>-5</v>
+      </c>
+      <c r="M226">
+        <v>3</v>
+      </c>
+      <c r="N226" t="s">
+        <v>42</v>
+      </c>
+      <c r="O226" t="s">
+        <v>37</v>
+      </c>
+      <c r="P226" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>37</v>
+      </c>
+      <c r="R226" t="b">
+        <v>0</v>
+      </c>
+      <c r="S226" t="b">
+        <v>1</v>
+      </c>
+      <c r="T226" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>4</v>
+      </c>
+      <c r="B227" t="s">
+        <v>853</v>
+      </c>
+      <c r="C227" t="b">
+        <v>0</v>
+      </c>
+      <c r="D227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E227" t="s">
+        <v>864</v>
+      </c>
+      <c r="F227" t="s">
+        <v>898</v>
+      </c>
+      <c r="G227" t="s">
+        <v>907</v>
+      </c>
+      <c r="H227" t="s">
+        <v>882</v>
+      </c>
+      <c r="I227" t="s">
+        <v>35</v>
+      </c>
+      <c r="J227">
+        <v>-5</v>
+      </c>
+      <c r="K227">
+        <v>2</v>
+      </c>
+      <c r="L227">
+        <v>-5</v>
+      </c>
+      <c r="M227">
+        <v>3</v>
+      </c>
+      <c r="N227" t="s">
+        <v>42</v>
+      </c>
+      <c r="O227" t="s">
+        <v>37</v>
+      </c>
+      <c r="P227" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>37</v>
+      </c>
+      <c r="R227" t="b">
+        <v>1</v>
+      </c>
+      <c r="S227" t="b">
+        <v>1</v>
+      </c>
+      <c r="T227" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>5</v>
+      </c>
+      <c r="B228" t="s">
+        <v>853</v>
+      </c>
+      <c r="C228" t="b">
+        <v>0</v>
+      </c>
+      <c r="D228" t="s">
+        <v>874</v>
+      </c>
+      <c r="E228" t="s">
+        <v>865</v>
+      </c>
+      <c r="F228" t="s">
+        <v>899</v>
+      </c>
+      <c r="G228" t="s">
+        <v>907</v>
+      </c>
+      <c r="H228" t="s">
+        <v>883</v>
+      </c>
+      <c r="I228" t="s">
+        <v>35</v>
+      </c>
+      <c r="J228">
+        <v>-5</v>
+      </c>
+      <c r="K228">
+        <v>2</v>
+      </c>
+      <c r="L228">
+        <v>-5</v>
+      </c>
+      <c r="M228">
+        <v>3</v>
+      </c>
+      <c r="N228" t="s">
+        <v>42</v>
+      </c>
+      <c r="O228" t="s">
+        <v>37</v>
+      </c>
+      <c r="P228" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>37</v>
+      </c>
+      <c r="R228" t="b">
+        <v>0</v>
+      </c>
+      <c r="S228" t="b">
+        <v>1</v>
+      </c>
+      <c r="T228" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>6</v>
+      </c>
+      <c r="B229" t="s">
+        <v>853</v>
+      </c>
+      <c r="C229" t="b">
+        <v>0</v>
+      </c>
+      <c r="D229" t="s">
+        <v>874</v>
+      </c>
+      <c r="E229" t="s">
+        <v>866</v>
+      </c>
+      <c r="F229" t="s">
+        <v>900</v>
+      </c>
+      <c r="G229" t="s">
+        <v>907</v>
+      </c>
+      <c r="H229" t="s">
+        <v>884</v>
+      </c>
+      <c r="I229" t="s">
+        <v>35</v>
+      </c>
+      <c r="J229">
+        <v>-5</v>
+      </c>
+      <c r="K229">
+        <v>3</v>
+      </c>
+      <c r="L229">
+        <v>-5</v>
+      </c>
+      <c r="M229">
+        <v>3</v>
+      </c>
+      <c r="N229" t="s">
+        <v>42</v>
+      </c>
+      <c r="O229" t="s">
+        <v>37</v>
+      </c>
+      <c r="P229" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>37</v>
+      </c>
+      <c r="R229" t="b">
+        <v>0</v>
+      </c>
+      <c r="S229" t="b">
+        <v>1</v>
+      </c>
+      <c r="T229" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>7</v>
+      </c>
+      <c r="B230" t="s">
+        <v>853</v>
+      </c>
+      <c r="C230" t="b">
+        <v>0</v>
+      </c>
+      <c r="D230" t="s">
+        <v>874</v>
+      </c>
+      <c r="E230" t="s">
+        <v>867</v>
+      </c>
+      <c r="F230" t="s">
+        <v>901</v>
+      </c>
+      <c r="G230" t="s">
+        <v>907</v>
+      </c>
+      <c r="H230" t="s">
+        <v>885</v>
+      </c>
+      <c r="I230" t="s">
+        <v>35</v>
+      </c>
+      <c r="J230">
+        <v>-4</v>
+      </c>
+      <c r="K230">
+        <v>3</v>
+      </c>
+      <c r="L230">
+        <v>-5</v>
+      </c>
+      <c r="M230">
+        <v>3</v>
+      </c>
+      <c r="N230" t="s">
+        <v>42</v>
+      </c>
+      <c r="O230" t="s">
+        <v>37</v>
+      </c>
+      <c r="P230" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>37</v>
+      </c>
+      <c r="R230" t="b">
+        <v>0</v>
+      </c>
+      <c r="S230" t="b">
+        <v>1</v>
+      </c>
+      <c r="T230" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>8</v>
+      </c>
+      <c r="B231" t="s">
+        <v>853</v>
+      </c>
+      <c r="C231" t="b">
+        <v>0</v>
+      </c>
+      <c r="D231" t="s">
+        <v>874</v>
+      </c>
+      <c r="E231" t="s">
+        <v>868</v>
+      </c>
+      <c r="F231" t="s">
+        <v>902</v>
+      </c>
+      <c r="G231" t="s">
+        <v>907</v>
+      </c>
+      <c r="H231" t="s">
+        <v>886</v>
+      </c>
+      <c r="I231" t="s">
+        <v>35</v>
+      </c>
+      <c r="J231">
+        <v>-4</v>
+      </c>
+      <c r="K231">
+        <v>3</v>
+      </c>
+      <c r="L231">
+        <v>-5</v>
+      </c>
+      <c r="M231">
+        <v>3</v>
+      </c>
+      <c r="N231" t="s">
+        <v>42</v>
+      </c>
+      <c r="O231" t="s">
+        <v>37</v>
+      </c>
+      <c r="P231" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>37</v>
+      </c>
+      <c r="R231" t="b">
+        <v>0</v>
+      </c>
+      <c r="S231" t="b">
+        <v>1</v>
+      </c>
+      <c r="T231" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>9</v>
+      </c>
+      <c r="B232" t="s">
+        <v>853</v>
+      </c>
+      <c r="C232" t="b">
+        <v>0</v>
+      </c>
+      <c r="D232" t="s">
+        <v>874</v>
+      </c>
+      <c r="E232" t="s">
+        <v>869</v>
+      </c>
+      <c r="F232" t="s">
+        <v>903</v>
+      </c>
+      <c r="G232" t="s">
+        <v>907</v>
+      </c>
+      <c r="H232" t="s">
+        <v>887</v>
+      </c>
+      <c r="I232" t="s">
+        <v>35</v>
+      </c>
+      <c r="J232">
+        <v>-4</v>
+      </c>
+      <c r="K232">
+        <v>3</v>
+      </c>
+      <c r="L232">
+        <v>-5</v>
+      </c>
+      <c r="M232">
+        <v>3</v>
+      </c>
+      <c r="N232" t="s">
+        <v>42</v>
+      </c>
+      <c r="O232" t="s">
+        <v>37</v>
+      </c>
+      <c r="P232" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>37</v>
+      </c>
+      <c r="R232" t="b">
+        <v>0</v>
+      </c>
+      <c r="S232" t="b">
+        <v>1</v>
+      </c>
+      <c r="T232" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>10</v>
+      </c>
+      <c r="B233" t="s">
+        <v>853</v>
+      </c>
+      <c r="C233" t="b">
+        <v>0</v>
+      </c>
+      <c r="D233" t="s">
+        <v>874</v>
+      </c>
+      <c r="E233" t="s">
+        <v>870</v>
+      </c>
+      <c r="F233" t="s">
+        <v>904</v>
+      </c>
+      <c r="G233" t="s">
+        <v>907</v>
+      </c>
+      <c r="H233" t="s">
+        <v>888</v>
+      </c>
+      <c r="I233" t="s">
+        <v>35</v>
+      </c>
+      <c r="J233">
+        <v>-4</v>
+      </c>
+      <c r="K233">
+        <v>2</v>
+      </c>
+      <c r="L233">
+        <v>-5</v>
+      </c>
+      <c r="M233">
+        <v>3</v>
+      </c>
+      <c r="N233" t="s">
+        <v>42</v>
+      </c>
+      <c r="O233" t="s">
+        <v>37</v>
+      </c>
+      <c r="P233" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>37</v>
+      </c>
+      <c r="R233" t="b">
+        <v>0</v>
+      </c>
+      <c r="S233" t="b">
+        <v>1</v>
+      </c>
+      <c r="T233" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>11</v>
+      </c>
+      <c r="B234" t="s">
+        <v>853</v>
+      </c>
+      <c r="C234" t="b">
+        <v>0</v>
+      </c>
+      <c r="D234" t="s">
+        <v>874</v>
+      </c>
+      <c r="E234" t="s">
+        <v>871</v>
+      </c>
+      <c r="F234" t="s">
+        <v>905</v>
+      </c>
+      <c r="G234" t="s">
+        <v>907</v>
+      </c>
+      <c r="H234" t="s">
+        <v>889</v>
+      </c>
+      <c r="I234" t="s">
+        <v>35</v>
+      </c>
+      <c r="J234">
+        <v>-5</v>
+      </c>
+      <c r="K234">
+        <v>2</v>
+      </c>
+      <c r="L234">
+        <v>-5</v>
+      </c>
+      <c r="M234">
+        <v>3</v>
+      </c>
+      <c r="N234" t="s">
+        <v>42</v>
+      </c>
+      <c r="O234" t="s">
+        <v>37</v>
+      </c>
+      <c r="P234" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>37</v>
+      </c>
+      <c r="R234" t="b">
+        <v>0</v>
+      </c>
+      <c r="S234" t="b">
+        <v>1</v>
+      </c>
+      <c r="T234" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>12</v>
+      </c>
+      <c r="B235" t="s">
+        <v>853</v>
+      </c>
+      <c r="C235" t="b">
+        <v>0</v>
+      </c>
+      <c r="D235" t="s">
+        <v>874</v>
+      </c>
+      <c r="E235" t="s">
+        <v>872</v>
+      </c>
+      <c r="F235" t="s">
+        <v>906</v>
+      </c>
+      <c r="G235" t="s">
+        <v>907</v>
+      </c>
+      <c r="H235" t="s">
+        <v>890</v>
+      </c>
+      <c r="I235" t="s">
+        <v>35</v>
+      </c>
+      <c r="J235">
+        <v>-4</v>
+      </c>
+      <c r="K235">
+        <v>3</v>
+      </c>
+      <c r="L235">
+        <v>-5</v>
+      </c>
+      <c r="M235">
+        <v>3</v>
+      </c>
+      <c r="N235" t="s">
+        <v>42</v>
+      </c>
+      <c r="O235" t="s">
+        <v>37</v>
+      </c>
+      <c r="P235" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>37</v>
+      </c>
+      <c r="R235" t="b">
+        <v>0</v>
+      </c>
+      <c r="S235" t="b">
+        <v>1</v>
+      </c>
+      <c r="T235" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>13</v>
+      </c>
+      <c r="B236" t="s">
+        <v>853</v>
+      </c>
+      <c r="C236" t="b">
+        <v>0</v>
+      </c>
+      <c r="D236" t="s">
+        <v>873</v>
+      </c>
+      <c r="E236" t="s">
+        <v>857</v>
+      </c>
+      <c r="F236" t="s">
+        <v>891</v>
+      </c>
+      <c r="G236" t="s">
+        <v>907</v>
+      </c>
+      <c r="H236" t="s">
+        <v>875</v>
+      </c>
+      <c r="I236" t="s">
+        <v>35</v>
+      </c>
+      <c r="J236">
+        <v>-1.5</v>
+      </c>
+      <c r="K236">
+        <v>0.5</v>
+      </c>
+      <c r="L236">
+        <v>-1.5</v>
+      </c>
+      <c r="M236">
+        <v>0.5</v>
+      </c>
+      <c r="N236" t="s">
+        <v>42</v>
+      </c>
+      <c r="O236" t="s">
+        <v>37</v>
+      </c>
+      <c r="P236" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>37</v>
+      </c>
+      <c r="R236" t="b">
+        <v>0</v>
+      </c>
+      <c r="S236" t="b">
+        <v>1</v>
+      </c>
+      <c r="T236" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>14</v>
+      </c>
+      <c r="B237" t="s">
+        <v>853</v>
+      </c>
+      <c r="C237" t="b">
+        <v>0</v>
+      </c>
+      <c r="D237" t="s">
+        <v>873</v>
+      </c>
+      <c r="E237" t="s">
+        <v>858</v>
+      </c>
+      <c r="F237" t="s">
+        <v>892</v>
+      </c>
+      <c r="G237" t="s">
+        <v>907</v>
+      </c>
+      <c r="H237" t="s">
+        <v>876</v>
+      </c>
+      <c r="I237" t="s">
+        <v>35</v>
+      </c>
+      <c r="J237">
+        <v>-1.2</v>
+      </c>
+      <c r="K237">
+        <v>0.4</v>
+      </c>
+      <c r="L237">
+        <v>-1.5</v>
+      </c>
+      <c r="M237">
+        <v>0.5</v>
+      </c>
+      <c r="N237" t="s">
+        <v>42</v>
+      </c>
+      <c r="O237" t="s">
+        <v>37</v>
+      </c>
+      <c r="P237" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>37</v>
+      </c>
+      <c r="R237" t="b">
+        <v>0</v>
+      </c>
+      <c r="S237" t="b">
+        <v>1</v>
+      </c>
+      <c r="T237" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>15</v>
+      </c>
+      <c r="B238" t="s">
+        <v>853</v>
+      </c>
+      <c r="C238" t="b">
+        <v>0</v>
+      </c>
+      <c r="D238" t="s">
+        <v>873</v>
+      </c>
+      <c r="E238" t="s">
+        <v>859</v>
+      </c>
+      <c r="F238" t="s">
+        <v>893</v>
+      </c>
+      <c r="G238" t="s">
+        <v>907</v>
+      </c>
+      <c r="H238" t="s">
+        <v>877</v>
+      </c>
+      <c r="I238" t="s">
+        <v>35</v>
+      </c>
+      <c r="J238">
+        <v>-1</v>
+      </c>
+      <c r="K238">
+        <v>0.4</v>
+      </c>
+      <c r="L238">
+        <v>-1.5</v>
+      </c>
+      <c r="M238">
+        <v>0.5</v>
+      </c>
+      <c r="N238" t="s">
+        <v>42</v>
+      </c>
+      <c r="O238" t="s">
+        <v>37</v>
+      </c>
+      <c r="P238" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>37</v>
+      </c>
+      <c r="R238" t="b">
+        <v>0</v>
+      </c>
+      <c r="S238" t="b">
+        <v>1</v>
+      </c>
+      <c r="T238" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>16</v>
+      </c>
+      <c r="B239" t="s">
+        <v>853</v>
+      </c>
+      <c r="C239" t="b">
+        <v>0</v>
+      </c>
+      <c r="D239" t="s">
+        <v>873</v>
+      </c>
+      <c r="E239" t="s">
+        <v>860</v>
+      </c>
+      <c r="F239" t="s">
+        <v>894</v>
+      </c>
+      <c r="G239" t="s">
+        <v>907</v>
+      </c>
+      <c r="H239" t="s">
+        <v>878</v>
+      </c>
+      <c r="I239" t="s">
+        <v>35</v>
+      </c>
+      <c r="J239">
+        <v>-1</v>
+      </c>
+      <c r="K239">
+        <v>0.4</v>
+      </c>
+      <c r="L239">
+        <v>-1.5</v>
+      </c>
+      <c r="M239">
+        <v>0.5</v>
+      </c>
+      <c r="N239" t="s">
+        <v>42</v>
+      </c>
+      <c r="O239" t="s">
+        <v>37</v>
+      </c>
+      <c r="P239" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>37</v>
+      </c>
+      <c r="R239" t="b">
+        <v>0</v>
+      </c>
+      <c r="S239" t="b">
+        <v>1</v>
+      </c>
+      <c r="T239" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="B240" t="s">
+        <v>910</v>
+      </c>
+      <c r="C240" t="b">
+        <v>0</v>
+      </c>
+      <c r="D240" t="s">
+        <v>920</v>
+      </c>
+      <c r="E240" t="s">
+        <v>913</v>
+      </c>
+      <c r="F240" t="s">
+        <v>917</v>
+      </c>
+      <c r="G240" t="s">
+        <v>918</v>
+      </c>
+      <c r="H240" t="s">
+        <v>914</v>
+      </c>
+      <c r="I240" t="s">
+        <v>35</v>
+      </c>
+      <c r="J240">
+        <v>2</v>
+      </c>
+      <c r="K240">
+        <v>6</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
+      </c>
+      <c r="M240">
+        <v>7</v>
+      </c>
+      <c r="N240" t="s">
+        <v>42</v>
+      </c>
+      <c r="O240" t="s">
+        <v>43</v>
+      </c>
+      <c r="P240" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>43</v>
+      </c>
+      <c r="R240" t="b">
+        <v>0</v>
+      </c>
+      <c r="S240" t="b">
+        <v>1</v>
+      </c>
+      <c r="T240" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>2</v>
+      </c>
+      <c r="B241" t="s">
+        <v>910</v>
+      </c>
+      <c r="C241" t="b">
+        <v>0</v>
+      </c>
+      <c r="D241" t="s">
+        <v>920</v>
+      </c>
+      <c r="E241" t="s">
+        <v>915</v>
+      </c>
+      <c r="F241" t="s">
+        <v>919</v>
+      </c>
+      <c r="H241" t="s">
+        <v>916</v>
+      </c>
+      <c r="I241" t="s">
+        <v>35</v>
+      </c>
+      <c r="J241">
+        <v>0.7</v>
+      </c>
+      <c r="K241">
+        <v>1.3</v>
+      </c>
+      <c r="L241">
+        <v>0.5</v>
+      </c>
+      <c r="M241">
+        <v>1.5</v>
+      </c>
+      <c r="N241" t="s">
+        <v>42</v>
+      </c>
+      <c r="O241" t="s">
+        <v>37</v>
+      </c>
+      <c r="P241" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q241" t="s">
+        <v>37</v>
+      </c>
+      <c r="R241" t="b">
+        <v>0</v>
+      </c>
+      <c r="S241" t="b">
+        <v>1</v>
+      </c>
+      <c r="T241" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>3</v>
+      </c>
+      <c r="B242" t="s">
+        <v>910</v>
+      </c>
+      <c r="C242" t="b">
+        <v>0</v>
+      </c>
+      <c r="D242" t="s">
+        <v>920</v>
+      </c>
+      <c r="E242" t="s">
+        <v>921</v>
+      </c>
+      <c r="F242" t="s">
+        <v>981</v>
+      </c>
+      <c r="H242" t="s">
+        <v>922</v>
+      </c>
+      <c r="I242" t="s">
+        <v>35</v>
+      </c>
+      <c r="J242">
+        <v>10</v>
+      </c>
+      <c r="K242">
+        <v>60</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242">
+        <v>61</v>
+      </c>
+      <c r="N242" t="s">
+        <v>42</v>
+      </c>
+      <c r="O242" t="s">
+        <v>43</v>
+      </c>
+      <c r="P242" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>43</v>
+      </c>
+      <c r="R242" t="b">
+        <v>0</v>
+      </c>
+      <c r="S242" t="b">
+        <v>1</v>
+      </c>
+      <c r="T242" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>4</v>
+      </c>
+      <c r="B243" t="s">
+        <v>910</v>
+      </c>
+      <c r="C243" t="b">
+        <v>0</v>
+      </c>
+      <c r="D243" t="s">
+        <v>920</v>
+      </c>
+      <c r="E243" t="s">
+        <v>924</v>
+      </c>
+      <c r="F243" t="s">
+        <v>980</v>
+      </c>
+      <c r="H243" t="s">
+        <v>923</v>
+      </c>
+      <c r="I243" t="s">
+        <v>35</v>
+      </c>
+      <c r="J243">
+        <v>10</v>
+      </c>
+      <c r="K243">
+        <v>60</v>
+      </c>
+      <c r="L243">
+        <v>0</v>
+      </c>
+      <c r="M243">
+        <v>61</v>
+      </c>
+      <c r="N243" t="s">
+        <v>42</v>
+      </c>
+      <c r="O243" t="s">
+        <v>43</v>
+      </c>
+      <c r="P243" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q243" t="s">
+        <v>43</v>
+      </c>
+      <c r="R243" t="b">
+        <v>0</v>
+      </c>
+      <c r="S243" t="b">
+        <v>1</v>
+      </c>
+      <c r="T243" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>5</v>
+      </c>
+      <c r="B244" t="s">
+        <v>910</v>
+      </c>
+      <c r="C244" t="b">
+        <v>0</v>
+      </c>
+      <c r="D244" t="s">
+        <v>874</v>
+      </c>
+      <c r="E244" t="s">
+        <v>925</v>
+      </c>
+      <c r="F244" t="s">
+        <v>895</v>
+      </c>
+      <c r="G244" t="s">
+        <v>907</v>
+      </c>
+      <c r="H244" t="s">
+        <v>937</v>
+      </c>
+      <c r="I244" t="s">
+        <v>35</v>
+      </c>
+      <c r="J244">
+        <v>-2</v>
+      </c>
+      <c r="K244">
+        <v>3</v>
+      </c>
+      <c r="L244">
+        <v>-3.1</v>
+      </c>
+      <c r="M244">
+        <v>3.1</v>
+      </c>
+      <c r="N244" t="s">
+        <v>42</v>
+      </c>
+      <c r="O244" t="s">
+        <v>37</v>
+      </c>
+      <c r="P244" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>37</v>
+      </c>
+      <c r="R244" t="b">
+        <v>0</v>
+      </c>
+      <c r="S244" t="b">
+        <v>1</v>
+      </c>
+      <c r="T244" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>6</v>
+      </c>
+      <c r="B245" t="s">
+        <v>910</v>
+      </c>
+      <c r="C245" t="b">
+        <v>0</v>
+      </c>
+      <c r="D245" t="s">
+        <v>874</v>
+      </c>
+      <c r="E245" t="s">
+        <v>926</v>
+      </c>
+      <c r="F245" t="s">
+        <v>896</v>
+      </c>
+      <c r="G245" t="s">
+        <v>907</v>
+      </c>
+      <c r="H245" t="s">
+        <v>938</v>
+      </c>
+      <c r="I245" t="s">
+        <v>35</v>
+      </c>
+      <c r="J245">
+        <v>-2</v>
+      </c>
+      <c r="K245">
+        <v>3</v>
+      </c>
+      <c r="L245">
+        <v>-3.1</v>
+      </c>
+      <c r="M245">
+        <v>3.1</v>
+      </c>
+      <c r="N245" t="s">
+        <v>42</v>
+      </c>
+      <c r="O245" t="s">
+        <v>37</v>
+      </c>
+      <c r="P245" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>37</v>
+      </c>
+      <c r="R245" t="b">
+        <v>0</v>
+      </c>
+      <c r="S245" t="b">
+        <v>1</v>
+      </c>
+      <c r="T245" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>7</v>
+      </c>
+      <c r="B246" t="s">
+        <v>910</v>
+      </c>
+      <c r="C246" t="b">
+        <v>0</v>
+      </c>
+      <c r="D246" t="s">
+        <v>874</v>
+      </c>
+      <c r="E246" t="s">
+        <v>927</v>
+      </c>
+      <c r="F246" t="s">
+        <v>897</v>
+      </c>
+      <c r="G246" t="s">
+        <v>907</v>
+      </c>
+      <c r="H246" t="s">
+        <v>939</v>
+      </c>
+      <c r="I246" t="s">
+        <v>35</v>
+      </c>
+      <c r="J246">
+        <v>-2</v>
+      </c>
+      <c r="K246">
+        <v>3</v>
+      </c>
+      <c r="L246">
+        <v>-3.1</v>
+      </c>
+      <c r="M246">
+        <v>3.1</v>
+      </c>
+      <c r="N246" t="s">
+        <v>42</v>
+      </c>
+      <c r="O246" t="s">
+        <v>37</v>
+      </c>
+      <c r="P246" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>37</v>
+      </c>
+      <c r="R246" t="b">
+        <v>0</v>
+      </c>
+      <c r="S246" t="b">
+        <v>1</v>
+      </c>
+      <c r="T246" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>8</v>
+      </c>
+      <c r="B247" t="s">
+        <v>910</v>
+      </c>
+      <c r="C247" t="b">
+        <v>0</v>
+      </c>
+      <c r="D247" t="s">
+        <v>874</v>
+      </c>
+      <c r="E247" t="s">
+        <v>928</v>
+      </c>
+      <c r="F247" t="s">
+        <v>898</v>
+      </c>
+      <c r="G247" t="s">
+        <v>907</v>
+      </c>
+      <c r="H247" t="s">
+        <v>940</v>
+      </c>
+      <c r="I247" t="s">
+        <v>35</v>
+      </c>
+      <c r="J247">
+        <v>-3</v>
+      </c>
+      <c r="K247">
+        <v>3</v>
+      </c>
+      <c r="L247">
+        <v>-3.1</v>
+      </c>
+      <c r="M247">
+        <v>3.1</v>
+      </c>
+      <c r="N247" t="s">
+        <v>42</v>
+      </c>
+      <c r="O247" t="s">
+        <v>37</v>
+      </c>
+      <c r="P247" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>37</v>
+      </c>
+      <c r="R247" t="b">
+        <v>1</v>
+      </c>
+      <c r="S247" t="b">
+        <v>1</v>
+      </c>
+      <c r="T247" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>9</v>
+      </c>
+      <c r="B248" t="s">
+        <v>910</v>
+      </c>
+      <c r="C248" t="b">
+        <v>0</v>
+      </c>
+      <c r="D248" t="s">
+        <v>874</v>
+      </c>
+      <c r="E248" t="s">
+        <v>929</v>
+      </c>
+      <c r="F248" t="s">
+        <v>899</v>
+      </c>
+      <c r="G248" t="s">
+        <v>907</v>
+      </c>
+      <c r="H248" t="s">
+        <v>941</v>
+      </c>
+      <c r="I248" t="s">
+        <v>35</v>
+      </c>
+      <c r="J248">
+        <v>-3</v>
+      </c>
+      <c r="K248">
+        <v>3</v>
+      </c>
+      <c r="L248">
+        <v>-3.1</v>
+      </c>
+      <c r="M248">
+        <v>3.1</v>
+      </c>
+      <c r="N248" t="s">
+        <v>42</v>
+      </c>
+      <c r="O248" t="s">
+        <v>37</v>
+      </c>
+      <c r="P248" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>37</v>
+      </c>
+      <c r="R248" t="b">
+        <v>0</v>
+      </c>
+      <c r="S248" t="b">
+        <v>1</v>
+      </c>
+      <c r="T248" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>10</v>
+      </c>
+      <c r="B249" t="s">
+        <v>910</v>
+      </c>
+      <c r="C249" t="b">
+        <v>0</v>
+      </c>
+      <c r="D249" t="s">
+        <v>874</v>
+      </c>
+      <c r="E249" t="s">
+        <v>930</v>
+      </c>
+      <c r="F249" t="s">
+        <v>900</v>
+      </c>
+      <c r="G249" t="s">
+        <v>907</v>
+      </c>
+      <c r="H249" t="s">
+        <v>942</v>
+      </c>
+      <c r="I249" t="s">
+        <v>35</v>
+      </c>
+      <c r="J249">
+        <v>-2</v>
+      </c>
+      <c r="K249">
+        <v>3</v>
+      </c>
+      <c r="L249">
+        <v>-3.1</v>
+      </c>
+      <c r="M249">
+        <v>3.1</v>
+      </c>
+      <c r="N249" t="s">
+        <v>42</v>
+      </c>
+      <c r="O249" t="s">
+        <v>37</v>
+      </c>
+      <c r="P249" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>37</v>
+      </c>
+      <c r="R249" t="b">
+        <v>0</v>
+      </c>
+      <c r="S249" t="b">
+        <v>1</v>
+      </c>
+      <c r="T249" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>11</v>
+      </c>
+      <c r="B250" t="s">
+        <v>910</v>
+      </c>
+      <c r="C250" t="b">
+        <v>0</v>
+      </c>
+      <c r="D250" t="s">
+        <v>874</v>
+      </c>
+      <c r="E250" t="s">
+        <v>931</v>
+      </c>
+      <c r="F250" t="s">
+        <v>901</v>
+      </c>
+      <c r="G250" t="s">
+        <v>907</v>
+      </c>
+      <c r="H250" t="s">
+        <v>943</v>
+      </c>
+      <c r="I250" t="s">
+        <v>35</v>
+      </c>
+      <c r="J250">
+        <v>-2</v>
+      </c>
+      <c r="K250">
+        <v>3</v>
+      </c>
+      <c r="L250">
+        <v>-3.1</v>
+      </c>
+      <c r="M250">
+        <v>3.1</v>
+      </c>
+      <c r="N250" t="s">
+        <v>42</v>
+      </c>
+      <c r="O250" t="s">
+        <v>37</v>
+      </c>
+      <c r="P250" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>37</v>
+      </c>
+      <c r="R250" t="b">
+        <v>0</v>
+      </c>
+      <c r="S250" t="b">
+        <v>1</v>
+      </c>
+      <c r="T250" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>12</v>
+      </c>
+      <c r="B251" t="s">
+        <v>910</v>
+      </c>
+      <c r="C251" t="b">
+        <v>0</v>
+      </c>
+      <c r="D251" t="s">
+        <v>874</v>
+      </c>
+      <c r="E251" t="s">
+        <v>932</v>
+      </c>
+      <c r="F251" t="s">
+        <v>902</v>
+      </c>
+      <c r="G251" t="s">
+        <v>907</v>
+      </c>
+      <c r="H251" t="s">
+        <v>944</v>
+      </c>
+      <c r="I251" t="s">
+        <v>35</v>
+      </c>
+      <c r="J251">
+        <v>-2</v>
+      </c>
+      <c r="K251">
+        <v>3</v>
+      </c>
+      <c r="L251">
+        <v>-3.1</v>
+      </c>
+      <c r="M251">
+        <v>3.1</v>
+      </c>
+      <c r="N251" t="s">
+        <v>42</v>
+      </c>
+      <c r="O251" t="s">
+        <v>37</v>
+      </c>
+      <c r="P251" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>37</v>
+      </c>
+      <c r="R251" t="b">
+        <v>0</v>
+      </c>
+      <c r="S251" t="b">
+        <v>1</v>
+      </c>
+      <c r="T251" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>13</v>
+      </c>
+      <c r="B252" t="s">
+        <v>910</v>
+      </c>
+      <c r="C252" t="b">
+        <v>0</v>
+      </c>
+      <c r="D252" t="s">
+        <v>874</v>
+      </c>
+      <c r="E252" t="s">
+        <v>933</v>
+      </c>
+      <c r="F252" t="s">
+        <v>903</v>
+      </c>
+      <c r="G252" t="s">
+        <v>907</v>
+      </c>
+      <c r="H252" t="s">
+        <v>945</v>
+      </c>
+      <c r="I252" t="s">
+        <v>35</v>
+      </c>
+      <c r="J252">
+        <v>-2</v>
+      </c>
+      <c r="K252">
+        <v>3</v>
+      </c>
+      <c r="L252">
+        <v>-3.1</v>
+      </c>
+      <c r="M252">
+        <v>3.1</v>
+      </c>
+      <c r="N252" t="s">
+        <v>42</v>
+      </c>
+      <c r="O252" t="s">
+        <v>37</v>
+      </c>
+      <c r="P252" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>37</v>
+      </c>
+      <c r="R252" t="b">
+        <v>0</v>
+      </c>
+      <c r="S252" t="b">
+        <v>1</v>
+      </c>
+      <c r="T252" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>14</v>
+      </c>
+      <c r="B253" t="s">
+        <v>910</v>
+      </c>
+      <c r="C253" t="b">
+        <v>0</v>
+      </c>
+      <c r="D253" t="s">
+        <v>874</v>
+      </c>
+      <c r="E253" t="s">
+        <v>934</v>
+      </c>
+      <c r="F253" t="s">
+        <v>904</v>
+      </c>
+      <c r="G253" t="s">
+        <v>907</v>
+      </c>
+      <c r="H253" t="s">
+        <v>946</v>
+      </c>
+      <c r="I253" t="s">
+        <v>35</v>
+      </c>
+      <c r="J253">
+        <v>-3</v>
+      </c>
+      <c r="K253">
+        <v>3</v>
+      </c>
+      <c r="L253">
+        <v>-3.1</v>
+      </c>
+      <c r="M253">
+        <v>3.1</v>
+      </c>
+      <c r="N253" t="s">
+        <v>42</v>
+      </c>
+      <c r="O253" t="s">
+        <v>37</v>
+      </c>
+      <c r="P253" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>37</v>
+      </c>
+      <c r="R253" t="b">
+        <v>0</v>
+      </c>
+      <c r="S253" t="b">
+        <v>1</v>
+      </c>
+      <c r="T253" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>15</v>
+      </c>
+      <c r="B254" t="s">
+        <v>910</v>
+      </c>
+      <c r="C254" t="b">
+        <v>0</v>
+      </c>
+      <c r="D254" t="s">
+        <v>874</v>
+      </c>
+      <c r="E254" t="s">
+        <v>935</v>
+      </c>
+      <c r="F254" t="s">
+        <v>905</v>
+      </c>
+      <c r="G254" t="s">
+        <v>907</v>
+      </c>
+      <c r="H254" t="s">
+        <v>947</v>
+      </c>
+      <c r="I254" t="s">
+        <v>35</v>
+      </c>
+      <c r="J254">
+        <v>-3</v>
+      </c>
+      <c r="K254">
+        <v>3</v>
+      </c>
+      <c r="L254">
+        <v>-3.1</v>
+      </c>
+      <c r="M254">
+        <v>3.1</v>
+      </c>
+      <c r="N254" t="s">
+        <v>42</v>
+      </c>
+      <c r="O254" t="s">
+        <v>37</v>
+      </c>
+      <c r="P254" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>37</v>
+      </c>
+      <c r="R254" t="b">
+        <v>0</v>
+      </c>
+      <c r="S254" t="b">
+        <v>1</v>
+      </c>
+      <c r="T254" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>16</v>
+      </c>
+      <c r="B255" t="s">
+        <v>910</v>
+      </c>
+      <c r="C255" t="b">
+        <v>0</v>
+      </c>
+      <c r="D255" t="s">
+        <v>874</v>
+      </c>
+      <c r="E255" t="s">
+        <v>936</v>
+      </c>
+      <c r="F255" t="s">
+        <v>906</v>
+      </c>
+      <c r="G255" t="s">
+        <v>907</v>
+      </c>
+      <c r="H255" t="s">
+        <v>948</v>
+      </c>
+      <c r="I255" t="s">
+        <v>35</v>
+      </c>
+      <c r="J255">
+        <v>-2</v>
+      </c>
+      <c r="K255">
+        <v>3</v>
+      </c>
+      <c r="L255">
+        <v>-3.1</v>
+      </c>
+      <c r="M255">
+        <v>3.1</v>
+      </c>
+      <c r="N255" t="s">
+        <v>42</v>
+      </c>
+      <c r="O255" t="s">
+        <v>37</v>
+      </c>
+      <c r="P255" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>37</v>
+      </c>
+      <c r="R255" t="b">
+        <v>0</v>
+      </c>
+      <c r="S255" t="b">
+        <v>1</v>
+      </c>
+      <c r="T255" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>17</v>
+      </c>
+      <c r="B256" t="s">
+        <v>910</v>
+      </c>
+      <c r="C256" t="b">
+        <v>0</v>
+      </c>
+      <c r="D256" t="s">
+        <v>949</v>
+      </c>
+      <c r="E256" t="s">
+        <v>968</v>
+      </c>
+      <c r="F256" t="s">
+        <v>951</v>
+      </c>
+      <c r="G256" t="s">
+        <v>907</v>
+      </c>
+      <c r="H256" t="s">
+        <v>879</v>
+      </c>
+      <c r="I256" t="s">
+        <v>35</v>
+      </c>
+      <c r="J256">
+        <v>-2</v>
+      </c>
+      <c r="K256">
+        <v>3</v>
+      </c>
+      <c r="L256">
+        <v>-3.1</v>
+      </c>
+      <c r="M256">
+        <v>3.1</v>
+      </c>
+      <c r="N256" t="s">
+        <v>42</v>
+      </c>
+      <c r="O256" t="s">
+        <v>37</v>
+      </c>
+      <c r="P256" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q256" t="s">
+        <v>37</v>
+      </c>
+      <c r="R256" t="b">
+        <v>0</v>
+      </c>
+      <c r="S256" t="b">
+        <v>1</v>
+      </c>
+      <c r="T256" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>18</v>
+      </c>
+      <c r="B257" t="s">
+        <v>910</v>
+      </c>
+      <c r="C257" t="b">
+        <v>0</v>
+      </c>
+      <c r="D257" t="s">
+        <v>949</v>
+      </c>
+      <c r="E257" t="s">
+        <v>967</v>
+      </c>
+      <c r="F257" t="s">
+        <v>952</v>
+      </c>
+      <c r="G257" t="s">
+        <v>907</v>
+      </c>
+      <c r="H257" t="s">
+        <v>880</v>
+      </c>
+      <c r="I257" t="s">
+        <v>35</v>
+      </c>
+      <c r="J257">
+        <v>-2</v>
+      </c>
+      <c r="K257">
+        <v>3</v>
+      </c>
+      <c r="L257">
+        <v>-3.1</v>
+      </c>
+      <c r="M257">
+        <v>3.1</v>
+      </c>
+      <c r="N257" t="s">
+        <v>42</v>
+      </c>
+      <c r="O257" t="s">
+        <v>37</v>
+      </c>
+      <c r="P257" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>37</v>
+      </c>
+      <c r="R257" t="b">
+        <v>0</v>
+      </c>
+      <c r="S257" t="b">
+        <v>1</v>
+      </c>
+      <c r="T257" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>19</v>
+      </c>
+      <c r="B258" t="s">
+        <v>910</v>
+      </c>
+      <c r="C258" t="b">
+        <v>0</v>
+      </c>
+      <c r="D258" t="s">
+        <v>949</v>
+      </c>
+      <c r="E258" t="s">
+        <v>969</v>
+      </c>
+      <c r="F258" t="s">
+        <v>953</v>
+      </c>
+      <c r="G258" t="s">
+        <v>907</v>
+      </c>
+      <c r="H258" t="s">
+        <v>881</v>
+      </c>
+      <c r="I258" t="s">
+        <v>35</v>
+      </c>
+      <c r="J258">
+        <v>-2</v>
+      </c>
+      <c r="K258">
+        <v>3</v>
+      </c>
+      <c r="L258">
+        <v>-3.1</v>
+      </c>
+      <c r="M258">
+        <v>3.1</v>
+      </c>
+      <c r="N258" t="s">
+        <v>42</v>
+      </c>
+      <c r="O258" t="s">
+        <v>37</v>
+      </c>
+      <c r="P258" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>37</v>
+      </c>
+      <c r="R258" t="b">
+        <v>0</v>
+      </c>
+      <c r="S258" t="b">
+        <v>1</v>
+      </c>
+      <c r="T258" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>20</v>
+      </c>
+      <c r="B259" t="s">
+        <v>910</v>
+      </c>
+      <c r="C259" t="b">
+        <v>0</v>
+      </c>
+      <c r="D259" t="s">
+        <v>949</v>
+      </c>
+      <c r="E259" t="s">
+        <v>970</v>
+      </c>
+      <c r="F259" t="s">
+        <v>954</v>
+      </c>
+      <c r="G259" t="s">
+        <v>907</v>
+      </c>
+      <c r="H259" t="s">
+        <v>882</v>
+      </c>
+      <c r="I259" t="s">
+        <v>35</v>
+      </c>
+      <c r="J259">
+        <v>-3</v>
+      </c>
+      <c r="K259">
+        <v>2</v>
+      </c>
+      <c r="L259">
+        <v>-3.1</v>
+      </c>
+      <c r="M259">
+        <v>3.1</v>
+      </c>
+      <c r="N259" t="s">
+        <v>42</v>
+      </c>
+      <c r="O259" t="s">
+        <v>37</v>
+      </c>
+      <c r="P259" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>37</v>
+      </c>
+      <c r="R259" t="b">
+        <v>0</v>
+      </c>
+      <c r="S259" t="b">
+        <v>1</v>
+      </c>
+      <c r="T259" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>21</v>
+      </c>
+      <c r="B260" t="s">
+        <v>910</v>
+      </c>
+      <c r="C260" t="b">
+        <v>0</v>
+      </c>
+      <c r="D260" t="s">
+        <v>949</v>
+      </c>
+      <c r="E260" t="s">
+        <v>971</v>
+      </c>
+      <c r="F260" t="s">
+        <v>955</v>
+      </c>
+      <c r="G260" t="s">
+        <v>907</v>
+      </c>
+      <c r="H260" t="s">
+        <v>883</v>
+      </c>
+      <c r="I260" t="s">
+        <v>35</v>
+      </c>
+      <c r="J260">
+        <v>-3</v>
+      </c>
+      <c r="K260">
+        <v>2</v>
+      </c>
+      <c r="L260">
+        <v>-3.1</v>
+      </c>
+      <c r="M260">
+        <v>3.1</v>
+      </c>
+      <c r="N260" t="s">
+        <v>42</v>
+      </c>
+      <c r="O260" t="s">
+        <v>37</v>
+      </c>
+      <c r="P260" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>37</v>
+      </c>
+      <c r="R260" t="b">
+        <v>0</v>
+      </c>
+      <c r="S260" t="b">
+        <v>1</v>
+      </c>
+      <c r="T260" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>22</v>
+      </c>
+      <c r="B261" t="s">
+        <v>910</v>
+      </c>
+      <c r="C261" t="b">
+        <v>0</v>
+      </c>
+      <c r="D261" t="s">
+        <v>949</v>
+      </c>
+      <c r="E261" t="s">
+        <v>972</v>
+      </c>
+      <c r="F261" t="s">
+        <v>956</v>
+      </c>
+      <c r="G261" t="s">
+        <v>907</v>
+      </c>
+      <c r="H261" t="s">
+        <v>884</v>
+      </c>
+      <c r="I261" t="s">
+        <v>35</v>
+      </c>
+      <c r="J261">
+        <v>-3</v>
+      </c>
+      <c r="K261">
+        <v>2</v>
+      </c>
+      <c r="L261">
+        <v>-3.1</v>
+      </c>
+      <c r="M261">
+        <v>3.1</v>
+      </c>
+      <c r="N261" t="s">
+        <v>42</v>
+      </c>
+      <c r="O261" t="s">
+        <v>37</v>
+      </c>
+      <c r="P261" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q261" t="s">
+        <v>37</v>
+      </c>
+      <c r="R261" t="b">
+        <v>0</v>
+      </c>
+      <c r="S261" t="b">
+        <v>1</v>
+      </c>
+      <c r="T261" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>23</v>
+      </c>
+      <c r="B262" t="s">
+        <v>910</v>
+      </c>
+      <c r="C262" t="b">
+        <v>0</v>
+      </c>
+      <c r="D262" t="s">
+        <v>949</v>
+      </c>
+      <c r="E262" t="s">
+        <v>973</v>
+      </c>
+      <c r="F262" t="s">
+        <v>957</v>
+      </c>
+      <c r="G262" t="s">
+        <v>907</v>
+      </c>
+      <c r="H262" t="s">
+        <v>885</v>
+      </c>
+      <c r="I262" t="s">
+        <v>35</v>
+      </c>
+      <c r="J262">
+        <v>-2</v>
+      </c>
+      <c r="K262">
+        <v>3</v>
+      </c>
+      <c r="L262">
+        <v>-3.1</v>
+      </c>
+      <c r="M262">
+        <v>3.1</v>
+      </c>
+      <c r="N262" t="s">
+        <v>42</v>
+      </c>
+      <c r="O262" t="s">
+        <v>37</v>
+      </c>
+      <c r="P262" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>37</v>
+      </c>
+      <c r="R262" t="b">
+        <v>0</v>
+      </c>
+      <c r="S262" t="b">
+        <v>1</v>
+      </c>
+      <c r="T262" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>24</v>
+      </c>
+      <c r="B263" t="s">
+        <v>910</v>
+      </c>
+      <c r="C263" t="b">
+        <v>0</v>
+      </c>
+      <c r="D263" t="s">
+        <v>949</v>
+      </c>
+      <c r="E263" t="s">
+        <v>974</v>
+      </c>
+      <c r="F263" t="s">
+        <v>958</v>
+      </c>
+      <c r="G263" t="s">
+        <v>907</v>
+      </c>
+      <c r="H263" t="s">
+        <v>886</v>
+      </c>
+      <c r="I263" t="s">
+        <v>35</v>
+      </c>
+      <c r="J263">
+        <v>-2</v>
+      </c>
+      <c r="K263">
+        <v>3</v>
+      </c>
+      <c r="L263">
+        <v>-3.1</v>
+      </c>
+      <c r="M263">
+        <v>3.1</v>
+      </c>
+      <c r="N263" t="s">
+        <v>42</v>
+      </c>
+      <c r="O263" t="s">
+        <v>37</v>
+      </c>
+      <c r="P263" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>37</v>
+      </c>
+      <c r="R263" t="b">
+        <v>0</v>
+      </c>
+      <c r="S263" t="b">
+        <v>1</v>
+      </c>
+      <c r="T263" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>25</v>
+      </c>
+      <c r="B264" t="s">
+        <v>910</v>
+      </c>
+      <c r="C264" t="b">
+        <v>0</v>
+      </c>
+      <c r="D264" t="s">
+        <v>949</v>
+      </c>
+      <c r="E264" t="s">
+        <v>975</v>
+      </c>
+      <c r="F264" t="s">
+        <v>959</v>
+      </c>
+      <c r="G264" t="s">
+        <v>907</v>
+      </c>
+      <c r="H264" t="s">
+        <v>887</v>
+      </c>
+      <c r="I264" t="s">
+        <v>35</v>
+      </c>
+      <c r="J264">
+        <v>-2</v>
+      </c>
+      <c r="K264">
+        <v>3</v>
+      </c>
+      <c r="L264">
+        <v>-3.1</v>
+      </c>
+      <c r="M264">
+        <v>3.1</v>
+      </c>
+      <c r="N264" t="s">
+        <v>42</v>
+      </c>
+      <c r="O264" t="s">
+        <v>37</v>
+      </c>
+      <c r="P264" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q264" t="s">
+        <v>37</v>
+      </c>
+      <c r="R264" t="b">
+        <v>0</v>
+      </c>
+      <c r="S264" t="b">
+        <v>1</v>
+      </c>
+      <c r="T264" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>26</v>
+      </c>
+      <c r="B265" t="s">
+        <v>910</v>
+      </c>
+      <c r="C265" t="b">
+        <v>0</v>
+      </c>
+      <c r="D265" t="s">
+        <v>949</v>
+      </c>
+      <c r="E265" t="s">
+        <v>976</v>
+      </c>
+      <c r="F265" t="s">
+        <v>960</v>
+      </c>
+      <c r="G265" t="s">
+        <v>907</v>
+      </c>
+      <c r="H265" t="s">
+        <v>888</v>
+      </c>
+      <c r="I265" t="s">
+        <v>35</v>
+      </c>
+      <c r="J265">
+        <v>-3</v>
+      </c>
+      <c r="K265">
+        <v>2</v>
+      </c>
+      <c r="L265">
+        <v>-3.1</v>
+      </c>
+      <c r="M265">
+        <v>3.1</v>
+      </c>
+      <c r="N265" t="s">
+        <v>42</v>
+      </c>
+      <c r="O265" t="s">
+        <v>37</v>
+      </c>
+      <c r="P265" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q265" t="s">
+        <v>37</v>
+      </c>
+      <c r="R265" t="b">
+        <v>0</v>
+      </c>
+      <c r="S265" t="b">
+        <v>1</v>
+      </c>
+      <c r="T265" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>27</v>
+      </c>
+      <c r="B266" t="s">
+        <v>910</v>
+      </c>
+      <c r="C266" t="b">
+        <v>0</v>
+      </c>
+      <c r="D266" t="s">
+        <v>949</v>
+      </c>
+      <c r="E266" t="s">
+        <v>977</v>
+      </c>
+      <c r="F266" t="s">
+        <v>961</v>
+      </c>
+      <c r="G266" t="s">
+        <v>907</v>
+      </c>
+      <c r="H266" t="s">
+        <v>889</v>
+      </c>
+      <c r="I266" t="s">
+        <v>35</v>
+      </c>
+      <c r="J266">
+        <v>-3</v>
+      </c>
+      <c r="K266">
+        <v>2</v>
+      </c>
+      <c r="L266">
+        <v>-3.1</v>
+      </c>
+      <c r="M266">
+        <v>3.1</v>
+      </c>
+      <c r="N266" t="s">
+        <v>42</v>
+      </c>
+      <c r="O266" t="s">
+        <v>37</v>
+      </c>
+      <c r="P266" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>37</v>
+      </c>
+      <c r="R266" t="b">
+        <v>0</v>
+      </c>
+      <c r="S266" t="b">
+        <v>1</v>
+      </c>
+      <c r="T266" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>28</v>
+      </c>
+      <c r="B267" t="s">
+        <v>910</v>
+      </c>
+      <c r="C267" t="b">
+        <v>0</v>
+      </c>
+      <c r="D267" t="s">
+        <v>949</v>
+      </c>
+      <c r="E267" t="s">
+        <v>978</v>
+      </c>
+      <c r="F267" t="s">
+        <v>962</v>
+      </c>
+      <c r="G267" t="s">
+        <v>907</v>
+      </c>
+      <c r="H267" t="s">
+        <v>890</v>
+      </c>
+      <c r="I267" t="s">
+        <v>35</v>
+      </c>
+      <c r="J267">
+        <v>-2</v>
+      </c>
+      <c r="K267">
+        <v>3</v>
+      </c>
+      <c r="L267">
+        <v>-3.1</v>
+      </c>
+      <c r="M267">
+        <v>3.1</v>
+      </c>
+      <c r="N267" t="s">
+        <v>42</v>
+      </c>
+      <c r="O267" t="s">
+        <v>37</v>
+      </c>
+      <c r="P267" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>37</v>
+      </c>
+      <c r="R267" t="b">
+        <v>0</v>
+      </c>
+      <c r="S267" t="b">
+        <v>1</v>
+      </c>
+      <c r="T267" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>29</v>
+      </c>
+      <c r="B268" t="s">
+        <v>910</v>
+      </c>
+      <c r="C268" t="b">
+        <v>0</v>
+      </c>
+      <c r="D268" t="s">
+        <v>950</v>
+      </c>
+      <c r="E268" t="s">
+        <v>857</v>
+      </c>
+      <c r="F268" t="s">
+        <v>963</v>
+      </c>
+      <c r="G268" t="s">
+        <v>907</v>
+      </c>
+      <c r="H268" t="s">
+        <v>875</v>
+      </c>
+      <c r="I268" t="s">
+        <v>35</v>
+      </c>
+      <c r="J268">
+        <v>-1.2</v>
+      </c>
+      <c r="K268">
+        <v>0.4</v>
+      </c>
+      <c r="L268">
+        <v>-1.5</v>
+      </c>
+      <c r="M268">
+        <v>0.5</v>
+      </c>
+      <c r="N268" t="s">
+        <v>42</v>
+      </c>
+      <c r="O268" t="s">
+        <v>37</v>
+      </c>
+      <c r="P268" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>37</v>
+      </c>
+      <c r="R268" t="b">
+        <v>0</v>
+      </c>
+      <c r="S268" t="b">
+        <v>1</v>
+      </c>
+      <c r="T268" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>30</v>
+      </c>
+      <c r="B269" t="s">
+        <v>910</v>
+      </c>
+      <c r="C269" t="b">
+        <v>0</v>
+      </c>
+      <c r="D269" t="s">
+        <v>950</v>
+      </c>
+      <c r="E269" t="s">
+        <v>858</v>
+      </c>
+      <c r="F269" t="s">
+        <v>964</v>
+      </c>
+      <c r="G269" t="s">
+        <v>907</v>
+      </c>
+      <c r="H269" t="s">
+        <v>876</v>
+      </c>
+      <c r="I269" t="s">
+        <v>35</v>
+      </c>
+      <c r="J269">
+        <v>-1.2</v>
+      </c>
+      <c r="K269">
+        <v>0.4</v>
+      </c>
+      <c r="L269">
+        <v>-1.5</v>
+      </c>
+      <c r="M269">
+        <v>0.5</v>
+      </c>
+      <c r="N269" t="s">
+        <v>42</v>
+      </c>
+      <c r="O269" t="s">
+        <v>37</v>
+      </c>
+      <c r="P269" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>37</v>
+      </c>
+      <c r="R269" t="b">
+        <v>0</v>
+      </c>
+      <c r="S269" t="b">
+        <v>1</v>
+      </c>
+      <c r="T269" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>31</v>
+      </c>
+      <c r="B270" t="s">
+        <v>910</v>
+      </c>
+      <c r="C270" t="b">
+        <v>0</v>
+      </c>
+      <c r="D270" t="s">
+        <v>950</v>
+      </c>
+      <c r="E270" t="s">
+        <v>859</v>
+      </c>
+      <c r="F270" t="s">
+        <v>965</v>
+      </c>
+      <c r="G270" t="s">
+        <v>907</v>
+      </c>
+      <c r="H270" t="s">
+        <v>877</v>
+      </c>
+      <c r="I270" t="s">
+        <v>35</v>
+      </c>
+      <c r="J270">
+        <v>-1</v>
+      </c>
+      <c r="K270">
+        <v>0.4</v>
+      </c>
+      <c r="L270">
+        <v>-1.5</v>
+      </c>
+      <c r="M270">
+        <v>0.5</v>
+      </c>
+      <c r="N270" t="s">
+        <v>42</v>
+      </c>
+      <c r="O270" t="s">
+        <v>37</v>
+      </c>
+      <c r="P270" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>37</v>
+      </c>
+      <c r="R270" t="b">
+        <v>0</v>
+      </c>
+      <c r="S270" t="b">
+        <v>1</v>
+      </c>
+      <c r="T270" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>32</v>
+      </c>
+      <c r="B271" t="s">
+        <v>910</v>
+      </c>
+      <c r="C271" t="b">
+        <v>0</v>
+      </c>
+      <c r="D271" t="s">
+        <v>950</v>
+      </c>
+      <c r="E271" t="s">
+        <v>860</v>
+      </c>
+      <c r="F271" t="s">
+        <v>966</v>
+      </c>
+      <c r="G271" t="s">
+        <v>907</v>
+      </c>
+      <c r="H271" t="s">
+        <v>878</v>
+      </c>
+      <c r="I271" t="s">
+        <v>35</v>
+      </c>
+      <c r="J271">
+        <v>-1</v>
+      </c>
+      <c r="K271">
+        <v>0.4</v>
+      </c>
+      <c r="L271">
+        <v>-1.5</v>
+      </c>
+      <c r="M271">
+        <v>0.5</v>
+      </c>
+      <c r="N271" t="s">
+        <v>42</v>
+      </c>
+      <c r="O271" t="s">
+        <v>43</v>
+      </c>
+      <c r="P271" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>43</v>
+      </c>
+      <c r="R271" t="b">
+        <v>0</v>
+      </c>
+      <c r="S271" t="b">
+        <v>1</v>
+      </c>
+      <c r="T271" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S213" xr:uid="{E0968736-1BA0-284C-93D4-E8D02CD98242}"/>
+  <autoFilter ref="A1:T213" xr:uid="{E0968736-1BA0-284C-93D4-E8D02CD98242}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16018,8 +20121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987CF23D-DD6E-FA4F-ABEA-A0891733CE0A}">
   <dimension ref="A1:D286"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="C287" sqref="C287"/>
+    <sheetView topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="A287" sqref="A287:XFD289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/r/xlsx/themes.xlsx
+++ b/r/xlsx/themes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/ecosheds/lmg-restore/r/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBA8C71-8C46-F84C-A420-0FCA6631505D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B55E15-FBB9-6A47-8711-AFC82E9F7EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{AE99D6E3-0A03-B54F-A17C-78F34962647F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4112" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4354" uniqueCount="1037">
   <si>
     <t>theme</t>
   </si>
@@ -2984,6 +2984,171 @@
   </si>
   <si>
     <t># Obs. 7-day Annual Minima</t>
+  </si>
+  <si>
+    <t>gage-ecoflows</t>
+  </si>
+  <si>
+    <t>mbisq</t>
+  </si>
+  <si>
+    <t>M-BISQ Score</t>
+  </si>
+  <si>
+    <t>Mississippi-Benthic Index of Stream Quality score calculated by MDEQ. Score is a measure of ecological health.</t>
+  </si>
+  <si>
+    <t>fh7</t>
+  </si>
+  <si>
+    <t>ma30</t>
+  </si>
+  <si>
+    <t>Flood frequency</t>
+  </si>
+  <si>
+    <t>Variability of July flow</t>
+  </si>
+  <si>
+    <t>Variability of July flows. Calculated by computing the standard deviation for July for each year of the entire flow record,  divide the standard deviation by the July mean, and then calculate the mean of those values.</t>
+  </si>
+  <si>
+    <t>The average number of times flow has been above 7 times the median flow. Median flow is the median of all daily flow values for the entire record.</t>
+  </si>
+  <si>
+    <t>dh13</t>
+  </si>
+  <si>
+    <t>Annual 30-day average maximum</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest 30-day average flow (days do not have to be within the same month but are consecutive) from each year divided by the median calculated from the whole record. Then calculate the mean of those values. </t>
+  </si>
+  <si>
+    <t>Benthic Index</t>
+  </si>
+  <si>
+    <t>Streamflow Metrics</t>
+  </si>
+  <si>
+    <t>th2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variability of day of annual max flow </t>
+  </si>
+  <si>
+    <t>Variability in Julian date of annual maxima. Compute the coefficient of variation for the mean x and y components and convert to a date</t>
+  </si>
+  <si>
+    <t>ra8</t>
+  </si>
+  <si>
+    <t>Number of flow reversals</t>
+  </si>
+  <si>
+    <t>The average number of days in each year when the change in flow from one day to the next changes direction.</t>
+  </si>
+  <si>
+    <t>th1</t>
+  </si>
+  <si>
+    <t>Julian day of annual maximum flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average of the days with the highest flow from each year. </t>
+  </si>
+  <si>
+    <t>ra6</t>
+  </si>
+  <si>
+    <t>Change of flow</t>
+  </si>
+  <si>
+    <t>Median of positive changes in log10 of flow over entire period of record.</t>
+  </si>
+  <si>
+    <t>fl2</t>
+  </si>
+  <si>
+    <t>Variability in low pulse count</t>
+  </si>
+  <si>
+    <t>The standard deviation of the average number of low flow events (25th percentile of the entire record) per year divided by the overall mean number of low flow events per year and then multiplied by 100.</t>
+  </si>
+  <si>
+    <t>ml12</t>
+  </si>
+  <si>
+    <t>Mean minimum December flow</t>
+  </si>
+  <si>
+    <t>Mean of the lowest flows of each December.</t>
+  </si>
+  <si>
+    <t>ra9</t>
+  </si>
+  <si>
+    <t>Variability in reversals</t>
+  </si>
+  <si>
+    <t>The standard deviation of the yearly reversals divided by the mean and multiplied by 100.</t>
+  </si>
+  <si>
+    <t>mh8</t>
+  </si>
+  <si>
+    <t>Mean August maximum flow</t>
+  </si>
+  <si>
+    <t>The mean of the maximum flow values that occur during the month of August over the entire period of record.</t>
+  </si>
+  <si>
+    <t># flow events/yr</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>gage-ecoflows-obs-east</t>
+  </si>
+  <si>
+    <t>gage-ecoflows-obs-southeast</t>
+  </si>
+  <si>
+    <t>gage-ecoflows-obs-west</t>
+  </si>
+  <si>
+    <t>gage-ecoflows-syn-east</t>
+  </si>
+  <si>
+    <t>gage-ecoflows-syn-southeast</t>
+  </si>
+  <si>
+    <t>gage-ecoflows-syn-west</t>
+  </si>
+  <si>
+    <t>Mississippi Ecoflows</t>
+  </si>
+  <si>
+    <t>To better understand the needs of riverine ecosystems and help natural resource managers make science-based regulatory decisions, flow-ecology relationships were modeled in Mississippi. The flow-ecology relationships were modeled for East, West, and Southeast bioregions using a parallel analysis on two datasets: one in which the hydrologic metrics were calculated from synthetic streamflow at 1,182 macroinvertebrate collection sites and the other in which the hydrologic metrics were calculated from observed streamflow at USGS streamgages paired with 77 macroinvertebrate collection sites. The subset of hydrologic metrics that best correlate to dissimilarities in macroinvertebrate multimetric Mississippi-Benthic Index of Stream Quality (M-BISQ) scores were used as predictor variables in quantile regression models.</t>
+  </si>
+  <si>
+    <t>Crowley-Ornelas, E.R., and Banks, S.M., 2023, Relating multimetric indices to hydrologic metrics to estimate flow-ecology relationship for macroinvertebrates in Mississippi, USA: U.S. Geological Survey data release</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5066/P9DBLFZ2</t>
+  </si>
+  <si>
+    <t>site_no</t>
+  </si>
+  <si>
+    <t>region, flow_type</t>
+  </si>
+  <si>
+    <t>log10(cfs)</t>
   </si>
 </sst>
 </file>
@@ -3402,13 +3567,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3299DF9C-F617-B646-BEE4-AB38FAC7FD15}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScale="135" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3731,28 +3896,30 @@
         <v>214</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>982</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>220</v>
+        <v>1030</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>717</v>
+        <v>1031</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>326</v>
+        <v>1032</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>327</v>
+        <v>1033</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>12</v>
+        <v>1034</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>1035</v>
+      </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
@@ -3762,49 +3929,52 @@
       <c r="M8" t="b">
         <v>0</v>
       </c>
-      <c r="N8" t="s">
-        <v>272</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8" t="s">
-        <v>273</v>
-      </c>
+      <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>316</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>315</v>
+        <v>220</v>
       </c>
       <c r="D9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>327</v>
+      </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>272</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -3812,27 +3982,25 @@
         <v>215</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>316</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="D10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>319</v>
-      </c>
+      <c r="E10" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" t="b">
         <v>1</v>
@@ -3842,15 +4010,6 @@
       </c>
       <c r="M10" t="b">
         <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>274</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -3858,43 +4017,45 @@
         <v>215</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>809</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>810</v>
+        <v>216</v>
       </c>
       <c r="D11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>811</v>
+      <c r="E11" s="9" t="s">
+        <v>721</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>812</v>
+        <v>318</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>813</v>
+        <v>319</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>215</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="K11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>814</v>
+        <v>274</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>815</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -3902,49 +4063,43 @@
         <v>215</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>809</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>472</v>
+        <v>810</v>
       </c>
       <c r="D12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>719</v>
+        <v>811</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>328</v>
+        <v>812</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>329</v>
+        <v>813</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>295</v>
+        <v>814</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" t="s">
-        <v>296</v>
+        <v>815</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -3952,28 +4107,34 @@
         <v>215</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>853</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>854</v>
+        <v>472</v>
       </c>
       <c r="D13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>855</v>
+        <v>719</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>908</v>
+        <v>328</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>909</v>
+        <v>329</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>215</v>
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="K13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -3981,8 +4142,14 @@
       <c r="M13" t="b">
         <v>0</v>
       </c>
+      <c r="N13" t="s">
+        <v>295</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
       <c r="P13" t="s">
-        <v>856</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -3990,44 +4157,82 @@
         <v>215</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
         <v>276</v>
       </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4036,9 +4241,10 @@
     <hyperlink ref="G3" r:id="rId1" xr:uid="{8E000033-4D60-B44D-B2E5-4F42B9601881}"/>
     <hyperlink ref="G4" r:id="rId2" xr:uid="{4C553D61-BC9A-454A-B064-6B1612F39971}"/>
     <hyperlink ref="G5" r:id="rId3" xr:uid="{2A6DFADB-88E1-5A48-96D8-44A804028C72}"/>
-    <hyperlink ref="G8" r:id="rId4" xr:uid="{796C75A3-A990-CE43-9F4F-B9CF62A99DD8}"/>
+    <hyperlink ref="G9" r:id="rId4" xr:uid="{796C75A3-A990-CE43-9F4F-B9CF62A99DD8}"/>
     <hyperlink ref="G7" r:id="rId5" xr:uid="{CB3A387E-3E47-3544-8A79-337A24241FC9}"/>
-    <hyperlink ref="G11" r:id="rId6" xr:uid="{0999B51A-918A-E94F-97CE-572937D40B57}"/>
+    <hyperlink ref="G12" r:id="rId6" xr:uid="{0999B51A-918A-E94F-97CE-572937D40B57}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{93550DA6-57C2-C248-B9F6-16675F6686F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4046,16 +4252,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356FD21B-BA3B-0140-999A-460BCE259E1F}">
-  <dimension ref="A1:T271"/>
+  <dimension ref="A1:T293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F245" sqref="F245"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G276" sqref="G276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
@@ -20110,8 +20316,1351 @@
         <v>43</v>
       </c>
     </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>1</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C272" t="b">
+        <v>0</v>
+      </c>
+      <c r="D272" t="s">
+        <v>996</v>
+      </c>
+      <c r="E272" t="s">
+        <v>983</v>
+      </c>
+      <c r="F272" t="s">
+        <v>984</v>
+      </c>
+      <c r="H272" t="s">
+        <v>985</v>
+      </c>
+      <c r="I272" t="s">
+        <v>35</v>
+      </c>
+      <c r="J272">
+        <v>6.23</v>
+      </c>
+      <c r="K272">
+        <v>87.69</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272">
+        <v>100</v>
+      </c>
+      <c r="N272" t="s">
+        <v>42</v>
+      </c>
+      <c r="O272" t="s">
+        <v>37</v>
+      </c>
+      <c r="P272" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q272" t="s">
+        <v>37</v>
+      </c>
+      <c r="R272" t="b">
+        <v>1</v>
+      </c>
+      <c r="S272" t="b">
+        <v>1</v>
+      </c>
+      <c r="T272" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>2</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C273" t="b">
+        <v>0</v>
+      </c>
+      <c r="D273" t="s">
+        <v>997</v>
+      </c>
+      <c r="E273" t="s">
+        <v>986</v>
+      </c>
+      <c r="F273" t="s">
+        <v>988</v>
+      </c>
+      <c r="G273" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H273" t="s">
+        <v>991</v>
+      </c>
+      <c r="I273" t="s">
+        <v>35</v>
+      </c>
+      <c r="J273">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="K273">
+        <v>20.727</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273">
+        <v>20</v>
+      </c>
+      <c r="N273" t="s">
+        <v>42</v>
+      </c>
+      <c r="O273" t="s">
+        <v>37</v>
+      </c>
+      <c r="P273" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q273" t="s">
+        <v>37</v>
+      </c>
+      <c r="R273" t="b">
+        <v>1</v>
+      </c>
+      <c r="S273" t="b">
+        <v>1</v>
+      </c>
+      <c r="T273" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>3</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C274" t="b">
+        <v>0</v>
+      </c>
+      <c r="D274" t="s">
+        <v>997</v>
+      </c>
+      <c r="E274" t="s">
+        <v>987</v>
+      </c>
+      <c r="F274" t="s">
+        <v>989</v>
+      </c>
+      <c r="G274" t="s">
+        <v>40</v>
+      </c>
+      <c r="H274" t="s">
+        <v>990</v>
+      </c>
+      <c r="I274" t="s">
+        <v>35</v>
+      </c>
+      <c r="J274">
+        <v>28.414000000000001</v>
+      </c>
+      <c r="K274">
+        <v>227.76</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+      <c r="M274">
+        <v>250</v>
+      </c>
+      <c r="N274" t="s">
+        <v>42</v>
+      </c>
+      <c r="O274" t="s">
+        <v>37</v>
+      </c>
+      <c r="P274" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q274" t="s">
+        <v>37</v>
+      </c>
+      <c r="R274" t="b">
+        <v>1</v>
+      </c>
+      <c r="S274" t="b">
+        <v>1</v>
+      </c>
+      <c r="T274" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>4</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C275" t="b">
+        <v>0</v>
+      </c>
+      <c r="D275" t="s">
+        <v>997</v>
+      </c>
+      <c r="E275" t="s">
+        <v>992</v>
+      </c>
+      <c r="F275" t="s">
+        <v>993</v>
+      </c>
+      <c r="G275" t="s">
+        <v>994</v>
+      </c>
+      <c r="H275" t="s">
+        <v>995</v>
+      </c>
+      <c r="I275" t="s">
+        <v>35</v>
+      </c>
+      <c r="J275">
+        <v>3.0059999999999998</v>
+      </c>
+      <c r="K275">
+        <v>64.224999999999994</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+      <c r="M275">
+        <v>70</v>
+      </c>
+      <c r="N275" t="s">
+        <v>42</v>
+      </c>
+      <c r="O275" t="s">
+        <v>37</v>
+      </c>
+      <c r="P275" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q275" t="s">
+        <v>37</v>
+      </c>
+      <c r="R275" t="b">
+        <v>1</v>
+      </c>
+      <c r="S275" t="b">
+        <v>1</v>
+      </c>
+      <c r="T275" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>1</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C276" t="b">
+        <v>0</v>
+      </c>
+      <c r="D276" t="s">
+        <v>996</v>
+      </c>
+      <c r="E276" t="s">
+        <v>983</v>
+      </c>
+      <c r="F276" t="s">
+        <v>984</v>
+      </c>
+      <c r="H276" t="s">
+        <v>985</v>
+      </c>
+      <c r="I276" t="s">
+        <v>35</v>
+      </c>
+      <c r="J276">
+        <v>27.65</v>
+      </c>
+      <c r="K276">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276">
+        <v>80</v>
+      </c>
+      <c r="N276" t="s">
+        <v>42</v>
+      </c>
+      <c r="O276" t="s">
+        <v>37</v>
+      </c>
+      <c r="P276" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q276" t="s">
+        <v>37</v>
+      </c>
+      <c r="R276" t="b">
+        <v>1</v>
+      </c>
+      <c r="S276" t="b">
+        <v>1</v>
+      </c>
+      <c r="T276" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>2</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C277" t="b">
+        <v>0</v>
+      </c>
+      <c r="D277" t="s">
+        <v>997</v>
+      </c>
+      <c r="E277" t="s">
+        <v>998</v>
+      </c>
+      <c r="F277" t="s">
+        <v>999</v>
+      </c>
+      <c r="G277" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H277" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I277" t="s">
+        <v>35</v>
+      </c>
+      <c r="J277">
+        <v>42.904000000000003</v>
+      </c>
+      <c r="K277">
+        <v>76.974000000000004</v>
+      </c>
+      <c r="L277">
+        <v>40</v>
+      </c>
+      <c r="M277">
+        <v>80</v>
+      </c>
+      <c r="N277" t="s">
+        <v>42</v>
+      </c>
+      <c r="O277" t="s">
+        <v>37</v>
+      </c>
+      <c r="P277" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>37</v>
+      </c>
+      <c r="R277" t="b">
+        <v>1</v>
+      </c>
+      <c r="S277" t="b">
+        <v>1</v>
+      </c>
+      <c r="T277" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>3</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C278" t="b">
+        <v>0</v>
+      </c>
+      <c r="D278" t="s">
+        <v>997</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F278" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G278" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H278" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I278" t="s">
+        <v>35</v>
+      </c>
+      <c r="J278">
+        <v>80.587999999999994</v>
+      </c>
+      <c r="K278">
+        <v>113.667</v>
+      </c>
+      <c r="L278">
+        <v>80</v>
+      </c>
+      <c r="M278">
+        <v>120</v>
+      </c>
+      <c r="N278" t="s">
+        <v>42</v>
+      </c>
+      <c r="O278" t="s">
+        <v>37</v>
+      </c>
+      <c r="P278" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q278" t="s">
+        <v>37</v>
+      </c>
+      <c r="R278" t="b">
+        <v>1</v>
+      </c>
+      <c r="S278" t="b">
+        <v>1</v>
+      </c>
+      <c r="T278" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>1</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C279" t="b">
+        <v>0</v>
+      </c>
+      <c r="D279" t="s">
+        <v>996</v>
+      </c>
+      <c r="E279" t="s">
+        <v>983</v>
+      </c>
+      <c r="F279" t="s">
+        <v>984</v>
+      </c>
+      <c r="H279" t="s">
+        <v>985</v>
+      </c>
+      <c r="I279" t="s">
+        <v>35</v>
+      </c>
+      <c r="J279">
+        <v>17.34</v>
+      </c>
+      <c r="K279">
+        <v>75.94</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+      <c r="M279">
+        <v>100</v>
+      </c>
+      <c r="N279" t="s">
+        <v>42</v>
+      </c>
+      <c r="O279" t="s">
+        <v>37</v>
+      </c>
+      <c r="P279" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>37</v>
+      </c>
+      <c r="R279" t="b">
+        <v>1</v>
+      </c>
+      <c r="S279" t="b">
+        <v>1</v>
+      </c>
+      <c r="T279" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>2</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C280" t="b">
+        <v>0</v>
+      </c>
+      <c r="D280" t="s">
+        <v>997</v>
+      </c>
+      <c r="E280" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F280" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H280" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I280" t="s">
+        <v>35</v>
+      </c>
+      <c r="J280">
+        <v>27.954999999999998</v>
+      </c>
+      <c r="K280">
+        <v>217.04</v>
+      </c>
+      <c r="L280">
+        <v>25</v>
+      </c>
+      <c r="M280">
+        <v>225</v>
+      </c>
+      <c r="N280" t="s">
+        <v>42</v>
+      </c>
+      <c r="O280" t="s">
+        <v>37</v>
+      </c>
+      <c r="P280" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q280" t="s">
+        <v>37</v>
+      </c>
+      <c r="R280" t="b">
+        <v>1</v>
+      </c>
+      <c r="S280" t="b">
+        <v>1</v>
+      </c>
+      <c r="T280" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>1</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C281" t="b">
+        <v>0</v>
+      </c>
+      <c r="D281" t="s">
+        <v>996</v>
+      </c>
+      <c r="E281" t="s">
+        <v>983</v>
+      </c>
+      <c r="F281" t="s">
+        <v>984</v>
+      </c>
+      <c r="H281" t="s">
+        <v>985</v>
+      </c>
+      <c r="I281" t="s">
+        <v>35</v>
+      </c>
+      <c r="J281">
+        <v>1.81</v>
+      </c>
+      <c r="K281">
+        <v>93.21</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281">
+        <v>100</v>
+      </c>
+      <c r="N281" t="s">
+        <v>42</v>
+      </c>
+      <c r="O281" t="s">
+        <v>37</v>
+      </c>
+      <c r="P281" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q281" t="s">
+        <v>37</v>
+      </c>
+      <c r="R281" t="b">
+        <v>1</v>
+      </c>
+      <c r="S281" t="b">
+        <v>1</v>
+      </c>
+      <c r="T281" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>2</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C282" t="b">
+        <v>0</v>
+      </c>
+      <c r="D282" t="s">
+        <v>997</v>
+      </c>
+      <c r="E282" t="s">
+        <v>986</v>
+      </c>
+      <c r="F282" t="s">
+        <v>988</v>
+      </c>
+      <c r="G282" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H282" t="s">
+        <v>991</v>
+      </c>
+      <c r="I282" t="s">
+        <v>35</v>
+      </c>
+      <c r="J282">
+        <v>3.7</v>
+      </c>
+      <c r="K282">
+        <v>22.75</v>
+      </c>
+      <c r="L282">
+        <v>0</v>
+      </c>
+      <c r="M282">
+        <v>25</v>
+      </c>
+      <c r="N282" t="s">
+        <v>42</v>
+      </c>
+      <c r="O282" t="s">
+        <v>37</v>
+      </c>
+      <c r="P282" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q282" t="s">
+        <v>37</v>
+      </c>
+      <c r="R282" t="b">
+        <v>1</v>
+      </c>
+      <c r="S282" t="b">
+        <v>1</v>
+      </c>
+      <c r="T282" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>3</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C283" t="b">
+        <v>0</v>
+      </c>
+      <c r="D283" t="s">
+        <v>997</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G283" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H283" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I283" t="s">
+        <v>35</v>
+      </c>
+      <c r="J283">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="K283">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="L283">
+        <v>0.1</v>
+      </c>
+      <c r="M283">
+        <v>0.7</v>
+      </c>
+      <c r="N283" t="s">
+        <v>42</v>
+      </c>
+      <c r="O283" t="s">
+        <v>37</v>
+      </c>
+      <c r="P283" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>37</v>
+      </c>
+      <c r="R283" t="b">
+        <v>1</v>
+      </c>
+      <c r="S283" t="b">
+        <v>1</v>
+      </c>
+      <c r="T283" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>4</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C284" t="b">
+        <v>0</v>
+      </c>
+      <c r="D284" t="s">
+        <v>997</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G284" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H284" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I284" t="s">
+        <v>35</v>
+      </c>
+      <c r="J284">
+        <v>78.5</v>
+      </c>
+      <c r="K284">
+        <v>137.65</v>
+      </c>
+      <c r="L284">
+        <v>75</v>
+      </c>
+      <c r="M284">
+        <v>150</v>
+      </c>
+      <c r="N284" t="s">
+        <v>42</v>
+      </c>
+      <c r="O284" t="s">
+        <v>37</v>
+      </c>
+      <c r="P284" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q284" t="s">
+        <v>37</v>
+      </c>
+      <c r="R284" t="b">
+        <v>1</v>
+      </c>
+      <c r="S284" t="b">
+        <v>1</v>
+      </c>
+      <c r="T284" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>5</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C285" t="b">
+        <v>0</v>
+      </c>
+      <c r="D285" t="s">
+        <v>997</v>
+      </c>
+      <c r="E285" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F285" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G285" t="s">
+        <v>40</v>
+      </c>
+      <c r="H285" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I285" t="s">
+        <v>35</v>
+      </c>
+      <c r="J285">
+        <v>32.54</v>
+      </c>
+      <c r="K285">
+        <v>93.106999999999999</v>
+      </c>
+      <c r="L285">
+        <v>30</v>
+      </c>
+      <c r="M285">
+        <v>100</v>
+      </c>
+      <c r="N285" t="s">
+        <v>42</v>
+      </c>
+      <c r="O285" t="s">
+        <v>37</v>
+      </c>
+      <c r="P285" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q285" t="s">
+        <v>37</v>
+      </c>
+      <c r="R285" t="b">
+        <v>1</v>
+      </c>
+      <c r="S285" t="b">
+        <v>1</v>
+      </c>
+      <c r="T285" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>1</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C286" t="b">
+        <v>0</v>
+      </c>
+      <c r="D286" t="s">
+        <v>996</v>
+      </c>
+      <c r="E286" t="s">
+        <v>983</v>
+      </c>
+      <c r="F286" t="s">
+        <v>984</v>
+      </c>
+      <c r="H286" t="s">
+        <v>985</v>
+      </c>
+      <c r="I286" t="s">
+        <v>35</v>
+      </c>
+      <c r="J286">
+        <v>11.27</v>
+      </c>
+      <c r="K286">
+        <v>94.57</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+      <c r="M286">
+        <v>100</v>
+      </c>
+      <c r="N286" t="s">
+        <v>42</v>
+      </c>
+      <c r="O286" t="s">
+        <v>37</v>
+      </c>
+      <c r="P286" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q286" t="s">
+        <v>37</v>
+      </c>
+      <c r="R286" t="b">
+        <v>1</v>
+      </c>
+      <c r="S286" t="b">
+        <v>1</v>
+      </c>
+      <c r="T286" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>2</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C287" t="b">
+        <v>0</v>
+      </c>
+      <c r="D287" t="s">
+        <v>997</v>
+      </c>
+      <c r="E287" t="s">
+        <v>986</v>
+      </c>
+      <c r="F287" t="s">
+        <v>988</v>
+      </c>
+      <c r="G287" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H287" t="s">
+        <v>991</v>
+      </c>
+      <c r="I287" t="s">
+        <v>35</v>
+      </c>
+      <c r="J287">
+        <v>3.35</v>
+      </c>
+      <c r="K287">
+        <v>13.95</v>
+      </c>
+      <c r="L287">
+        <v>0</v>
+      </c>
+      <c r="M287">
+        <v>14</v>
+      </c>
+      <c r="N287" t="s">
+        <v>42</v>
+      </c>
+      <c r="O287" t="s">
+        <v>37</v>
+      </c>
+      <c r="P287" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q287" t="s">
+        <v>37</v>
+      </c>
+      <c r="R287" t="b">
+        <v>1</v>
+      </c>
+      <c r="S287" t="b">
+        <v>1</v>
+      </c>
+      <c r="T287" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>3</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C288" t="b">
+        <v>0</v>
+      </c>
+      <c r="D288" t="s">
+        <v>997</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G288" t="s">
+        <v>819</v>
+      </c>
+      <c r="H288" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I288" t="s">
+        <v>35</v>
+      </c>
+      <c r="J288">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="K288">
+        <v>1273.7439999999999</v>
+      </c>
+      <c r="L288">
+        <v>0.1</v>
+      </c>
+      <c r="M288">
+        <v>2000</v>
+      </c>
+      <c r="N288" t="s">
+        <v>36</v>
+      </c>
+      <c r="O288" t="s">
+        <v>331</v>
+      </c>
+      <c r="P288" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q288" t="s">
+        <v>312</v>
+      </c>
+      <c r="R288" t="b">
+        <v>1</v>
+      </c>
+      <c r="S288" t="b">
+        <v>1</v>
+      </c>
+      <c r="T288" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>4</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C289" t="b">
+        <v>0</v>
+      </c>
+      <c r="D289" t="s">
+        <v>997</v>
+      </c>
+      <c r="E289" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F289" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G289" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H289" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I289" t="s">
+        <v>35</v>
+      </c>
+      <c r="J289">
+        <v>79.5</v>
+      </c>
+      <c r="K289">
+        <v>114.45</v>
+      </c>
+      <c r="L289">
+        <v>75</v>
+      </c>
+      <c r="M289">
+        <v>125</v>
+      </c>
+      <c r="N289" t="s">
+        <v>42</v>
+      </c>
+      <c r="O289" t="s">
+        <v>37</v>
+      </c>
+      <c r="P289" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q289" t="s">
+        <v>37</v>
+      </c>
+      <c r="R289" t="b">
+        <v>1</v>
+      </c>
+      <c r="S289" t="b">
+        <v>1</v>
+      </c>
+      <c r="T289" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>5</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C290" t="b">
+        <v>0</v>
+      </c>
+      <c r="D290" t="s">
+        <v>997</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F290" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G290" t="s">
+        <v>40</v>
+      </c>
+      <c r="H290" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I290" t="s">
+        <v>35</v>
+      </c>
+      <c r="J290">
+        <v>5.5830000000000002</v>
+      </c>
+      <c r="K290">
+        <v>10.53</v>
+      </c>
+      <c r="L290">
+        <v>5</v>
+      </c>
+      <c r="M290">
+        <v>11</v>
+      </c>
+      <c r="N290" t="s">
+        <v>42</v>
+      </c>
+      <c r="O290" t="s">
+        <v>37</v>
+      </c>
+      <c r="P290" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q290" t="s">
+        <v>37</v>
+      </c>
+      <c r="R290" t="b">
+        <v>1</v>
+      </c>
+      <c r="S290" t="b">
+        <v>1</v>
+      </c>
+      <c r="T290" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C291" t="b">
+        <v>0</v>
+      </c>
+      <c r="D291" t="s">
+        <v>996</v>
+      </c>
+      <c r="E291" t="s">
+        <v>983</v>
+      </c>
+      <c r="F291" t="s">
+        <v>984</v>
+      </c>
+      <c r="H291" t="s">
+        <v>985</v>
+      </c>
+      <c r="I291" t="s">
+        <v>35</v>
+      </c>
+      <c r="J291">
+        <v>14.87</v>
+      </c>
+      <c r="K291">
+        <v>103.91</v>
+      </c>
+      <c r="L291">
+        <v>0</v>
+      </c>
+      <c r="M291">
+        <v>100</v>
+      </c>
+      <c r="N291" t="s">
+        <v>42</v>
+      </c>
+      <c r="O291" t="s">
+        <v>37</v>
+      </c>
+      <c r="P291" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q291" t="s">
+        <v>37</v>
+      </c>
+      <c r="R291" t="b">
+        <v>1</v>
+      </c>
+      <c r="S291" t="b">
+        <v>1</v>
+      </c>
+      <c r="T291" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>2</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C292" t="b">
+        <v>0</v>
+      </c>
+      <c r="D292" t="s">
+        <v>997</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G292" t="s">
+        <v>819</v>
+      </c>
+      <c r="H292" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I292" t="s">
+        <v>35</v>
+      </c>
+      <c r="J292">
+        <v>0.317</v>
+      </c>
+      <c r="K292">
+        <v>2779.8879999999999</v>
+      </c>
+      <c r="L292">
+        <v>0.1</v>
+      </c>
+      <c r="M292">
+        <v>3000</v>
+      </c>
+      <c r="N292" t="s">
+        <v>36</v>
+      </c>
+      <c r="O292" t="s">
+        <v>331</v>
+      </c>
+      <c r="P292" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>312</v>
+      </c>
+      <c r="R292" t="b">
+        <v>1</v>
+      </c>
+      <c r="S292" t="b">
+        <v>1</v>
+      </c>
+      <c r="T292" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>3</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C293" t="b">
+        <v>0</v>
+      </c>
+      <c r="D293" t="s">
+        <v>997</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H293" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I293" t="s">
+        <v>35</v>
+      </c>
+      <c r="J293">
+        <v>17.776</v>
+      </c>
+      <c r="K293">
+        <v>84.948999999999998</v>
+      </c>
+      <c r="L293">
+        <v>15</v>
+      </c>
+      <c r="M293">
+        <v>85</v>
+      </c>
+      <c r="N293" t="s">
+        <v>42</v>
+      </c>
+      <c r="O293" t="s">
+        <v>37</v>
+      </c>
+      <c r="P293" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q293" t="s">
+        <v>37</v>
+      </c>
+      <c r="R293" t="b">
+        <v>1</v>
+      </c>
+      <c r="S293" t="b">
+        <v>1</v>
+      </c>
+      <c r="T293" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:T213" xr:uid="{E0968736-1BA0-284C-93D4-E8D02CD98242}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E273:H276">
+    <sortCondition ref="E273:E276"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/r/xlsx/themes.xlsx
+++ b/r/xlsx/themes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/ecosheds/lmg-restore/r/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B55E15-FBB9-6A47-8711-AFC82E9F7EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83180630-F0F6-C94B-9EF1-8FBCC968F493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{AE99D6E3-0A03-B54F-A17C-78F34962647F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{AE99D6E3-0A03-B54F-A17C-78F34962647F}"/>
   </bookViews>
   <sheets>
     <sheet name="themes" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4354" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4430" uniqueCount="1077">
   <si>
     <t>theme</t>
   </si>
@@ -2608,9 +2608,6 @@
     <t>Low flow frequency statistics for HUC12 pour points</t>
   </si>
   <si>
-    <t>huc12_SyntheticLFF_Statistics_wBiasCorr.txt</t>
-  </si>
-  <si>
     <t>Corr_7Q2</t>
   </si>
   <si>
@@ -2623,42 +2620,6 @@
     <t>Corr_30Q20</t>
   </si>
   <si>
-    <t>huc_7Day2yr_Est_Corr</t>
-  </si>
-  <si>
-    <t>huc_7Day2yr_Lwr_Corr</t>
-  </si>
-  <si>
-    <t>huc_7Day2yr_Upr_Corr</t>
-  </si>
-  <si>
-    <t>huc_7Day10yr_Est_Corr</t>
-  </si>
-  <si>
-    <t>huc_7Day10yr_Lwr_Corr</t>
-  </si>
-  <si>
-    <t>huc_7Day10yr_Upr_Corr</t>
-  </si>
-  <si>
-    <t>huc_30Day5yr_Est_Corr</t>
-  </si>
-  <si>
-    <t>huc_30Day5yr_Lwr_Corr</t>
-  </si>
-  <si>
-    <t>huc_30Day5yr_Upr_Corr</t>
-  </si>
-  <si>
-    <t>huc_30Day20yr_Est_Corr</t>
-  </si>
-  <si>
-    <t>huc_30Day20yr_Lwr_Corr</t>
-  </si>
-  <si>
-    <t>huc_30Day20yr_Upr_Corr</t>
-  </si>
-  <si>
     <t>Spatial Bias Correction</t>
   </si>
   <si>
@@ -2713,18 +2674,6 @@
     <t>An output from "Script07.R" from Whaling, A. R., and others (2021).  "huc_30Day20yr_Upr_Corr" is the bias-corrected 97.5th percentile, or upper 95-percent confidence interval, for the huc12 synthetic 30Q20 flow statistic and is computed as the sum of the attributes "huc_30Day20yr_Upr" and "Corr_30Q20".</t>
   </si>
   <si>
-    <t>7Q2 Spatial Bias Correction</t>
-  </si>
-  <si>
-    <t>7Q10 Spatial Bias Correction</t>
-  </si>
-  <si>
-    <t>30Q5 Spatial Bias Correction</t>
-  </si>
-  <si>
-    <t>30Q20 Spatial Bias Correction</t>
-  </si>
-  <si>
     <t>7Q2 Estimate</t>
   </si>
   <si>
@@ -3149,6 +3098,177 @@
   </si>
   <si>
     <t>log10(cfs)</t>
+  </si>
+  <si>
+    <t>step09_syntheticLFF_statistics_biasCorr_cnorm_texkmykmpetp_d21.txt</t>
+  </si>
+  <si>
+    <t>finalBias_1Q10</t>
+  </si>
+  <si>
+    <t>finalBias_1Q2</t>
+  </si>
+  <si>
+    <t>finalBias_1Q20</t>
+  </si>
+  <si>
+    <t>finalBias_1Q5</t>
+  </si>
+  <si>
+    <t>finalBias_30Q10</t>
+  </si>
+  <si>
+    <t>finalBias_30Q2</t>
+  </si>
+  <si>
+    <t>finalBias_30Q20</t>
+  </si>
+  <si>
+    <t>finalBias_30Q5</t>
+  </si>
+  <si>
+    <t>finalBias_7Q10</t>
+  </si>
+  <si>
+    <t>finalBias_7Q2</t>
+  </si>
+  <si>
+    <t>finalBias_7Q20</t>
+  </si>
+  <si>
+    <t>finalBias_7Q5</t>
+  </si>
+  <si>
+    <t>huc_1Day10yr_Est_corrII</t>
+  </si>
+  <si>
+    <t>huc_1Day20yr_Est_corrII</t>
+  </si>
+  <si>
+    <t>huc_1Day2yr_Est_corrII</t>
+  </si>
+  <si>
+    <t>huc_1Day5yr_Est_corrII</t>
+  </si>
+  <si>
+    <t>huc_30Day10yr_Est_corrII</t>
+  </si>
+  <si>
+    <t>huc_30Day20yr_Est_corrII</t>
+  </si>
+  <si>
+    <t>huc_30Day2yr_Est_corrII</t>
+  </si>
+  <si>
+    <t>huc_30Day5yr_Est_corrII</t>
+  </si>
+  <si>
+    <t>huc_7Day10yr_Est_corrII</t>
+  </si>
+  <si>
+    <t>huc_7Day20yr_Est_corrII</t>
+  </si>
+  <si>
+    <t>huc_7Day2yr_Est_corrII</t>
+  </si>
+  <si>
+    <t>huc_7Day5yr_Est_corrII</t>
+  </si>
+  <si>
+    <t>1Q10 Estimate</t>
+  </si>
+  <si>
+    <t>1Q20 Estimate</t>
+  </si>
+  <si>
+    <t>1Q2 Estimate</t>
+  </si>
+  <si>
+    <t>1Q5 Estimate</t>
+  </si>
+  <si>
+    <t>30Q10 Estimate</t>
+  </si>
+  <si>
+    <t>30Q2 Estimate</t>
+  </si>
+  <si>
+    <t>7Q20 Estimate</t>
+  </si>
+  <si>
+    <t>7Q5 Estimate</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "finalBias_1Q2" is the the sum of the 1Q2 spatial bias correction from Stage I and the 1Q2 residual bias correction from Stage II GAM fitting. See "Methods" in Whaling, A. R. an others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "huc_1Day2yr_Est_corrII" is the bias-corrected 1Q2 flow statistic for the huc12 pour point and is computed as the sum of the attributes "huc_1Day2yr_Est" and "finalBias_1Q2".</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "finalBias_1Q5" is the the sum of the 1Q5 spatial bias correction from Stage I and the 1Q5 residual bias correction from Stage II GAM fitting. See "Methods" in Whaling, A. R. an others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "huc_1Day5yr_Est_corrII" is the bias-corrected 1Q5 flow statistic for the huc12 pour point and is computed as the sum of the attributes "huc_1Day5yr_Est" and "finalBias_1Q5".</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "finalBias_1Q10" is the the sum of the 1Q10 spatial bias correction from Stage I and the 1Q10 residual bias correction from Stage II GAM fitting. See "Methods" in Whaling, A. R. an others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "huc_1Day10yr_Est_corrII" is the bias-corrected 1Q10 flow statistic for the huc12 pour point and is computed as the sum of the attributes "huc_1Day10yr_Est" and "finalBias_1Q10".</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "finalBias_1Q20" is the the sum of the 1Q20 spatial bias correction from Stage I and the 1Q20 residual bias correction from Stage II GAM fitting. See "Methods" in Whaling, A. R. an others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "huc_1Day20yr_Est_corrII" is the bias-corrected 1Q20 flow statistic for the huc12 pour point and is computed as the sum of the attributes "huc_1Day20yr_Est" and "finalBias_1Q20".</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "finalBias_7Q2" is the the sum of the 7Q2 spatial bias correction from Stage I and the 7Q2 residual bias correction from Stage II GAM fitting. See "Methods" in Whaling, A. R. an others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "huc_7Day2yr_Est_corrII" is the bias-corrected 7Q2 flow statistic for the huc12 pour point and is computed as the sum of the attributes "huc_7Day2yr_Est" and "finalBias_7Q2".</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "finalBias_7Q5" is the the sum of the 7Q5 spatial bias correction from Stage I and the 7Q5 residual bias correction from Stage II GAM fitting. See "Methods" in Whaling, A. R. an others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "huc_7Day5yr_Est_corrII" is the bias-corrected 7Q5 flow statistic for the huc12 pour point and is computed as the sum of the attributes "huc_7Day5yr_Est" and "finalBias_7Q5".</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "finalBias_7Q10" is the the sum of the 7Q10 spatial bias correction from Stage I and the 7Q10 residual bias correction from Stage II GAM fitting. See "Methods" in Whaling, A. R. an others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "huc_7Day10yr_Est_corrII" is the bias-corrected 7Q10 flow statistic for the huc12 pour point and is computed as the sum of the attributes "huc_7Day10yr_Est" and "finalBias_7Q10".</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "finalBias_7Q20" is the the sum of the 7Q20 spatial bias correction from Stage I and the 7Q20 residual bias correction from Stage II GAM fitting. See "Methods" in Whaling, A. R. an others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "huc_7Day20yr_Est_corrII" is the bias-corrected 7Q20 flow statistic for the huc12 pour point and is computed as the sum of the attributes "huc_7Day20yr_Est" and "finalBias_7Q20".</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "finalBias_30Q2" is the the sum of the 30Q2 spatial bias correction from Stage I and the 30Q2 residual bias correction from Stage II GAM fitting. See "Methods" in Whaling, A. R. an others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "huc_30Day2yr_Est_corrII" is the bias-corrected 30Q2 flow statistic for the huc12 pour point and is computed as the sum of the attributes "huc_30Day2yr_Est" and "finalBias_30Q2".</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "finalBias_30Q5" is the the sum of the 30Q5 spatial bias correction from Stage I and the 30Q5 residual bias correction from Stage II GAM fitting. See "Methods" in Whaling, A. R. an others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "huc_30Day5yr_Est_corrII" is the bias-corrected 30Q5 flow statistic for the huc12 pour point and is computed as the sum of the attributes "huc_30Day5yr_Est" and "finalBias_30Q5".</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "finalBias_30Q10" is the the sum of the 30Q10 spatial bias correction from Stage I and the 30Q10 residual bias correction from Stage II GAM fitting. See "Methods" in Whaling, A. R. an others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "huc_30Day10yr_Est_corrII" is the bias-corrected 30Q10 flow statistic for the huc12 pour point and is computed as the sum of the attributes "huc_30Day10yr_Est" and "finalBias_30Q10".</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "finalBias_30Q20" is the the sum of the 30Q20 spatial bias correction from Stage I and the 30Q20 residual bias correction from Stage II GAM fitting. See "Methods" in Whaling, A. R. an others (2023) and for more details.</t>
+  </si>
+  <si>
+    <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "huc_30Day20yr_Est_corrII" is the bias-corrected 30Q20 flow statistic for the huc12 pour point and is computed as the sum of the attributes "huc_30Day20yr_Est" and "finalBias_30Q20".</t>
   </si>
 </sst>
 </file>
@@ -3570,10 +3690,10 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScale="135" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3811,22 +3931,22 @@
         <v>214</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>854</v>
       </c>
       <c r="D6" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>908</v>
+        <v>891</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>13</v>
@@ -3841,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>912</v>
+        <v>895</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -3896,29 +4016,29 @@
         <v>214</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>982</v>
+        <v>965</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1030</v>
+        <v>1013</v>
       </c>
       <c r="D8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1031</v>
+        <v>1014</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1033</v>
+        <v>1016</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>1034</v>
+        <v>1017</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>1035</v>
+        <v>1018</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -4169,10 +4289,10 @@
         <v>855</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>908</v>
+        <v>891</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>909</v>
+        <v>892</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>215</v>
@@ -4187,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>856</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -4252,11 +4372,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356FD21B-BA3B-0140-999A-460BCE259E1F}">
-  <dimension ref="A1:T293"/>
+  <dimension ref="A1:T301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G276" sqref="G276"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F301" sqref="F301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4335,7 +4455,7 @@
         <v>803</v>
       </c>
       <c r="R1" t="s">
-        <v>979</v>
+        <v>962</v>
       </c>
       <c r="S1" t="s">
         <v>288</v>
@@ -17354,52 +17474,52 @@
         <v>1</v>
       </c>
       <c r="B224" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="C224" t="b">
         <v>0</v>
       </c>
       <c r="D224" t="s">
-        <v>874</v>
+        <v>903</v>
       </c>
       <c r="E224" t="s">
-        <v>861</v>
+        <v>896</v>
       </c>
       <c r="F224" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="G224" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="H224" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
       <c r="I224" t="s">
         <v>35</v>
       </c>
       <c r="J224">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="K224">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L224">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="M224">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N224" t="s">
         <v>42</v>
       </c>
       <c r="O224" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P224" t="b">
         <v>1</v>
       </c>
       <c r="Q224" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="R224" t="b">
         <v>0</v>
@@ -17416,40 +17536,37 @@
         <v>2</v>
       </c>
       <c r="B225" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="C225" t="b">
         <v>0</v>
       </c>
       <c r="D225" t="s">
-        <v>874</v>
+        <v>903</v>
       </c>
       <c r="E225" t="s">
-        <v>862</v>
+        <v>898</v>
       </c>
       <c r="F225" t="s">
-        <v>896</v>
-      </c>
-      <c r="G225" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="H225" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
       <c r="I225" t="s">
         <v>35</v>
       </c>
       <c r="J225">
-        <v>-4</v>
+        <v>0.7</v>
       </c>
       <c r="K225">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="L225">
-        <v>-5</v>
+        <v>0.5</v>
       </c>
       <c r="M225">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N225" t="s">
         <v>42</v>
@@ -17478,52 +17595,49 @@
         <v>3</v>
       </c>
       <c r="B226" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="C226" t="b">
         <v>0</v>
       </c>
       <c r="D226" t="s">
-        <v>874</v>
+        <v>903</v>
       </c>
       <c r="E226" t="s">
-        <v>863</v>
+        <v>904</v>
       </c>
       <c r="F226" t="s">
-        <v>897</v>
-      </c>
-      <c r="G226" t="s">
-        <v>907</v>
+        <v>964</v>
       </c>
       <c r="H226" t="s">
-        <v>881</v>
+        <v>905</v>
       </c>
       <c r="I226" t="s">
         <v>35</v>
       </c>
       <c r="J226">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="K226">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="L226">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="M226">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="N226" t="s">
         <v>42</v>
       </c>
       <c r="O226" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P226" t="b">
         <v>1</v>
       </c>
       <c r="Q226" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="R226" t="b">
         <v>0</v>
@@ -17532,7 +17646,7 @@
         <v>1</v>
       </c>
       <c r="T226" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.2">
@@ -17540,61 +17654,58 @@
         <v>4</v>
       </c>
       <c r="B227" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="C227" t="b">
         <v>0</v>
       </c>
       <c r="D227" t="s">
-        <v>874</v>
+        <v>903</v>
       </c>
       <c r="E227" t="s">
-        <v>864</v>
+        <v>907</v>
       </c>
       <c r="F227" t="s">
-        <v>898</v>
-      </c>
-      <c r="G227" t="s">
-        <v>907</v>
+        <v>963</v>
       </c>
       <c r="H227" t="s">
-        <v>882</v>
+        <v>906</v>
       </c>
       <c r="I227" t="s">
         <v>35</v>
       </c>
       <c r="J227">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="K227">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="L227">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="M227">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="N227" t="s">
         <v>42</v>
       </c>
       <c r="O227" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P227" t="b">
         <v>1</v>
       </c>
       <c r="Q227" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="R227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S227" t="b">
         <v>1</v>
       </c>
       <c r="T227" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.2">
@@ -17602,40 +17713,40 @@
         <v>5</v>
       </c>
       <c r="B228" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="C228" t="b">
         <v>0</v>
       </c>
       <c r="D228" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="E228" t="s">
-        <v>865</v>
+        <v>908</v>
       </c>
       <c r="F228" t="s">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="G228" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H228" t="s">
-        <v>883</v>
+        <v>920</v>
       </c>
       <c r="I228" t="s">
         <v>35</v>
       </c>
       <c r="J228">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="K228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L228">
-        <v>-5</v>
+        <v>-3.1</v>
       </c>
       <c r="M228">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N228" t="s">
         <v>42</v>
@@ -17664,40 +17775,40 @@
         <v>6</v>
       </c>
       <c r="B229" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="C229" t="b">
         <v>0</v>
       </c>
       <c r="D229" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="E229" t="s">
-        <v>866</v>
+        <v>909</v>
       </c>
       <c r="F229" t="s">
-        <v>900</v>
+        <v>879</v>
       </c>
       <c r="G229" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H229" t="s">
-        <v>884</v>
+        <v>921</v>
       </c>
       <c r="I229" t="s">
         <v>35</v>
       </c>
       <c r="J229">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="K229">
         <v>3</v>
       </c>
       <c r="L229">
-        <v>-5</v>
+        <v>-3.1</v>
       </c>
       <c r="M229">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N229" t="s">
         <v>42</v>
@@ -17726,40 +17837,40 @@
         <v>7</v>
       </c>
       <c r="B230" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="C230" t="b">
         <v>0</v>
       </c>
       <c r="D230" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="E230" t="s">
-        <v>867</v>
+        <v>910</v>
       </c>
       <c r="F230" t="s">
-        <v>901</v>
+        <v>880</v>
       </c>
       <c r="G230" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H230" t="s">
-        <v>885</v>
+        <v>922</v>
       </c>
       <c r="I230" t="s">
         <v>35</v>
       </c>
       <c r="J230">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="K230">
         <v>3</v>
       </c>
       <c r="L230">
-        <v>-5</v>
+        <v>-3.1</v>
       </c>
       <c r="M230">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N230" t="s">
         <v>42</v>
@@ -17788,40 +17899,40 @@
         <v>8</v>
       </c>
       <c r="B231" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="C231" t="b">
         <v>0</v>
       </c>
       <c r="D231" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="E231" t="s">
-        <v>868</v>
+        <v>911</v>
       </c>
       <c r="F231" t="s">
-        <v>902</v>
+        <v>881</v>
       </c>
       <c r="G231" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H231" t="s">
-        <v>886</v>
+        <v>923</v>
       </c>
       <c r="I231" t="s">
         <v>35</v>
       </c>
       <c r="J231">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="K231">
         <v>3</v>
       </c>
       <c r="L231">
-        <v>-5</v>
+        <v>-3.1</v>
       </c>
       <c r="M231">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N231" t="s">
         <v>42</v>
@@ -17836,7 +17947,7 @@
         <v>37</v>
       </c>
       <c r="R231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S231" t="b">
         <v>1</v>
@@ -17850,40 +17961,40 @@
         <v>9</v>
       </c>
       <c r="B232" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="C232" t="b">
         <v>0</v>
       </c>
       <c r="D232" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="E232" t="s">
-        <v>869</v>
+        <v>912</v>
       </c>
       <c r="F232" t="s">
-        <v>903</v>
+        <v>882</v>
       </c>
       <c r="G232" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H232" t="s">
-        <v>887</v>
+        <v>924</v>
       </c>
       <c r="I232" t="s">
         <v>35</v>
       </c>
       <c r="J232">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="K232">
         <v>3</v>
       </c>
       <c r="L232">
-        <v>-5</v>
+        <v>-3.1</v>
       </c>
       <c r="M232">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N232" t="s">
         <v>42</v>
@@ -17912,40 +18023,40 @@
         <v>10</v>
       </c>
       <c r="B233" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="C233" t="b">
         <v>0</v>
       </c>
       <c r="D233" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="E233" t="s">
-        <v>870</v>
+        <v>913</v>
       </c>
       <c r="F233" t="s">
-        <v>904</v>
+        <v>883</v>
       </c>
       <c r="G233" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H233" t="s">
-        <v>888</v>
+        <v>925</v>
       </c>
       <c r="I233" t="s">
         <v>35</v>
       </c>
       <c r="J233">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="K233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L233">
-        <v>-5</v>
+        <v>-3.1</v>
       </c>
       <c r="M233">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N233" t="s">
         <v>42</v>
@@ -17974,40 +18085,40 @@
         <v>11</v>
       </c>
       <c r="B234" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="C234" t="b">
         <v>0</v>
       </c>
       <c r="D234" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="E234" t="s">
-        <v>871</v>
+        <v>914</v>
       </c>
       <c r="F234" t="s">
-        <v>905</v>
+        <v>884</v>
       </c>
       <c r="G234" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H234" t="s">
-        <v>889</v>
+        <v>926</v>
       </c>
       <c r="I234" t="s">
         <v>35</v>
       </c>
       <c r="J234">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="K234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L234">
-        <v>-5</v>
+        <v>-3.1</v>
       </c>
       <c r="M234">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N234" t="s">
         <v>42</v>
@@ -18036,40 +18147,40 @@
         <v>12</v>
       </c>
       <c r="B235" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="C235" t="b">
         <v>0</v>
       </c>
       <c r="D235" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="E235" t="s">
-        <v>872</v>
+        <v>915</v>
       </c>
       <c r="F235" t="s">
-        <v>906</v>
+        <v>885</v>
       </c>
       <c r="G235" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H235" t="s">
-        <v>890</v>
+        <v>927</v>
       </c>
       <c r="I235" t="s">
         <v>35</v>
       </c>
       <c r="J235">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="K235">
         <v>3</v>
       </c>
       <c r="L235">
-        <v>-5</v>
+        <v>-3.1</v>
       </c>
       <c r="M235">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N235" t="s">
         <v>42</v>
@@ -18098,40 +18209,40 @@
         <v>13</v>
       </c>
       <c r="B236" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="C236" t="b">
         <v>0</v>
       </c>
       <c r="D236" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="E236" t="s">
-        <v>857</v>
+        <v>916</v>
       </c>
       <c r="F236" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="G236" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H236" t="s">
-        <v>875</v>
+        <v>928</v>
       </c>
       <c r="I236" t="s">
         <v>35</v>
       </c>
       <c r="J236">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="K236">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="L236">
-        <v>-1.5</v>
+        <v>-3.1</v>
       </c>
       <c r="M236">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="N236" t="s">
         <v>42</v>
@@ -18160,40 +18271,40 @@
         <v>14</v>
       </c>
       <c r="B237" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="C237" t="b">
         <v>0</v>
       </c>
       <c r="D237" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="E237" t="s">
-        <v>858</v>
+        <v>917</v>
       </c>
       <c r="F237" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="G237" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H237" t="s">
-        <v>876</v>
+        <v>929</v>
       </c>
       <c r="I237" t="s">
         <v>35</v>
       </c>
       <c r="J237">
-        <v>-1.2</v>
+        <v>-3</v>
       </c>
       <c r="K237">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="L237">
-        <v>-1.5</v>
+        <v>-3.1</v>
       </c>
       <c r="M237">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="N237" t="s">
         <v>42</v>
@@ -18222,40 +18333,40 @@
         <v>15</v>
       </c>
       <c r="B238" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="C238" t="b">
         <v>0</v>
       </c>
       <c r="D238" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="E238" t="s">
-        <v>859</v>
+        <v>918</v>
       </c>
       <c r="F238" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="G238" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H238" t="s">
-        <v>877</v>
+        <v>930</v>
       </c>
       <c r="I238" t="s">
         <v>35</v>
       </c>
       <c r="J238">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="K238">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="L238">
-        <v>-1.5</v>
+        <v>-3.1</v>
       </c>
       <c r="M238">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="N238" t="s">
         <v>42</v>
@@ -18284,40 +18395,40 @@
         <v>16</v>
       </c>
       <c r="B239" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="C239" t="b">
         <v>0</v>
       </c>
       <c r="D239" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="E239" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="F239" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="G239" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H239" t="s">
-        <v>878</v>
+        <v>931</v>
       </c>
       <c r="I239" t="s">
         <v>35</v>
       </c>
       <c r="J239">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K239">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="L239">
-        <v>-1.5</v>
+        <v>-3.1</v>
       </c>
       <c r="M239">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="N239" t="s">
         <v>42</v>
@@ -18343,55 +18454,55 @@
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B240" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="C240" t="b">
         <v>0</v>
       </c>
       <c r="D240" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="E240" t="s">
-        <v>913</v>
+        <v>951</v>
       </c>
       <c r="F240" t="s">
-        <v>917</v>
+        <v>934</v>
       </c>
       <c r="G240" t="s">
-        <v>918</v>
+        <v>890</v>
       </c>
       <c r="H240" t="s">
-        <v>914</v>
+        <v>866</v>
       </c>
       <c r="I240" t="s">
         <v>35</v>
       </c>
       <c r="J240">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="K240">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L240">
-        <v>1</v>
+        <v>-3.1</v>
       </c>
       <c r="M240">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="N240" t="s">
         <v>42</v>
       </c>
       <c r="O240" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P240" t="b">
         <v>1</v>
       </c>
       <c r="Q240" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R240" t="b">
         <v>0</v>
@@ -18405,40 +18516,43 @@
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B241" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="C241" t="b">
         <v>0</v>
       </c>
       <c r="D241" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="E241" t="s">
-        <v>915</v>
+        <v>950</v>
       </c>
       <c r="F241" t="s">
-        <v>919</v>
+        <v>935</v>
+      </c>
+      <c r="G241" t="s">
+        <v>890</v>
       </c>
       <c r="H241" t="s">
-        <v>916</v>
+        <v>867</v>
       </c>
       <c r="I241" t="s">
         <v>35</v>
       </c>
       <c r="J241">
-        <v>0.7</v>
+        <v>-2</v>
       </c>
       <c r="K241">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="L241">
-        <v>0.5</v>
+        <v>-3.1</v>
       </c>
       <c r="M241">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="N241" t="s">
         <v>42</v>
@@ -18464,52 +18578,55 @@
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242">
+        <v>19</v>
+      </c>
+      <c r="B242" t="s">
+        <v>893</v>
+      </c>
+      <c r="C242" t="b">
+        <v>0</v>
+      </c>
+      <c r="D242" t="s">
+        <v>932</v>
+      </c>
+      <c r="E242" t="s">
+        <v>952</v>
+      </c>
+      <c r="F242" t="s">
+        <v>936</v>
+      </c>
+      <c r="G242" t="s">
+        <v>890</v>
+      </c>
+      <c r="H242" t="s">
+        <v>868</v>
+      </c>
+      <c r="I242" t="s">
+        <v>35</v>
+      </c>
+      <c r="J242">
+        <v>-2</v>
+      </c>
+      <c r="K242">
         <v>3</v>
       </c>
-      <c r="B242" t="s">
-        <v>910</v>
-      </c>
-      <c r="C242" t="b">
-        <v>0</v>
-      </c>
-      <c r="D242" t="s">
-        <v>920</v>
-      </c>
-      <c r="E242" t="s">
-        <v>921</v>
-      </c>
-      <c r="F242" t="s">
-        <v>981</v>
-      </c>
-      <c r="H242" t="s">
-        <v>922</v>
-      </c>
-      <c r="I242" t="s">
-        <v>35</v>
-      </c>
-      <c r="J242">
-        <v>10</v>
-      </c>
-      <c r="K242">
-        <v>60</v>
-      </c>
       <c r="L242">
-        <v>0</v>
+        <v>-3.1</v>
       </c>
       <c r="M242">
-        <v>61</v>
+        <v>3.1</v>
       </c>
       <c r="N242" t="s">
         <v>42</v>
       </c>
       <c r="O242" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P242" t="b">
         <v>1</v>
       </c>
       <c r="Q242" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R242" t="b">
         <v>0</v>
@@ -18518,57 +18635,60 @@
         <v>1</v>
       </c>
       <c r="T242" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B243" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="C243" t="b">
         <v>0</v>
       </c>
       <c r="D243" t="s">
-        <v>920</v>
+        <v>932</v>
       </c>
       <c r="E243" t="s">
-        <v>924</v>
+        <v>953</v>
       </c>
       <c r="F243" t="s">
-        <v>980</v>
+        <v>937</v>
+      </c>
+      <c r="G243" t="s">
+        <v>890</v>
       </c>
       <c r="H243" t="s">
-        <v>923</v>
+        <v>869</v>
       </c>
       <c r="I243" t="s">
         <v>35</v>
       </c>
       <c r="J243">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="K243">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="L243">
-        <v>0</v>
+        <v>-3.1</v>
       </c>
       <c r="M243">
-        <v>61</v>
+        <v>3.1</v>
       </c>
       <c r="N243" t="s">
         <v>42</v>
       </c>
       <c r="O243" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P243" t="b">
         <v>1</v>
       </c>
       <c r="Q243" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R243" t="b">
         <v>0</v>
@@ -18577,42 +18697,42 @@
         <v>1</v>
       </c>
       <c r="T243" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B244" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="C244" t="b">
         <v>0</v>
       </c>
       <c r="D244" t="s">
-        <v>874</v>
+        <v>932</v>
       </c>
       <c r="E244" t="s">
-        <v>925</v>
+        <v>954</v>
       </c>
       <c r="F244" t="s">
-        <v>895</v>
+        <v>938</v>
       </c>
       <c r="G244" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H244" t="s">
-        <v>937</v>
+        <v>870</v>
       </c>
       <c r="I244" t="s">
         <v>35</v>
       </c>
       <c r="J244">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K244">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L244">
         <v>-3.1</v>
@@ -18644,37 +18764,37 @@
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B245" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="C245" t="b">
         <v>0</v>
       </c>
       <c r="D245" t="s">
-        <v>874</v>
+        <v>932</v>
       </c>
       <c r="E245" t="s">
-        <v>926</v>
+        <v>955</v>
       </c>
       <c r="F245" t="s">
-        <v>896</v>
+        <v>939</v>
       </c>
       <c r="G245" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H245" t="s">
-        <v>938</v>
+        <v>871</v>
       </c>
       <c r="I245" t="s">
         <v>35</v>
       </c>
       <c r="J245">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L245">
         <v>-3.1</v>
@@ -18706,28 +18826,28 @@
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B246" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="C246" t="b">
         <v>0</v>
       </c>
       <c r="D246" t="s">
-        <v>874</v>
+        <v>932</v>
       </c>
       <c r="E246" t="s">
-        <v>927</v>
+        <v>956</v>
       </c>
       <c r="F246" t="s">
-        <v>897</v>
+        <v>940</v>
       </c>
       <c r="G246" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H246" t="s">
-        <v>939</v>
+        <v>872</v>
       </c>
       <c r="I246" t="s">
         <v>35</v>
@@ -18768,34 +18888,34 @@
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B247" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="C247" t="b">
         <v>0</v>
       </c>
       <c r="D247" t="s">
-        <v>874</v>
+        <v>932</v>
       </c>
       <c r="E247" t="s">
-        <v>928</v>
+        <v>957</v>
       </c>
       <c r="F247" t="s">
-        <v>898</v>
+        <v>941</v>
       </c>
       <c r="G247" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H247" t="s">
-        <v>940</v>
+        <v>873</v>
       </c>
       <c r="I247" t="s">
         <v>35</v>
       </c>
       <c r="J247">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="K247">
         <v>3</v>
@@ -18819,7 +18939,7 @@
         <v>37</v>
       </c>
       <c r="R247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S247" t="b">
         <v>1</v>
@@ -18830,34 +18950,34 @@
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B248" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="C248" t="b">
         <v>0</v>
       </c>
       <c r="D248" t="s">
+        <v>932</v>
+      </c>
+      <c r="E248" t="s">
+        <v>958</v>
+      </c>
+      <c r="F248" t="s">
+        <v>942</v>
+      </c>
+      <c r="G248" t="s">
+        <v>890</v>
+      </c>
+      <c r="H248" t="s">
         <v>874</v>
       </c>
-      <c r="E248" t="s">
-        <v>929</v>
-      </c>
-      <c r="F248" t="s">
-        <v>899</v>
-      </c>
-      <c r="G248" t="s">
-        <v>907</v>
-      </c>
-      <c r="H248" t="s">
-        <v>941</v>
-      </c>
       <c r="I248" t="s">
         <v>35</v>
       </c>
       <c r="J248">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="K248">
         <v>3</v>
@@ -18892,37 +19012,37 @@
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B249" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="C249" t="b">
         <v>0</v>
       </c>
       <c r="D249" t="s">
-        <v>874</v>
+        <v>932</v>
       </c>
       <c r="E249" t="s">
-        <v>930</v>
+        <v>959</v>
       </c>
       <c r="F249" t="s">
-        <v>900</v>
+        <v>943</v>
       </c>
       <c r="G249" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H249" t="s">
-        <v>942</v>
+        <v>875</v>
       </c>
       <c r="I249" t="s">
         <v>35</v>
       </c>
       <c r="J249">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L249">
         <v>-3.1</v>
@@ -18954,37 +19074,37 @@
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B250" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="C250" t="b">
         <v>0</v>
       </c>
       <c r="D250" t="s">
-        <v>874</v>
+        <v>932</v>
       </c>
       <c r="E250" t="s">
-        <v>931</v>
+        <v>960</v>
       </c>
       <c r="F250" t="s">
-        <v>901</v>
+        <v>944</v>
       </c>
       <c r="G250" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H250" t="s">
-        <v>943</v>
+        <v>876</v>
       </c>
       <c r="I250" t="s">
         <v>35</v>
       </c>
       <c r="J250">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K250">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L250">
         <v>-3.1</v>
@@ -19016,28 +19136,28 @@
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B251" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="C251" t="b">
         <v>0</v>
       </c>
       <c r="D251" t="s">
-        <v>874</v>
+        <v>932</v>
       </c>
       <c r="E251" t="s">
-        <v>932</v>
+        <v>961</v>
       </c>
       <c r="F251" t="s">
-        <v>902</v>
+        <v>945</v>
       </c>
       <c r="G251" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H251" t="s">
-        <v>944</v>
+        <v>877</v>
       </c>
       <c r="I251" t="s">
         <v>35</v>
@@ -19078,43 +19198,43 @@
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B252" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="C252" t="b">
         <v>0</v>
       </c>
       <c r="D252" t="s">
-        <v>874</v>
+        <v>933</v>
       </c>
       <c r="E252" t="s">
-        <v>933</v>
+        <v>856</v>
       </c>
       <c r="F252" t="s">
-        <v>903</v>
+        <v>946</v>
       </c>
       <c r="G252" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H252" t="s">
-        <v>945</v>
+        <v>862</v>
       </c>
       <c r="I252" t="s">
         <v>35</v>
       </c>
       <c r="J252">
-        <v>-2</v>
+        <v>-1.2</v>
       </c>
       <c r="K252">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="L252">
-        <v>-3.1</v>
+        <v>-1.5</v>
       </c>
       <c r="M252">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="N252" t="s">
         <v>42</v>
@@ -19140,43 +19260,43 @@
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B253" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="C253" t="b">
         <v>0</v>
       </c>
       <c r="D253" t="s">
-        <v>874</v>
+        <v>933</v>
       </c>
       <c r="E253" t="s">
-        <v>934</v>
+        <v>857</v>
       </c>
       <c r="F253" t="s">
-        <v>904</v>
+        <v>947</v>
       </c>
       <c r="G253" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H253" t="s">
-        <v>946</v>
+        <v>863</v>
       </c>
       <c r="I253" t="s">
         <v>35</v>
       </c>
       <c r="J253">
-        <v>-3</v>
+        <v>-1.2</v>
       </c>
       <c r="K253">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="L253">
-        <v>-3.1</v>
+        <v>-1.5</v>
       </c>
       <c r="M253">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="N253" t="s">
         <v>42</v>
@@ -19202,43 +19322,43 @@
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B254" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="C254" t="b">
         <v>0</v>
       </c>
       <c r="D254" t="s">
-        <v>874</v>
+        <v>933</v>
       </c>
       <c r="E254" t="s">
-        <v>935</v>
+        <v>858</v>
       </c>
       <c r="F254" t="s">
-        <v>905</v>
+        <v>948</v>
       </c>
       <c r="G254" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H254" t="s">
-        <v>947</v>
+        <v>864</v>
       </c>
       <c r="I254" t="s">
         <v>35</v>
       </c>
       <c r="J254">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="K254">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="L254">
-        <v>-3.1</v>
+        <v>-1.5</v>
       </c>
       <c r="M254">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="N254" t="s">
         <v>42</v>
@@ -19264,55 +19384,55 @@
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B255" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="C255" t="b">
         <v>0</v>
       </c>
       <c r="D255" t="s">
-        <v>874</v>
+        <v>933</v>
       </c>
       <c r="E255" t="s">
-        <v>936</v>
+        <v>859</v>
       </c>
       <c r="F255" t="s">
-        <v>906</v>
+        <v>949</v>
       </c>
       <c r="G255" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="H255" t="s">
-        <v>948</v>
+        <v>865</v>
       </c>
       <c r="I255" t="s">
         <v>35</v>
       </c>
       <c r="J255">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K255">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="L255">
-        <v>-3.1</v>
+        <v>-1.5</v>
       </c>
       <c r="M255">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="N255" t="s">
         <v>42</v>
       </c>
       <c r="O255" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P255" t="b">
         <v>1</v>
       </c>
       <c r="Q255" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="R255" t="b">
         <v>0</v>
@@ -19321,48 +19441,45 @@
         <v>1</v>
       </c>
       <c r="T255" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B256" t="s">
-        <v>910</v>
+        <v>1007</v>
       </c>
       <c r="C256" t="b">
         <v>0</v>
       </c>
       <c r="D256" t="s">
-        <v>949</v>
+        <v>979</v>
       </c>
       <c r="E256" t="s">
+        <v>966</v>
+      </c>
+      <c r="F256" t="s">
+        <v>967</v>
+      </c>
+      <c r="H256" t="s">
         <v>968</v>
       </c>
-      <c r="F256" t="s">
-        <v>951</v>
-      </c>
-      <c r="G256" t="s">
-        <v>907</v>
-      </c>
-      <c r="H256" t="s">
-        <v>879</v>
-      </c>
       <c r="I256" t="s">
         <v>35</v>
       </c>
       <c r="J256">
-        <v>-2</v>
+        <v>6.23</v>
       </c>
       <c r="K256">
-        <v>3</v>
+        <v>87.69</v>
       </c>
       <c r="L256">
-        <v>-3.1</v>
+        <v>0</v>
       </c>
       <c r="M256">
-        <v>3.1</v>
+        <v>100</v>
       </c>
       <c r="N256" t="s">
         <v>42</v>
@@ -19377,7 +19494,7 @@
         <v>37</v>
       </c>
       <c r="R256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S256" t="b">
         <v>1</v>
@@ -19388,43 +19505,43 @@
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B257" t="s">
-        <v>910</v>
+        <v>1007</v>
       </c>
       <c r="C257" t="b">
         <v>0</v>
       </c>
       <c r="D257" t="s">
-        <v>949</v>
+        <v>980</v>
       </c>
       <c r="E257" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="F257" t="s">
-        <v>952</v>
+        <v>971</v>
       </c>
       <c r="G257" t="s">
-        <v>907</v>
+        <v>1005</v>
       </c>
       <c r="H257" t="s">
-        <v>880</v>
+        <v>974</v>
       </c>
       <c r="I257" t="s">
         <v>35</v>
       </c>
       <c r="J257">
-        <v>-2</v>
+        <v>2.6669999999999998</v>
       </c>
       <c r="K257">
-        <v>3</v>
+        <v>20.727</v>
       </c>
       <c r="L257">
-        <v>-3.1</v>
+        <v>0</v>
       </c>
       <c r="M257">
-        <v>3.1</v>
+        <v>20</v>
       </c>
       <c r="N257" t="s">
         <v>42</v>
@@ -19439,7 +19556,7 @@
         <v>37</v>
       </c>
       <c r="R257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S257" t="b">
         <v>1</v>
@@ -19450,43 +19567,43 @@
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B258" t="s">
-        <v>910</v>
+        <v>1007</v>
       </c>
       <c r="C258" t="b">
         <v>0</v>
       </c>
       <c r="D258" t="s">
-        <v>949</v>
+        <v>980</v>
       </c>
       <c r="E258" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="F258" t="s">
-        <v>953</v>
+        <v>972</v>
       </c>
       <c r="G258" t="s">
-        <v>907</v>
+        <v>40</v>
       </c>
       <c r="H258" t="s">
-        <v>881</v>
+        <v>973</v>
       </c>
       <c r="I258" t="s">
         <v>35</v>
       </c>
       <c r="J258">
-        <v>-2</v>
+        <v>28.414000000000001</v>
       </c>
       <c r="K258">
-        <v>3</v>
+        <v>227.76</v>
       </c>
       <c r="L258">
-        <v>-3.1</v>
+        <v>0</v>
       </c>
       <c r="M258">
-        <v>3.1</v>
+        <v>250</v>
       </c>
       <c r="N258" t="s">
         <v>42</v>
@@ -19501,7 +19618,7 @@
         <v>37</v>
       </c>
       <c r="R258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S258" t="b">
         <v>1</v>
@@ -19512,43 +19629,43 @@
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B259" t="s">
-        <v>910</v>
+        <v>1007</v>
       </c>
       <c r="C259" t="b">
         <v>0</v>
       </c>
       <c r="D259" t="s">
-        <v>949</v>
+        <v>980</v>
       </c>
       <c r="E259" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="F259" t="s">
-        <v>954</v>
+        <v>976</v>
       </c>
       <c r="G259" t="s">
-        <v>907</v>
+        <v>977</v>
       </c>
       <c r="H259" t="s">
-        <v>882</v>
+        <v>978</v>
       </c>
       <c r="I259" t="s">
         <v>35</v>
       </c>
       <c r="J259">
-        <v>-3</v>
+        <v>3.0059999999999998</v>
       </c>
       <c r="K259">
-        <v>2</v>
+        <v>64.224999999999994</v>
       </c>
       <c r="L259">
-        <v>-3.1</v>
+        <v>0</v>
       </c>
       <c r="M259">
-        <v>3.1</v>
+        <v>70</v>
       </c>
       <c r="N259" t="s">
         <v>42</v>
@@ -19563,7 +19680,7 @@
         <v>37</v>
       </c>
       <c r="R259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S259" t="b">
         <v>1</v>
@@ -19574,43 +19691,40 @@
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B260" t="s">
-        <v>910</v>
+        <v>1008</v>
       </c>
       <c r="C260" t="b">
         <v>0</v>
       </c>
       <c r="D260" t="s">
-        <v>949</v>
+        <v>979</v>
       </c>
       <c r="E260" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="F260" t="s">
-        <v>955</v>
-      </c>
-      <c r="G260" t="s">
-        <v>907</v>
+        <v>967</v>
       </c>
       <c r="H260" t="s">
-        <v>883</v>
+        <v>968</v>
       </c>
       <c r="I260" t="s">
         <v>35</v>
       </c>
       <c r="J260">
-        <v>-3</v>
+        <v>27.65</v>
       </c>
       <c r="K260">
-        <v>2</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="L260">
-        <v>-3.1</v>
+        <v>0</v>
       </c>
       <c r="M260">
-        <v>3.1</v>
+        <v>80</v>
       </c>
       <c r="N260" t="s">
         <v>42</v>
@@ -19625,7 +19739,7 @@
         <v>37</v>
       </c>
       <c r="R260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S260" t="b">
         <v>1</v>
@@ -19636,43 +19750,43 @@
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="B261" t="s">
-        <v>910</v>
+        <v>1008</v>
       </c>
       <c r="C261" t="b">
         <v>0</v>
       </c>
       <c r="D261" t="s">
-        <v>949</v>
+        <v>980</v>
       </c>
       <c r="E261" t="s">
-        <v>972</v>
+        <v>981</v>
       </c>
       <c r="F261" t="s">
-        <v>956</v>
+        <v>982</v>
       </c>
       <c r="G261" t="s">
-        <v>907</v>
+        <v>1006</v>
       </c>
       <c r="H261" t="s">
-        <v>884</v>
+        <v>983</v>
       </c>
       <c r="I261" t="s">
         <v>35</v>
       </c>
       <c r="J261">
-        <v>-3</v>
+        <v>42.904000000000003</v>
       </c>
       <c r="K261">
-        <v>2</v>
+        <v>76.974000000000004</v>
       </c>
       <c r="L261">
-        <v>-3.1</v>
+        <v>40</v>
       </c>
       <c r="M261">
-        <v>3.1</v>
+        <v>80</v>
       </c>
       <c r="N261" t="s">
         <v>42</v>
@@ -19687,7 +19801,7 @@
         <v>37</v>
       </c>
       <c r="R261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S261" t="b">
         <v>1</v>
@@ -19698,43 +19812,43 @@
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B262" t="s">
-        <v>910</v>
+        <v>1008</v>
       </c>
       <c r="C262" t="b">
         <v>0</v>
       </c>
       <c r="D262" t="s">
-        <v>949</v>
+        <v>980</v>
       </c>
       <c r="E262" t="s">
-        <v>973</v>
+        <v>984</v>
       </c>
       <c r="F262" t="s">
-        <v>957</v>
+        <v>985</v>
       </c>
       <c r="G262" t="s">
-        <v>907</v>
+        <v>1006</v>
       </c>
       <c r="H262" t="s">
-        <v>885</v>
+        <v>986</v>
       </c>
       <c r="I262" t="s">
         <v>35</v>
       </c>
       <c r="J262">
-        <v>-2</v>
+        <v>80.587999999999994</v>
       </c>
       <c r="K262">
-        <v>3</v>
+        <v>113.667</v>
       </c>
       <c r="L262">
-        <v>-3.1</v>
+        <v>80</v>
       </c>
       <c r="M262">
-        <v>3.1</v>
+        <v>120</v>
       </c>
       <c r="N262" t="s">
         <v>42</v>
@@ -19749,7 +19863,7 @@
         <v>37</v>
       </c>
       <c r="R262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S262" t="b">
         <v>1</v>
@@ -19760,43 +19874,40 @@
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B263" t="s">
-        <v>910</v>
+        <v>1009</v>
       </c>
       <c r="C263" t="b">
         <v>0</v>
       </c>
       <c r="D263" t="s">
-        <v>949</v>
+        <v>979</v>
       </c>
       <c r="E263" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="F263" t="s">
-        <v>958</v>
-      </c>
-      <c r="G263" t="s">
-        <v>907</v>
+        <v>967</v>
       </c>
       <c r="H263" t="s">
-        <v>886</v>
+        <v>968</v>
       </c>
       <c r="I263" t="s">
         <v>35</v>
       </c>
       <c r="J263">
-        <v>-2</v>
+        <v>17.34</v>
       </c>
       <c r="K263">
-        <v>3</v>
+        <v>75.94</v>
       </c>
       <c r="L263">
-        <v>-3.1</v>
+        <v>0</v>
       </c>
       <c r="M263">
-        <v>3.1</v>
+        <v>100</v>
       </c>
       <c r="N263" t="s">
         <v>42</v>
@@ -19811,7 +19922,7 @@
         <v>37</v>
       </c>
       <c r="R263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S263" t="b">
         <v>1</v>
@@ -19822,43 +19933,40 @@
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A264">
+        <v>2</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C264" t="b">
+        <v>0</v>
+      </c>
+      <c r="D264" t="s">
+        <v>980</v>
+      </c>
+      <c r="E264" t="s">
+        <v>987</v>
+      </c>
+      <c r="F264" t="s">
+        <v>988</v>
+      </c>
+      <c r="H264" t="s">
+        <v>989</v>
+      </c>
+      <c r="I264" t="s">
+        <v>35</v>
+      </c>
+      <c r="J264">
+        <v>27.954999999999998</v>
+      </c>
+      <c r="K264">
+        <v>217.04</v>
+      </c>
+      <c r="L264">
         <v>25</v>
       </c>
-      <c r="B264" t="s">
-        <v>910</v>
-      </c>
-      <c r="C264" t="b">
-        <v>0</v>
-      </c>
-      <c r="D264" t="s">
-        <v>949</v>
-      </c>
-      <c r="E264" t="s">
-        <v>975</v>
-      </c>
-      <c r="F264" t="s">
-        <v>959</v>
-      </c>
-      <c r="G264" t="s">
-        <v>907</v>
-      </c>
-      <c r="H264" t="s">
-        <v>887</v>
-      </c>
-      <c r="I264" t="s">
-        <v>35</v>
-      </c>
-      <c r="J264">
-        <v>-2</v>
-      </c>
-      <c r="K264">
-        <v>3</v>
-      </c>
-      <c r="L264">
-        <v>-3.1</v>
-      </c>
       <c r="M264">
-        <v>3.1</v>
+        <v>225</v>
       </c>
       <c r="N264" t="s">
         <v>42</v>
@@ -19873,7 +19981,7 @@
         <v>37</v>
       </c>
       <c r="R264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S264" t="b">
         <v>1</v>
@@ -19884,43 +19992,40 @@
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B265" t="s">
-        <v>910</v>
+        <v>1010</v>
       </c>
       <c r="C265" t="b">
         <v>0</v>
       </c>
       <c r="D265" t="s">
-        <v>949</v>
+        <v>979</v>
       </c>
       <c r="E265" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="F265" t="s">
-        <v>960</v>
-      </c>
-      <c r="G265" t="s">
-        <v>907</v>
+        <v>967</v>
       </c>
       <c r="H265" t="s">
-        <v>888</v>
+        <v>968</v>
       </c>
       <c r="I265" t="s">
         <v>35</v>
       </c>
       <c r="J265">
-        <v>-3</v>
+        <v>1.81</v>
       </c>
       <c r="K265">
-        <v>2</v>
+        <v>93.21</v>
       </c>
       <c r="L265">
-        <v>-3.1</v>
+        <v>0</v>
       </c>
       <c r="M265">
-        <v>3.1</v>
+        <v>100</v>
       </c>
       <c r="N265" t="s">
         <v>42</v>
@@ -19935,7 +20040,7 @@
         <v>37</v>
       </c>
       <c r="R265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S265" t="b">
         <v>1</v>
@@ -19946,43 +20051,43 @@
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B266" t="s">
-        <v>910</v>
+        <v>1010</v>
       </c>
       <c r="C266" t="b">
         <v>0</v>
       </c>
       <c r="D266" t="s">
-        <v>949</v>
+        <v>980</v>
       </c>
       <c r="E266" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="F266" t="s">
-        <v>961</v>
+        <v>971</v>
       </c>
       <c r="G266" t="s">
-        <v>907</v>
+        <v>1005</v>
       </c>
       <c r="H266" t="s">
-        <v>889</v>
+        <v>974</v>
       </c>
       <c r="I266" t="s">
         <v>35</v>
       </c>
       <c r="J266">
-        <v>-3</v>
+        <v>3.7</v>
       </c>
       <c r="K266">
-        <v>2</v>
+        <v>22.75</v>
       </c>
       <c r="L266">
-        <v>-3.1</v>
+        <v>0</v>
       </c>
       <c r="M266">
-        <v>3.1</v>
+        <v>25</v>
       </c>
       <c r="N266" t="s">
         <v>42</v>
@@ -19997,7 +20102,7 @@
         <v>37</v>
       </c>
       <c r="R266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S266" t="b">
         <v>1</v>
@@ -20008,43 +20113,43 @@
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B267" t="s">
-        <v>910</v>
+        <v>1010</v>
       </c>
       <c r="C267" t="b">
         <v>0</v>
       </c>
       <c r="D267" t="s">
-        <v>949</v>
+        <v>980</v>
       </c>
       <c r="E267" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="F267" t="s">
-        <v>962</v>
+        <v>991</v>
       </c>
       <c r="G267" t="s">
-        <v>907</v>
+        <v>1019</v>
       </c>
       <c r="H267" t="s">
-        <v>890</v>
+        <v>992</v>
       </c>
       <c r="I267" t="s">
         <v>35</v>
       </c>
       <c r="J267">
-        <v>-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="K267">
-        <v>3</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="L267">
-        <v>-3.1</v>
+        <v>0.1</v>
       </c>
       <c r="M267">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="N267" t="s">
         <v>42</v>
@@ -20059,7 +20164,7 @@
         <v>37</v>
       </c>
       <c r="R267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S267" t="b">
         <v>1</v>
@@ -20070,43 +20175,43 @@
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B268" t="s">
-        <v>910</v>
+        <v>1010</v>
       </c>
       <c r="C268" t="b">
         <v>0</v>
       </c>
       <c r="D268" t="s">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="E268" t="s">
-        <v>857</v>
+        <v>984</v>
       </c>
       <c r="F268" t="s">
-        <v>963</v>
+        <v>985</v>
       </c>
       <c r="G268" t="s">
-        <v>907</v>
+        <v>1006</v>
       </c>
       <c r="H268" t="s">
-        <v>875</v>
+        <v>986</v>
       </c>
       <c r="I268" t="s">
         <v>35</v>
       </c>
       <c r="J268">
-        <v>-1.2</v>
+        <v>78.5</v>
       </c>
       <c r="K268">
-        <v>0.4</v>
+        <v>137.65</v>
       </c>
       <c r="L268">
-        <v>-1.5</v>
+        <v>75</v>
       </c>
       <c r="M268">
-        <v>0.5</v>
+        <v>150</v>
       </c>
       <c r="N268" t="s">
         <v>42</v>
@@ -20121,7 +20226,7 @@
         <v>37</v>
       </c>
       <c r="R268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S268" t="b">
         <v>1</v>
@@ -20132,43 +20237,43 @@
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A269">
+        <v>5</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C269" t="b">
+        <v>0</v>
+      </c>
+      <c r="D269" t="s">
+        <v>980</v>
+      </c>
+      <c r="E269" t="s">
+        <v>993</v>
+      </c>
+      <c r="F269" t="s">
+        <v>994</v>
+      </c>
+      <c r="G269" t="s">
+        <v>40</v>
+      </c>
+      <c r="H269" t="s">
+        <v>995</v>
+      </c>
+      <c r="I269" t="s">
+        <v>35</v>
+      </c>
+      <c r="J269">
+        <v>32.54</v>
+      </c>
+      <c r="K269">
+        <v>93.106999999999999</v>
+      </c>
+      <c r="L269">
         <v>30</v>
       </c>
-      <c r="B269" t="s">
-        <v>910</v>
-      </c>
-      <c r="C269" t="b">
-        <v>0</v>
-      </c>
-      <c r="D269" t="s">
-        <v>950</v>
-      </c>
-      <c r="E269" t="s">
-        <v>858</v>
-      </c>
-      <c r="F269" t="s">
-        <v>964</v>
-      </c>
-      <c r="G269" t="s">
-        <v>907</v>
-      </c>
-      <c r="H269" t="s">
-        <v>876</v>
-      </c>
-      <c r="I269" t="s">
-        <v>35</v>
-      </c>
-      <c r="J269">
-        <v>-1.2</v>
-      </c>
-      <c r="K269">
-        <v>0.4</v>
-      </c>
-      <c r="L269">
-        <v>-1.5</v>
-      </c>
       <c r="M269">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="N269" t="s">
         <v>42</v>
@@ -20183,7 +20288,7 @@
         <v>37</v>
       </c>
       <c r="R269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S269" t="b">
         <v>1</v>
@@ -20194,43 +20299,40 @@
     </row>
     <row r="270" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B270" t="s">
-        <v>910</v>
+        <v>1011</v>
       </c>
       <c r="C270" t="b">
         <v>0</v>
       </c>
       <c r="D270" t="s">
-        <v>950</v>
+        <v>979</v>
       </c>
       <c r="E270" t="s">
-        <v>859</v>
+        <v>966</v>
       </c>
       <c r="F270" t="s">
-        <v>965</v>
-      </c>
-      <c r="G270" t="s">
-        <v>907</v>
+        <v>967</v>
       </c>
       <c r="H270" t="s">
-        <v>877</v>
+        <v>968</v>
       </c>
       <c r="I270" t="s">
         <v>35</v>
       </c>
       <c r="J270">
-        <v>-1</v>
+        <v>11.27</v>
       </c>
       <c r="K270">
-        <v>0.4</v>
+        <v>94.57</v>
       </c>
       <c r="L270">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="M270">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="N270" t="s">
         <v>42</v>
@@ -20245,7 +20347,7 @@
         <v>37</v>
       </c>
       <c r="R270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S270" t="b">
         <v>1</v>
@@ -20256,114 +20358,117 @@
     </row>
     <row r="271" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B271" t="s">
-        <v>910</v>
+        <v>1011</v>
       </c>
       <c r="C271" t="b">
         <v>0</v>
       </c>
       <c r="D271" t="s">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="E271" t="s">
-        <v>860</v>
+        <v>969</v>
       </c>
       <c r="F271" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="G271" t="s">
-        <v>907</v>
+        <v>1005</v>
       </c>
       <c r="H271" t="s">
-        <v>878</v>
+        <v>974</v>
       </c>
       <c r="I271" t="s">
         <v>35</v>
       </c>
       <c r="J271">
-        <v>-1</v>
+        <v>3.35</v>
       </c>
       <c r="K271">
-        <v>0.4</v>
+        <v>13.95</v>
       </c>
       <c r="L271">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="M271">
-        <v>0.5</v>
+        <v>14</v>
       </c>
       <c r="N271" t="s">
         <v>42</v>
       </c>
       <c r="O271" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P271" t="b">
         <v>1</v>
       </c>
       <c r="Q271" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S271" t="b">
         <v>1</v>
       </c>
       <c r="T271" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="272" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B272" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="C272" t="b">
         <v>0</v>
       </c>
       <c r="D272" t="s">
+        <v>980</v>
+      </c>
+      <c r="E272" t="s">
         <v>996</v>
       </c>
-      <c r="E272" t="s">
-        <v>983</v>
-      </c>
       <c r="F272" t="s">
-        <v>984</v>
+        <v>997</v>
+      </c>
+      <c r="G272" t="s">
+        <v>819</v>
       </c>
       <c r="H272" t="s">
-        <v>985</v>
+        <v>998</v>
       </c>
       <c r="I272" t="s">
         <v>35</v>
       </c>
       <c r="J272">
-        <v>6.23</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="K272">
-        <v>87.69</v>
+        <v>1273.7439999999999</v>
       </c>
       <c r="L272">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M272">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="N272" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O272" t="s">
-        <v>37</v>
+        <v>331</v>
       </c>
       <c r="P272" t="b">
         <v>1</v>
       </c>
       <c r="Q272" t="s">
-        <v>37</v>
+        <v>312</v>
       </c>
       <c r="R272" t="b">
         <v>1</v>
@@ -20372,48 +20477,48 @@
         <v>1</v>
       </c>
       <c r="T272" t="s">
-        <v>37</v>
+        <v>312</v>
       </c>
     </row>
     <row r="273" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B273" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="C273" t="b">
         <v>0</v>
       </c>
       <c r="D273" t="s">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="E273" t="s">
+        <v>984</v>
+      </c>
+      <c r="F273" t="s">
+        <v>985</v>
+      </c>
+      <c r="G273" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H273" t="s">
         <v>986</v>
       </c>
-      <c r="F273" t="s">
-        <v>988</v>
-      </c>
-      <c r="G273" t="s">
-        <v>1022</v>
-      </c>
-      <c r="H273" t="s">
-        <v>991</v>
-      </c>
       <c r="I273" t="s">
         <v>35</v>
       </c>
       <c r="J273">
-        <v>2.6669999999999998</v>
+        <v>79.5</v>
       </c>
       <c r="K273">
-        <v>20.727</v>
+        <v>114.45</v>
       </c>
       <c r="L273">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="M273">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="N273" t="s">
         <v>42</v>
@@ -20439,43 +20544,43 @@
     </row>
     <row r="274" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B274" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="C274" t="b">
         <v>0</v>
       </c>
       <c r="D274" t="s">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="E274" t="s">
-        <v>987</v>
+        <v>999</v>
       </c>
       <c r="F274" t="s">
-        <v>989</v>
+        <v>1000</v>
       </c>
       <c r="G274" t="s">
         <v>40</v>
       </c>
       <c r="H274" t="s">
-        <v>990</v>
+        <v>1001</v>
       </c>
       <c r="I274" t="s">
         <v>35</v>
       </c>
       <c r="J274">
-        <v>28.414000000000001</v>
+        <v>5.5830000000000002</v>
       </c>
       <c r="K274">
-        <v>227.76</v>
+        <v>10.53</v>
       </c>
       <c r="L274">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M274">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="N274" t="s">
         <v>42</v>
@@ -20501,43 +20606,40 @@
     </row>
     <row r="275" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B275" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="C275" t="b">
         <v>0</v>
       </c>
       <c r="D275" t="s">
-        <v>997</v>
+        <v>979</v>
       </c>
       <c r="E275" t="s">
-        <v>992</v>
+        <v>966</v>
       </c>
       <c r="F275" t="s">
-        <v>993</v>
-      </c>
-      <c r="G275" t="s">
-        <v>994</v>
+        <v>967</v>
       </c>
       <c r="H275" t="s">
-        <v>995</v>
+        <v>968</v>
       </c>
       <c r="I275" t="s">
         <v>35</v>
       </c>
       <c r="J275">
-        <v>3.0059999999999998</v>
+        <v>14.87</v>
       </c>
       <c r="K275">
-        <v>64.224999999999994</v>
+        <v>103.91</v>
       </c>
       <c r="L275">
         <v>0</v>
       </c>
       <c r="M275">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N275" t="s">
         <v>42</v>
@@ -20563,52 +20665,55 @@
     </row>
     <row r="276" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B276" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="C276" t="b">
         <v>0</v>
       </c>
       <c r="D276" t="s">
-        <v>996</v>
+        <v>980</v>
       </c>
       <c r="E276" t="s">
-        <v>983</v>
+        <v>1002</v>
       </c>
       <c r="F276" t="s">
-        <v>984</v>
+        <v>1003</v>
+      </c>
+      <c r="G276" t="s">
+        <v>819</v>
       </c>
       <c r="H276" t="s">
-        <v>985</v>
+        <v>1004</v>
       </c>
       <c r="I276" t="s">
         <v>35</v>
       </c>
       <c r="J276">
-        <v>27.65</v>
+        <v>0.317</v>
       </c>
       <c r="K276">
-        <v>81.099999999999994</v>
+        <v>2779.8879999999999</v>
       </c>
       <c r="L276">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M276">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="N276" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O276" t="s">
-        <v>37</v>
+        <v>331</v>
       </c>
       <c r="P276" t="b">
         <v>1</v>
       </c>
       <c r="Q276" t="s">
-        <v>37</v>
+        <v>312</v>
       </c>
       <c r="R276" t="b">
         <v>1</v>
@@ -20617,48 +20722,45 @@
         <v>1</v>
       </c>
       <c r="T276" t="s">
-        <v>37</v>
+        <v>312</v>
       </c>
     </row>
     <row r="277" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B277" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="C277" t="b">
         <v>0</v>
       </c>
       <c r="D277" t="s">
-        <v>997</v>
+        <v>980</v>
       </c>
       <c r="E277" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="F277" t="s">
-        <v>999</v>
-      </c>
-      <c r="G277" t="s">
-        <v>1023</v>
+        <v>988</v>
       </c>
       <c r="H277" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="I277" t="s">
         <v>35</v>
       </c>
       <c r="J277">
-        <v>42.904000000000003</v>
+        <v>17.776</v>
       </c>
       <c r="K277">
-        <v>76.974000000000004</v>
+        <v>84.948999999999998</v>
       </c>
       <c r="L277">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M277">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N277" t="s">
         <v>42</v>
@@ -20684,43 +20786,43 @@
     </row>
     <row r="278" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A278">
+        <v>1</v>
+      </c>
+      <c r="B278" t="s">
+        <v>853</v>
+      </c>
+      <c r="C278" t="b">
+        <v>0</v>
+      </c>
+      <c r="D278" t="s">
+        <v>861</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F278" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G278" t="s">
+        <v>890</v>
+      </c>
+      <c r="H278" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I278" t="s">
+        <v>35</v>
+      </c>
+      <c r="J278">
+        <v>-6.63793188254051</v>
+      </c>
+      <c r="K278">
+        <v>2.5963465979137998</v>
+      </c>
+      <c r="L278">
+        <v>-5</v>
+      </c>
+      <c r="M278">
         <v>3</v>
-      </c>
-      <c r="B278" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C278" t="b">
-        <v>0</v>
-      </c>
-      <c r="D278" t="s">
-        <v>997</v>
-      </c>
-      <c r="E278" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F278" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G278" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H278" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I278" t="s">
-        <v>35</v>
-      </c>
-      <c r="J278">
-        <v>80.587999999999994</v>
-      </c>
-      <c r="K278">
-        <v>113.667</v>
-      </c>
-      <c r="L278">
-        <v>80</v>
-      </c>
-      <c r="M278">
-        <v>120</v>
       </c>
       <c r="N278" t="s">
         <v>42</v>
@@ -20735,7 +20837,7 @@
         <v>37</v>
       </c>
       <c r="R278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S278" t="b">
         <v>1</v>
@@ -20746,40 +20848,43 @@
     </row>
     <row r="279" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B279" t="s">
-        <v>1026</v>
+        <v>853</v>
       </c>
       <c r="C279" t="b">
         <v>0</v>
       </c>
       <c r="D279" t="s">
-        <v>996</v>
+        <v>861</v>
       </c>
       <c r="E279" t="s">
-        <v>983</v>
+        <v>1036</v>
       </c>
       <c r="F279" t="s">
-        <v>984</v>
+        <v>1048</v>
+      </c>
+      <c r="G279" t="s">
+        <v>890</v>
       </c>
       <c r="H279" t="s">
-        <v>985</v>
+        <v>1056</v>
       </c>
       <c r="I279" t="s">
         <v>35</v>
       </c>
       <c r="J279">
-        <v>17.34</v>
+        <v>-7.51438311197363</v>
       </c>
       <c r="K279">
-        <v>75.94</v>
+        <v>2.7090583233423602</v>
       </c>
       <c r="L279">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="M279">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="N279" t="s">
         <v>42</v>
@@ -20794,7 +20899,7 @@
         <v>37</v>
       </c>
       <c r="R279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S279" t="b">
         <v>1</v>
@@ -20805,40 +20910,43 @@
     </row>
     <row r="280" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B280" t="s">
-        <v>1026</v>
+        <v>853</v>
       </c>
       <c r="C280" t="b">
         <v>0</v>
       </c>
       <c r="D280" t="s">
-        <v>997</v>
+        <v>861</v>
       </c>
       <c r="E280" t="s">
-        <v>1004</v>
+        <v>1033</v>
       </c>
       <c r="F280" t="s">
-        <v>1005</v>
+        <v>1045</v>
+      </c>
+      <c r="G280" t="s">
+        <v>890</v>
       </c>
       <c r="H280" t="s">
-        <v>1006</v>
+        <v>1058</v>
       </c>
       <c r="I280" t="s">
         <v>35</v>
       </c>
       <c r="J280">
-        <v>27.954999999999998</v>
+        <v>-6.3738786703686303</v>
       </c>
       <c r="K280">
-        <v>217.04</v>
+        <v>2.75905089875272</v>
       </c>
       <c r="L280">
-        <v>25</v>
+        <v>-5</v>
       </c>
       <c r="M280">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="N280" t="s">
         <v>42</v>
@@ -20853,7 +20961,7 @@
         <v>37</v>
       </c>
       <c r="R280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S280" t="b">
         <v>1</v>
@@ -20864,40 +20972,43 @@
     </row>
     <row r="281" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B281" t="s">
-        <v>1027</v>
+        <v>853</v>
       </c>
       <c r="C281" t="b">
         <v>0</v>
       </c>
       <c r="D281" t="s">
-        <v>996</v>
+        <v>861</v>
       </c>
       <c r="E281" t="s">
-        <v>983</v>
+        <v>1034</v>
       </c>
       <c r="F281" t="s">
-        <v>984</v>
+        <v>1046</v>
+      </c>
+      <c r="G281" t="s">
+        <v>890</v>
       </c>
       <c r="H281" t="s">
-        <v>985</v>
+        <v>1060</v>
       </c>
       <c r="I281" t="s">
         <v>35</v>
       </c>
       <c r="J281">
-        <v>1.81</v>
+        <v>-6.95306047923407</v>
       </c>
       <c r="K281">
-        <v>93.21</v>
+        <v>2.8332024739422699</v>
       </c>
       <c r="L281">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="M281">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="N281" t="s">
         <v>42</v>
@@ -20912,7 +21023,7 @@
         <v>37</v>
       </c>
       <c r="R281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S281" t="b">
         <v>1</v>
@@ -20923,43 +21034,43 @@
     </row>
     <row r="282" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B282" t="s">
-        <v>1027</v>
+        <v>853</v>
       </c>
       <c r="C282" t="b">
         <v>0</v>
       </c>
       <c r="D282" t="s">
-        <v>997</v>
+        <v>861</v>
       </c>
       <c r="E282" t="s">
-        <v>986</v>
+        <v>1043</v>
       </c>
       <c r="F282" t="s">
-        <v>988</v>
+        <v>878</v>
       </c>
       <c r="G282" t="s">
-        <v>1022</v>
+        <v>890</v>
       </c>
       <c r="H282" t="s">
-        <v>991</v>
+        <v>1062</v>
       </c>
       <c r="I282" t="s">
         <v>35</v>
       </c>
       <c r="J282">
-        <v>3.7</v>
+        <v>-7.2874765926591198</v>
       </c>
       <c r="K282">
-        <v>22.75</v>
+        <v>2.6258644325978802</v>
       </c>
       <c r="L282">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="M282">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="N282" t="s">
         <v>42</v>
@@ -20974,7 +21085,7 @@
         <v>37</v>
       </c>
       <c r="R282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S282" t="b">
         <v>1</v>
@@ -20985,43 +21096,43 @@
     </row>
     <row r="283" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A283">
+        <v>6</v>
+      </c>
+      <c r="B283" t="s">
+        <v>853</v>
+      </c>
+      <c r="C283" t="b">
+        <v>0</v>
+      </c>
+      <c r="D283" t="s">
+        <v>861</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G283" t="s">
+        <v>890</v>
+      </c>
+      <c r="H283" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I283" t="s">
+        <v>35</v>
+      </c>
+      <c r="J283">
+        <v>-7.8031588450687002</v>
+      </c>
+      <c r="K283">
+        <v>2.7563857424649401</v>
+      </c>
+      <c r="L283">
+        <v>-5</v>
+      </c>
+      <c r="M283">
         <v>3</v>
-      </c>
-      <c r="B283" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C283" t="b">
-        <v>0</v>
-      </c>
-      <c r="D283" t="s">
-        <v>997</v>
-      </c>
-      <c r="E283" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F283" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G283" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H283" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I283" t="s">
-        <v>35</v>
-      </c>
-      <c r="J283">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="K283">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="L283">
-        <v>0.1</v>
-      </c>
-      <c r="M283">
-        <v>0.7</v>
       </c>
       <c r="N283" t="s">
         <v>42</v>
@@ -21036,7 +21147,7 @@
         <v>37</v>
       </c>
       <c r="R283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S283" t="b">
         <v>1</v>
@@ -21047,43 +21158,43 @@
     </row>
     <row r="284" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B284" t="s">
-        <v>1027</v>
+        <v>853</v>
       </c>
       <c r="C284" t="b">
         <v>0</v>
       </c>
       <c r="D284" t="s">
-        <v>997</v>
+        <v>861</v>
       </c>
       <c r="E284" t="s">
-        <v>1001</v>
+        <v>1041</v>
       </c>
       <c r="F284" t="s">
-        <v>1002</v>
+        <v>881</v>
       </c>
       <c r="G284" t="s">
-        <v>1023</v>
+        <v>890</v>
       </c>
       <c r="H284" t="s">
-        <v>1003</v>
+        <v>1066</v>
       </c>
       <c r="I284" t="s">
         <v>35</v>
       </c>
       <c r="J284">
-        <v>78.5</v>
+        <v>-7.9217025191746799</v>
       </c>
       <c r="K284">
-        <v>137.65</v>
+        <v>2.8596722310061802</v>
       </c>
       <c r="L284">
-        <v>75</v>
+        <v>-5</v>
       </c>
       <c r="M284">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="N284" t="s">
         <v>42</v>
@@ -21109,43 +21220,43 @@
     </row>
     <row r="285" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B285" t="s">
-        <v>1027</v>
+        <v>853</v>
       </c>
       <c r="C285" t="b">
         <v>0</v>
       </c>
       <c r="D285" t="s">
-        <v>997</v>
+        <v>861</v>
       </c>
       <c r="E285" t="s">
-        <v>1010</v>
+        <v>1042</v>
       </c>
       <c r="F285" t="s">
-        <v>1011</v>
+        <v>1051</v>
       </c>
       <c r="G285" t="s">
-        <v>40</v>
+        <v>890</v>
       </c>
       <c r="H285" t="s">
-        <v>1012</v>
+        <v>1068</v>
       </c>
       <c r="I285" t="s">
         <v>35</v>
       </c>
       <c r="J285">
-        <v>32.54</v>
+        <v>-6.4169754669307801</v>
       </c>
       <c r="K285">
-        <v>93.106999999999999</v>
+        <v>2.8885422101003999</v>
       </c>
       <c r="L285">
-        <v>30</v>
+        <v>-5</v>
       </c>
       <c r="M285">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="N285" t="s">
         <v>42</v>
@@ -21160,7 +21271,7 @@
         <v>37</v>
       </c>
       <c r="R285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S285" t="b">
         <v>1</v>
@@ -21171,40 +21282,43 @@
     </row>
     <row r="286" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B286" t="s">
-        <v>1028</v>
+        <v>853</v>
       </c>
       <c r="C286" t="b">
         <v>0</v>
       </c>
       <c r="D286" t="s">
-        <v>996</v>
+        <v>861</v>
       </c>
       <c r="E286" t="s">
-        <v>983</v>
+        <v>1039</v>
       </c>
       <c r="F286" t="s">
-        <v>984</v>
+        <v>1050</v>
+      </c>
+      <c r="G286" t="s">
+        <v>890</v>
       </c>
       <c r="H286" t="s">
-        <v>985</v>
+        <v>1070</v>
       </c>
       <c r="I286" t="s">
         <v>35</v>
       </c>
       <c r="J286">
-        <v>11.27</v>
+        <v>-7.2492545648995002</v>
       </c>
       <c r="K286">
-        <v>94.57</v>
+        <v>2.6410908680527898</v>
       </c>
       <c r="L286">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="M286">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="N286" t="s">
         <v>42</v>
@@ -21219,7 +21333,7 @@
         <v>37</v>
       </c>
       <c r="R286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S286" t="b">
         <v>1</v>
@@ -21230,43 +21344,43 @@
     </row>
     <row r="287" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B287" t="s">
-        <v>1028</v>
+        <v>853</v>
       </c>
       <c r="C287" t="b">
         <v>0</v>
       </c>
       <c r="D287" t="s">
-        <v>997</v>
+        <v>861</v>
       </c>
       <c r="E287" t="s">
-        <v>986</v>
+        <v>1040</v>
       </c>
       <c r="F287" t="s">
-        <v>988</v>
+        <v>884</v>
       </c>
       <c r="G287" t="s">
-        <v>1022</v>
+        <v>890</v>
       </c>
       <c r="H287" t="s">
-        <v>991</v>
+        <v>1072</v>
       </c>
       <c r="I287" t="s">
         <v>35</v>
       </c>
       <c r="J287">
-        <v>3.35</v>
+        <v>-7.8385147039088299</v>
       </c>
       <c r="K287">
-        <v>13.95</v>
+        <v>2.68226452589332</v>
       </c>
       <c r="L287">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="M287">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N287" t="s">
         <v>42</v>
@@ -21281,7 +21395,7 @@
         <v>37</v>
       </c>
       <c r="R287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S287" t="b">
         <v>1</v>
@@ -21292,105 +21406,105 @@
     </row>
     <row r="288" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A288">
+        <v>11</v>
+      </c>
+      <c r="B288" t="s">
+        <v>853</v>
+      </c>
+      <c r="C288" t="b">
+        <v>0</v>
+      </c>
+      <c r="D288" t="s">
+        <v>861</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G288" t="s">
+        <v>890</v>
+      </c>
+      <c r="H288" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I288" t="s">
+        <v>35</v>
+      </c>
+      <c r="J288">
+        <v>-11.5128846946245</v>
+      </c>
+      <c r="K288">
+        <v>2.7778063521640002</v>
+      </c>
+      <c r="L288">
+        <v>-5</v>
+      </c>
+      <c r="M288">
         <v>3</v>
       </c>
-      <c r="B288" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C288" t="b">
-        <v>0</v>
-      </c>
-      <c r="D288" t="s">
-        <v>997</v>
-      </c>
-      <c r="E288" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F288" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G288" t="s">
-        <v>819</v>
-      </c>
-      <c r="H288" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I288" t="s">
-        <v>35</v>
-      </c>
-      <c r="J288">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="K288">
-        <v>1273.7439999999999</v>
-      </c>
-      <c r="L288">
-        <v>0.1</v>
-      </c>
-      <c r="M288">
-        <v>2000</v>
-      </c>
       <c r="N288" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="O288" t="s">
-        <v>331</v>
+        <v>37</v>
       </c>
       <c r="P288" t="b">
         <v>1</v>
       </c>
       <c r="Q288" t="s">
-        <v>312</v>
+        <v>37</v>
       </c>
       <c r="R288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S288" t="b">
         <v>1</v>
       </c>
       <c r="T288" t="s">
-        <v>312</v>
+        <v>37</v>
       </c>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B289" t="s">
-        <v>1028</v>
+        <v>853</v>
       </c>
       <c r="C289" t="b">
         <v>0</v>
       </c>
       <c r="D289" t="s">
-        <v>997</v>
+        <v>861</v>
       </c>
       <c r="E289" t="s">
-        <v>1001</v>
+        <v>1038</v>
       </c>
       <c r="F289" t="s">
-        <v>1002</v>
+        <v>887</v>
       </c>
       <c r="G289" t="s">
-        <v>1023</v>
+        <v>890</v>
       </c>
       <c r="H289" t="s">
-        <v>1003</v>
+        <v>1076</v>
       </c>
       <c r="I289" t="s">
         <v>35</v>
       </c>
       <c r="J289">
-        <v>79.5</v>
+        <v>-16.054957458987602</v>
       </c>
       <c r="K289">
-        <v>114.45</v>
+        <v>2.9178089433771701</v>
       </c>
       <c r="L289">
-        <v>75</v>
+        <v>-5</v>
       </c>
       <c r="M289">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="N289" t="s">
         <v>42</v>
@@ -21405,7 +21519,7 @@
         <v>37</v>
       </c>
       <c r="R289" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S289" t="b">
         <v>1</v>
@@ -21416,43 +21530,44 @@
     </row>
     <row r="290" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B290" t="s">
-        <v>1028</v>
+        <v>853</v>
       </c>
       <c r="C290" t="b">
         <v>0</v>
       </c>
       <c r="D290" t="s">
-        <v>997</v>
+        <v>860</v>
       </c>
       <c r="E290" t="s">
-        <v>1016</v>
-      </c>
-      <c r="F290" t="s">
-        <v>1017</v>
+        <v>1022</v>
+      </c>
+      <c r="F290" t="str">
+        <f>SUBSTITUTE(F278,"Estimate","Spatial Bias")</f>
+        <v>1Q2 Spatial Bias</v>
       </c>
       <c r="G290" t="s">
-        <v>40</v>
+        <v>890</v>
       </c>
       <c r="H290" t="s">
-        <v>1018</v>
+        <v>1053</v>
       </c>
       <c r="I290" t="s">
         <v>35</v>
       </c>
       <c r="J290">
-        <v>5.5830000000000002</v>
+        <v>-2.8421837068251201</v>
       </c>
       <c r="K290">
-        <v>10.53</v>
+        <v>1.63955574429962</v>
       </c>
       <c r="L290">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="M290">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N290" t="s">
         <v>42</v>
@@ -21467,7 +21582,7 @@
         <v>37</v>
       </c>
       <c r="R290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S290" t="b">
         <v>1</v>
@@ -21478,40 +21593,44 @@
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B291" t="s">
-        <v>1029</v>
+        <v>853</v>
       </c>
       <c r="C291" t="b">
         <v>0</v>
       </c>
       <c r="D291" t="s">
-        <v>996</v>
+        <v>860</v>
       </c>
       <c r="E291" t="s">
-        <v>983</v>
-      </c>
-      <c r="F291" t="s">
-        <v>984</v>
+        <v>1024</v>
+      </c>
+      <c r="F291" t="str">
+        <f t="shared" ref="F291:F301" si="0">SUBSTITUTE(F279,"Estimate","Spatial Bias")</f>
+        <v>1Q5 Spatial Bias</v>
+      </c>
+      <c r="G291" t="s">
+        <v>890</v>
       </c>
       <c r="H291" t="s">
-        <v>985</v>
+        <v>1055</v>
       </c>
       <c r="I291" t="s">
         <v>35</v>
       </c>
       <c r="J291">
-        <v>14.87</v>
+        <v>-3.4089443075719501</v>
       </c>
       <c r="K291">
-        <v>103.91</v>
+        <v>2.3987518898547</v>
       </c>
       <c r="L291">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="M291">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="N291" t="s">
         <v>42</v>
@@ -21526,7 +21645,7 @@
         <v>37</v>
       </c>
       <c r="R291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S291" t="b">
         <v>1</v>
@@ -21537,102 +21656,107 @@
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B292" t="s">
-        <v>1029</v>
+        <v>853</v>
       </c>
       <c r="C292" t="b">
         <v>0</v>
       </c>
       <c r="D292" t="s">
-        <v>997</v>
+        <v>860</v>
       </c>
       <c r="E292" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F292" t="s">
-        <v>1020</v>
+        <v>1021</v>
+      </c>
+      <c r="F292" t="str">
+        <f t="shared" si="0"/>
+        <v>1Q10 Spatial Bias</v>
       </c>
       <c r="G292" t="s">
-        <v>819</v>
+        <v>890</v>
       </c>
       <c r="H292" t="s">
-        <v>1021</v>
+        <v>1057</v>
       </c>
       <c r="I292" t="s">
         <v>35</v>
       </c>
       <c r="J292">
-        <v>0.317</v>
+        <v>-3.9095176095483199</v>
       </c>
       <c r="K292">
-        <v>2779.8879999999999</v>
+        <v>2.74179764622607</v>
       </c>
       <c r="L292">
-        <v>0.1</v>
+        <v>-3</v>
       </c>
       <c r="M292">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="N292" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="O292" t="s">
-        <v>331</v>
+        <v>37</v>
       </c>
       <c r="P292" t="b">
         <v>1</v>
       </c>
       <c r="Q292" t="s">
-        <v>312</v>
+        <v>37</v>
       </c>
       <c r="R292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S292" t="b">
         <v>1</v>
       </c>
       <c r="T292" t="s">
-        <v>312</v>
+        <v>37</v>
       </c>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A293">
+        <v>16</v>
+      </c>
+      <c r="B293" t="s">
+        <v>853</v>
+      </c>
+      <c r="C293" t="b">
+        <v>0</v>
+      </c>
+      <c r="D293" t="s">
+        <v>860</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F293" t="str">
+        <f t="shared" si="0"/>
+        <v>1Q20 Spatial Bias</v>
+      </c>
+      <c r="G293" t="s">
+        <v>890</v>
+      </c>
+      <c r="H293" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I293" t="s">
+        <v>35</v>
+      </c>
+      <c r="J293">
+        <v>-4.0463919454159099</v>
+      </c>
+      <c r="K293">
+        <v>2.8737896762731698</v>
+      </c>
+      <c r="L293">
+        <v>-3</v>
+      </c>
+      <c r="M293">
         <v>3</v>
-      </c>
-      <c r="B293" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C293" t="b">
-        <v>0</v>
-      </c>
-      <c r="D293" t="s">
-        <v>997</v>
-      </c>
-      <c r="E293" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F293" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H293" t="s">
-        <v>1006</v>
-      </c>
-      <c r="I293" t="s">
-        <v>35</v>
-      </c>
-      <c r="J293">
-        <v>17.776</v>
-      </c>
-      <c r="K293">
-        <v>84.948999999999998</v>
-      </c>
-      <c r="L293">
-        <v>15</v>
-      </c>
-      <c r="M293">
-        <v>85</v>
       </c>
       <c r="N293" t="s">
         <v>42</v>
@@ -21647,19 +21771,523 @@
         <v>37</v>
       </c>
       <c r="R293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S293" t="b">
         <v>1</v>
       </c>
       <c r="T293" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>17</v>
+      </c>
+      <c r="B294" t="s">
+        <v>853</v>
+      </c>
+      <c r="C294" t="b">
+        <v>0</v>
+      </c>
+      <c r="D294" t="s">
+        <v>860</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F294" t="str">
+        <f t="shared" si="0"/>
+        <v>7Q2 Spatial Bias</v>
+      </c>
+      <c r="G294" t="s">
+        <v>890</v>
+      </c>
+      <c r="H294" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I294" t="s">
+        <v>35</v>
+      </c>
+      <c r="J294">
+        <v>-2.9755065868999502</v>
+      </c>
+      <c r="K294">
+        <v>0.86412946030753401</v>
+      </c>
+      <c r="L294">
+        <v>-3</v>
+      </c>
+      <c r="M294">
+        <v>3</v>
+      </c>
+      <c r="N294" t="s">
+        <v>42</v>
+      </c>
+      <c r="O294" t="s">
+        <v>37</v>
+      </c>
+      <c r="P294" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q294" t="s">
+        <v>37</v>
+      </c>
+      <c r="R294" t="b">
+        <v>0</v>
+      </c>
+      <c r="S294" t="b">
+        <v>1</v>
+      </c>
+      <c r="T294" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>18</v>
+      </c>
+      <c r="B295" t="s">
+        <v>853</v>
+      </c>
+      <c r="C295" t="b">
+        <v>0</v>
+      </c>
+      <c r="D295" t="s">
+        <v>860</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F295" t="str">
+        <f t="shared" si="0"/>
+        <v>7Q5 Spatial Bias</v>
+      </c>
+      <c r="G295" t="s">
+        <v>890</v>
+      </c>
+      <c r="H295" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I295" t="s">
+        <v>35</v>
+      </c>
+      <c r="J295">
+        <v>-3.5250538807423899</v>
+      </c>
+      <c r="K295">
+        <v>1.75143346875131</v>
+      </c>
+      <c r="L295">
+        <v>-3</v>
+      </c>
+      <c r="M295">
+        <v>3</v>
+      </c>
+      <c r="N295" t="s">
+        <v>42</v>
+      </c>
+      <c r="O295" t="s">
+        <v>37</v>
+      </c>
+      <c r="P295" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q295" t="s">
+        <v>37</v>
+      </c>
+      <c r="R295" t="b">
+        <v>0</v>
+      </c>
+      <c r="S295" t="b">
+        <v>1</v>
+      </c>
+      <c r="T295" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>19</v>
+      </c>
+      <c r="B296" t="s">
+        <v>853</v>
+      </c>
+      <c r="C296" t="b">
+        <v>0</v>
+      </c>
+      <c r="D296" t="s">
+        <v>860</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F296" t="str">
+        <f t="shared" si="0"/>
+        <v>7Q10 Spatial Bias</v>
+      </c>
+      <c r="G296" t="s">
+        <v>890</v>
+      </c>
+      <c r="H296" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I296" t="s">
+        <v>35</v>
+      </c>
+      <c r="J296">
+        <v>-4.0366821640845396</v>
+      </c>
+      <c r="K296">
+        <v>2.6771766261977001</v>
+      </c>
+      <c r="L296">
+        <v>-3</v>
+      </c>
+      <c r="M296">
+        <v>3</v>
+      </c>
+      <c r="N296" t="s">
+        <v>42</v>
+      </c>
+      <c r="O296" t="s">
+        <v>37</v>
+      </c>
+      <c r="P296" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q296" t="s">
+        <v>37</v>
+      </c>
+      <c r="R296" t="b">
+        <v>0</v>
+      </c>
+      <c r="S296" t="b">
+        <v>1</v>
+      </c>
+      <c r="T296" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>20</v>
+      </c>
+      <c r="B297" t="s">
+        <v>853</v>
+      </c>
+      <c r="C297" t="b">
+        <v>0</v>
+      </c>
+      <c r="D297" t="s">
+        <v>860</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F297" t="str">
+        <f t="shared" si="0"/>
+        <v>7Q20 Spatial Bias</v>
+      </c>
+      <c r="G297" t="s">
+        <v>890</v>
+      </c>
+      <c r="H297" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I297" t="s">
+        <v>35</v>
+      </c>
+      <c r="J297">
+        <v>-4.0581629244894097</v>
+      </c>
+      <c r="K297">
+        <v>2.5775727799299402</v>
+      </c>
+      <c r="L297">
+        <v>-3</v>
+      </c>
+      <c r="M297">
+        <v>3</v>
+      </c>
+      <c r="N297" t="s">
+        <v>42</v>
+      </c>
+      <c r="O297" t="s">
+        <v>37</v>
+      </c>
+      <c r="P297" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q297" t="s">
+        <v>37</v>
+      </c>
+      <c r="R297" t="b">
+        <v>0</v>
+      </c>
+      <c r="S297" t="b">
+        <v>1</v>
+      </c>
+      <c r="T297" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>21</v>
+      </c>
+      <c r="B298" t="s">
+        <v>853</v>
+      </c>
+      <c r="C298" t="b">
+        <v>0</v>
+      </c>
+      <c r="D298" t="s">
+        <v>860</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F298" t="str">
+        <f t="shared" si="0"/>
+        <v>30Q2 Spatial Bias</v>
+      </c>
+      <c r="G298" t="s">
+        <v>890</v>
+      </c>
+      <c r="H298" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I298" t="s">
+        <v>35</v>
+      </c>
+      <c r="J298">
+        <v>-2.96552704930708</v>
+      </c>
+      <c r="K298">
+        <v>0.71261207177400598</v>
+      </c>
+      <c r="L298">
+        <v>-3</v>
+      </c>
+      <c r="M298">
+        <v>3</v>
+      </c>
+      <c r="N298" t="s">
+        <v>42</v>
+      </c>
+      <c r="O298" t="s">
+        <v>37</v>
+      </c>
+      <c r="P298" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q298" t="s">
+        <v>37</v>
+      </c>
+      <c r="R298" t="b">
+        <v>0</v>
+      </c>
+      <c r="S298" t="b">
+        <v>1</v>
+      </c>
+      <c r="T298" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>22</v>
+      </c>
+      <c r="B299" t="s">
+        <v>853</v>
+      </c>
+      <c r="C299" t="b">
+        <v>0</v>
+      </c>
+      <c r="D299" t="s">
+        <v>860</v>
+      </c>
+      <c r="E299" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F299" t="str">
+        <f t="shared" si="0"/>
+        <v>30Q5 Spatial Bias</v>
+      </c>
+      <c r="G299" t="s">
+        <v>890</v>
+      </c>
+      <c r="H299" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I299" t="s">
+        <v>35</v>
+      </c>
+      <c r="J299">
+        <v>-3.1948137595873098</v>
+      </c>
+      <c r="K299">
+        <v>1.0198020205724201</v>
+      </c>
+      <c r="L299">
+        <v>-3</v>
+      </c>
+      <c r="M299">
+        <v>3</v>
+      </c>
+      <c r="N299" t="s">
+        <v>42</v>
+      </c>
+      <c r="O299" t="s">
+        <v>37</v>
+      </c>
+      <c r="P299" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q299" t="s">
+        <v>37</v>
+      </c>
+      <c r="R299" t="b">
+        <v>0</v>
+      </c>
+      <c r="S299" t="b">
+        <v>1</v>
+      </c>
+      <c r="T299" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>23</v>
+      </c>
+      <c r="B300" t="s">
+        <v>853</v>
+      </c>
+      <c r="C300" t="b">
+        <v>0</v>
+      </c>
+      <c r="D300" t="s">
+        <v>860</v>
+      </c>
+      <c r="E300" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F300" t="str">
+        <f t="shared" si="0"/>
+        <v>30Q10 Spatial Bias</v>
+      </c>
+      <c r="G300" t="s">
+        <v>890</v>
+      </c>
+      <c r="H300" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I300" t="s">
+        <v>35</v>
+      </c>
+      <c r="J300">
+        <v>-4.4255156345561302</v>
+      </c>
+      <c r="K300">
+        <v>1.54746642988205</v>
+      </c>
+      <c r="L300">
+        <v>-3</v>
+      </c>
+      <c r="M300">
+        <v>3</v>
+      </c>
+      <c r="N300" t="s">
+        <v>42</v>
+      </c>
+      <c r="O300" t="s">
+        <v>37</v>
+      </c>
+      <c r="P300" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q300" t="s">
+        <v>37</v>
+      </c>
+      <c r="R300" t="b">
+        <v>0</v>
+      </c>
+      <c r="S300" t="b">
+        <v>1</v>
+      </c>
+      <c r="T300" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>24</v>
+      </c>
+      <c r="B301" t="s">
+        <v>853</v>
+      </c>
+      <c r="C301" t="b">
+        <v>0</v>
+      </c>
+      <c r="D301" t="s">
+        <v>860</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F301" t="str">
+        <f t="shared" si="0"/>
+        <v>30Q20 Spatial Bias</v>
+      </c>
+      <c r="G301" t="s">
+        <v>890</v>
+      </c>
+      <c r="H301" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I301" t="s">
+        <v>35</v>
+      </c>
+      <c r="J301">
+        <v>-4.2383164950184602</v>
+      </c>
+      <c r="K301">
+        <v>2.3041336906957599</v>
+      </c>
+      <c r="L301">
+        <v>-3</v>
+      </c>
+      <c r="M301">
+        <v>3</v>
+      </c>
+      <c r="N301" t="s">
+        <v>42</v>
+      </c>
+      <c r="O301" t="s">
+        <v>37</v>
+      </c>
+      <c r="P301" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q301" t="s">
+        <v>37</v>
+      </c>
+      <c r="R301" t="b">
+        <v>0</v>
+      </c>
+      <c r="S301" t="b">
+        <v>1</v>
+      </c>
+      <c r="T301" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:T213" xr:uid="{E0968736-1BA0-284C-93D4-E8D02CD98242}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E273:H276">
-    <sortCondition ref="E273:E276"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E257:H260">
+    <sortCondition ref="E257:E260"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/r/xlsx/themes.xlsx
+++ b/r/xlsx/themes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/ecosheds/lmg-restore/r/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83180630-F0F6-C94B-9EF1-8FBCC968F493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CC873F-36D5-9746-9687-ABAA33CCCC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{AE99D6E3-0A03-B54F-A17C-78F34962647F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{AE99D6E3-0A03-B54F-A17C-78F34962647F}"/>
   </bookViews>
   <sheets>
     <sheet name="themes" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4430" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4430" uniqueCount="1078">
   <si>
     <t>theme</t>
   </si>
@@ -2605,9 +2605,6 @@
     <t>Low Flow Frequency Statistics</t>
   </si>
   <si>
-    <t>Low flow frequency statistics for HUC12 pour points</t>
-  </si>
-  <si>
     <t>Corr_7Q2</t>
   </si>
   <si>
@@ -2620,9 +2617,6 @@
     <t>Corr_30Q20</t>
   </si>
   <si>
-    <t>Spatial Bias Correction</t>
-  </si>
-  <si>
     <t>Low Flow Statistics</t>
   </si>
   <si>
@@ -3269,6 +3263,15 @@
   </si>
   <si>
     <t>An output from "step07_two-stage-gam-fitting.R" from Whaling, A. R., and others (2021).  "huc_30Day20yr_Est_corrII" is the bias-corrected 30Q20 flow statistic for the huc12 pour point and is computed as the sum of the attributes "huc_30Day20yr_Est" and "finalBias_30Q20".</t>
+  </si>
+  <si>
+    <t>Bias Correction</t>
+  </si>
+  <si>
+    <t>Whaling, A.R., Sanks K.M., and Asquith, W.H., 2021, RESTORE/syntheticdv2lff—Scripts demonstrating the application of a workflow to determine the feasibility of using simulated streamflow for estimation of streamflow frequency statistics: U.S. Geological Survey software release</t>
+  </si>
+  <si>
+    <t>For a demonstration of a workflow to assess the feasibility of streamflow frequency analyses from simulated streamflow, these datasets of low-streamflow (flow) frequency (LFF) statistics and associated bias correction values were generated from the simulated streamflow by Robinson and others (2020). Each LFF statistic and associated bias correction is represented with the NQT notation that represents the low flow (discharge/streamflow), Q, for N-day duration and T-year return period. Three, N-day averaging periods (1, 7, and 30-day) and four return periods (2, 5, 10, and 20-year; 0.05, 0.10, 0.20, and 0.50 nonexceedance probabilities) were computed as a part of the demonstration for a total of 12 LFF statistics (the 1Q2, 1Q5, 1Q10, 1Q20, 7Q2, 7Q5, 7Q10, 7Q20, 30Q2, 30Q5, 30Q10, and 30Q20) to explore the effect of the N-day averaging period and depth into the tail on the modeled bias.</t>
   </si>
 </sst>
 </file>
@@ -3689,11 +3692,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3299DF9C-F617-B646-BEE4-AB38FAC7FD15}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView zoomScale="135" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3931,7 +3934,7 @@
         <v>214</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>854</v>
@@ -3940,13 +3943,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>13</v>
@@ -3961,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -4016,29 +4019,29 @@
         <v>214</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="D8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>1017</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -4286,13 +4289,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>855</v>
+        <v>1077</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>891</v>
+        <v>1076</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>215</v>
@@ -4307,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -4374,9 +4377,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356FD21B-BA3B-0140-999A-460BCE259E1F}">
   <dimension ref="A1:T301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A268" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F301" sqref="F301"/>
+      <selection pane="bottomLeft" activeCell="D291" sqref="D291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4455,7 +4458,7 @@
         <v>803</v>
       </c>
       <c r="R1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="S1" t="s">
         <v>288</v>
@@ -17474,25 +17477,25 @@
         <v>1</v>
       </c>
       <c r="B224" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C224" t="b">
         <v>0</v>
       </c>
       <c r="D224" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E224" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F224" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G224" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H224" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I224" t="s">
         <v>35</v>
@@ -17536,22 +17539,22 @@
         <v>2</v>
       </c>
       <c r="B225" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C225" t="b">
         <v>0</v>
       </c>
       <c r="D225" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E225" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F225" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H225" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I225" t="s">
         <v>35</v>
@@ -17595,22 +17598,22 @@
         <v>3</v>
       </c>
       <c r="B226" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C226" t="b">
         <v>0</v>
       </c>
       <c r="D226" t="s">
+        <v>901</v>
+      </c>
+      <c r="E226" t="s">
+        <v>902</v>
+      </c>
+      <c r="F226" t="s">
+        <v>962</v>
+      </c>
+      <c r="H226" t="s">
         <v>903</v>
-      </c>
-      <c r="E226" t="s">
-        <v>904</v>
-      </c>
-      <c r="F226" t="s">
-        <v>964</v>
-      </c>
-      <c r="H226" t="s">
-        <v>905</v>
       </c>
       <c r="I226" t="s">
         <v>35</v>
@@ -17654,22 +17657,22 @@
         <v>4</v>
       </c>
       <c r="B227" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C227" t="b">
         <v>0</v>
       </c>
       <c r="D227" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E227" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F227" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H227" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="I227" t="s">
         <v>35</v>
@@ -17713,25 +17716,25 @@
         <v>5</v>
       </c>
       <c r="B228" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C228" t="b">
         <v>0</v>
       </c>
       <c r="D228" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E228" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F228" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G228" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H228" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="I228" t="s">
         <v>35</v>
@@ -17775,25 +17778,25 @@
         <v>6</v>
       </c>
       <c r="B229" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C229" t="b">
         <v>0</v>
       </c>
       <c r="D229" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E229" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F229" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G229" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H229" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="I229" t="s">
         <v>35</v>
@@ -17837,25 +17840,25 @@
         <v>7</v>
       </c>
       <c r="B230" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C230" t="b">
         <v>0</v>
       </c>
       <c r="D230" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E230" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F230" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G230" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H230" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="I230" t="s">
         <v>35</v>
@@ -17899,25 +17902,25 @@
         <v>8</v>
       </c>
       <c r="B231" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C231" t="b">
         <v>0</v>
       </c>
       <c r="D231" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E231" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F231" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G231" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H231" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I231" t="s">
         <v>35</v>
@@ -17961,25 +17964,25 @@
         <v>9</v>
       </c>
       <c r="B232" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C232" t="b">
         <v>0</v>
       </c>
       <c r="D232" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E232" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F232" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G232" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H232" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="I232" t="s">
         <v>35</v>
@@ -18023,25 +18026,25 @@
         <v>10</v>
       </c>
       <c r="B233" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C233" t="b">
         <v>0</v>
       </c>
       <c r="D233" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E233" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F233" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G233" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H233" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I233" t="s">
         <v>35</v>
@@ -18085,25 +18088,25 @@
         <v>11</v>
       </c>
       <c r="B234" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C234" t="b">
         <v>0</v>
       </c>
       <c r="D234" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E234" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F234" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G234" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H234" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="I234" t="s">
         <v>35</v>
@@ -18147,25 +18150,25 @@
         <v>12</v>
       </c>
       <c r="B235" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C235" t="b">
         <v>0</v>
       </c>
       <c r="D235" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E235" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F235" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G235" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H235" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="I235" t="s">
         <v>35</v>
@@ -18209,25 +18212,25 @@
         <v>13</v>
       </c>
       <c r="B236" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C236" t="b">
         <v>0</v>
       </c>
       <c r="D236" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E236" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F236" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G236" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H236" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="I236" t="s">
         <v>35</v>
@@ -18271,25 +18274,25 @@
         <v>14</v>
       </c>
       <c r="B237" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C237" t="b">
         <v>0</v>
       </c>
       <c r="D237" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E237" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F237" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G237" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H237" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I237" t="s">
         <v>35</v>
@@ -18333,25 +18336,25 @@
         <v>15</v>
       </c>
       <c r="B238" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C238" t="b">
         <v>0</v>
       </c>
       <c r="D238" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E238" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F238" t="s">
+        <v>886</v>
+      </c>
+      <c r="G238" t="s">
         <v>888</v>
       </c>
-      <c r="G238" t="s">
-        <v>890</v>
-      </c>
       <c r="H238" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="I238" t="s">
         <v>35</v>
@@ -18395,25 +18398,25 @@
         <v>16</v>
       </c>
       <c r="B239" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C239" t="b">
         <v>0</v>
       </c>
       <c r="D239" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E239" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F239" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G239" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H239" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="I239" t="s">
         <v>35</v>
@@ -18457,25 +18460,25 @@
         <v>17</v>
       </c>
       <c r="B240" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C240" t="b">
         <v>0</v>
       </c>
       <c r="D240" t="s">
+        <v>930</v>
+      </c>
+      <c r="E240" t="s">
+        <v>949</v>
+      </c>
+      <c r="F240" t="s">
         <v>932</v>
       </c>
-      <c r="E240" t="s">
-        <v>951</v>
-      </c>
-      <c r="F240" t="s">
-        <v>934</v>
-      </c>
       <c r="G240" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H240" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I240" t="s">
         <v>35</v>
@@ -18519,25 +18522,25 @@
         <v>18</v>
       </c>
       <c r="B241" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C241" t="b">
         <v>0</v>
       </c>
       <c r="D241" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E241" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F241" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="G241" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H241" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I241" t="s">
         <v>35</v>
@@ -18581,25 +18584,25 @@
         <v>19</v>
       </c>
       <c r="B242" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C242" t="b">
         <v>0</v>
       </c>
       <c r="D242" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E242" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F242" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G242" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H242" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I242" t="s">
         <v>35</v>
@@ -18643,25 +18646,25 @@
         <v>20</v>
       </c>
       <c r="B243" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C243" t="b">
         <v>0</v>
       </c>
       <c r="D243" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E243" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F243" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="G243" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H243" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I243" t="s">
         <v>35</v>
@@ -18705,25 +18708,25 @@
         <v>21</v>
       </c>
       <c r="B244" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C244" t="b">
         <v>0</v>
       </c>
       <c r="D244" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E244" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F244" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G244" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H244" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I244" t="s">
         <v>35</v>
@@ -18767,25 +18770,25 @@
         <v>22</v>
       </c>
       <c r="B245" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C245" t="b">
         <v>0</v>
       </c>
       <c r="D245" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E245" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F245" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G245" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H245" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I245" t="s">
         <v>35</v>
@@ -18829,25 +18832,25 @@
         <v>23</v>
       </c>
       <c r="B246" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C246" t="b">
         <v>0</v>
       </c>
       <c r="D246" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E246" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F246" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G246" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H246" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="I246" t="s">
         <v>35</v>
@@ -18891,25 +18894,25 @@
         <v>24</v>
       </c>
       <c r="B247" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C247" t="b">
         <v>0</v>
       </c>
       <c r="D247" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E247" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F247" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G247" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H247" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I247" t="s">
         <v>35</v>
@@ -18953,25 +18956,25 @@
         <v>25</v>
       </c>
       <c r="B248" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C248" t="b">
         <v>0</v>
       </c>
       <c r="D248" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E248" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F248" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G248" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H248" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I248" t="s">
         <v>35</v>
@@ -19015,25 +19018,25 @@
         <v>26</v>
       </c>
       <c r="B249" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C249" t="b">
         <v>0</v>
       </c>
       <c r="D249" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E249" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F249" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G249" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H249" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="I249" t="s">
         <v>35</v>
@@ -19077,25 +19080,25 @@
         <v>27</v>
       </c>
       <c r="B250" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C250" t="b">
         <v>0</v>
       </c>
       <c r="D250" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E250" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F250" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G250" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H250" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I250" t="s">
         <v>35</v>
@@ -19139,25 +19142,25 @@
         <v>28</v>
       </c>
       <c r="B251" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C251" t="b">
         <v>0</v>
       </c>
       <c r="D251" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E251" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F251" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G251" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H251" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="I251" t="s">
         <v>35</v>
@@ -19201,25 +19204,25 @@
         <v>29</v>
       </c>
       <c r="B252" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C252" t="b">
         <v>0</v>
       </c>
       <c r="D252" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E252" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F252" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G252" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H252" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="I252" t="s">
         <v>35</v>
@@ -19263,25 +19266,25 @@
         <v>30</v>
       </c>
       <c r="B253" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C253" t="b">
         <v>0</v>
       </c>
       <c r="D253" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E253" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F253" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="G253" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H253" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I253" t="s">
         <v>35</v>
@@ -19325,25 +19328,25 @@
         <v>31</v>
       </c>
       <c r="B254" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C254" t="b">
         <v>0</v>
       </c>
       <c r="D254" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E254" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F254" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G254" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H254" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I254" t="s">
         <v>35</v>
@@ -19387,25 +19390,25 @@
         <v>32</v>
       </c>
       <c r="B255" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C255" t="b">
         <v>0</v>
       </c>
       <c r="D255" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E255" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F255" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="G255" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H255" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I255" t="s">
         <v>35</v>
@@ -19449,22 +19452,22 @@
         <v>1</v>
       </c>
       <c r="B256" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C256" t="b">
         <v>0</v>
       </c>
       <c r="D256" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E256" t="s">
+        <v>964</v>
+      </c>
+      <c r="F256" t="s">
+        <v>965</v>
+      </c>
+      <c r="H256" t="s">
         <v>966</v>
-      </c>
-      <c r="F256" t="s">
-        <v>967</v>
-      </c>
-      <c r="H256" t="s">
-        <v>968</v>
       </c>
       <c r="I256" t="s">
         <v>35</v>
@@ -19508,25 +19511,25 @@
         <v>2</v>
       </c>
       <c r="B257" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C257" t="b">
         <v>0</v>
       </c>
       <c r="D257" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E257" t="s">
+        <v>967</v>
+      </c>
+      <c r="F257" t="s">
         <v>969</v>
       </c>
-      <c r="F257" t="s">
-        <v>971</v>
-      </c>
       <c r="G257" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="H257" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="I257" t="s">
         <v>35</v>
@@ -19570,25 +19573,25 @@
         <v>3</v>
       </c>
       <c r="B258" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C258" t="b">
         <v>0</v>
       </c>
       <c r="D258" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E258" t="s">
+        <v>968</v>
+      </c>
+      <c r="F258" t="s">
         <v>970</v>
-      </c>
-      <c r="F258" t="s">
-        <v>972</v>
       </c>
       <c r="G258" t="s">
         <v>40</v>
       </c>
       <c r="H258" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="I258" t="s">
         <v>35</v>
@@ -19632,25 +19635,25 @@
         <v>4</v>
       </c>
       <c r="B259" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C259" t="b">
         <v>0</v>
       </c>
       <c r="D259" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E259" t="s">
+        <v>973</v>
+      </c>
+      <c r="F259" t="s">
+        <v>974</v>
+      </c>
+      <c r="G259" t="s">
         <v>975</v>
       </c>
-      <c r="F259" t="s">
+      <c r="H259" t="s">
         <v>976</v>
-      </c>
-      <c r="G259" t="s">
-        <v>977</v>
-      </c>
-      <c r="H259" t="s">
-        <v>978</v>
       </c>
       <c r="I259" t="s">
         <v>35</v>
@@ -19694,22 +19697,22 @@
         <v>1</v>
       </c>
       <c r="B260" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C260" t="b">
         <v>0</v>
       </c>
       <c r="D260" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E260" t="s">
+        <v>964</v>
+      </c>
+      <c r="F260" t="s">
+        <v>965</v>
+      </c>
+      <c r="H260" t="s">
         <v>966</v>
-      </c>
-      <c r="F260" t="s">
-        <v>967</v>
-      </c>
-      <c r="H260" t="s">
-        <v>968</v>
       </c>
       <c r="I260" t="s">
         <v>35</v>
@@ -19753,25 +19756,25 @@
         <v>2</v>
       </c>
       <c r="B261" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C261" t="b">
         <v>0</v>
       </c>
       <c r="D261" t="s">
+        <v>978</v>
+      </c>
+      <c r="E261" t="s">
+        <v>979</v>
+      </c>
+      <c r="F261" t="s">
         <v>980</v>
       </c>
-      <c r="E261" t="s">
+      <c r="G261" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H261" t="s">
         <v>981</v>
-      </c>
-      <c r="F261" t="s">
-        <v>982</v>
-      </c>
-      <c r="G261" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H261" t="s">
-        <v>983</v>
       </c>
       <c r="I261" t="s">
         <v>35</v>
@@ -19815,25 +19818,25 @@
         <v>3</v>
       </c>
       <c r="B262" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C262" t="b">
         <v>0</v>
       </c>
       <c r="D262" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E262" t="s">
+        <v>982</v>
+      </c>
+      <c r="F262" t="s">
+        <v>983</v>
+      </c>
+      <c r="G262" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H262" t="s">
         <v>984</v>
-      </c>
-      <c r="F262" t="s">
-        <v>985</v>
-      </c>
-      <c r="G262" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H262" t="s">
-        <v>986</v>
       </c>
       <c r="I262" t="s">
         <v>35</v>
@@ -19877,22 +19880,22 @@
         <v>1</v>
       </c>
       <c r="B263" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C263" t="b">
         <v>0</v>
       </c>
       <c r="D263" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E263" t="s">
+        <v>964</v>
+      </c>
+      <c r="F263" t="s">
+        <v>965</v>
+      </c>
+      <c r="H263" t="s">
         <v>966</v>
-      </c>
-      <c r="F263" t="s">
-        <v>967</v>
-      </c>
-      <c r="H263" t="s">
-        <v>968</v>
       </c>
       <c r="I263" t="s">
         <v>35</v>
@@ -19936,22 +19939,22 @@
         <v>2</v>
       </c>
       <c r="B264" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C264" t="b">
         <v>0</v>
       </c>
       <c r="D264" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E264" t="s">
+        <v>985</v>
+      </c>
+      <c r="F264" t="s">
+        <v>986</v>
+      </c>
+      <c r="H264" t="s">
         <v>987</v>
-      </c>
-      <c r="F264" t="s">
-        <v>988</v>
-      </c>
-      <c r="H264" t="s">
-        <v>989</v>
       </c>
       <c r="I264" t="s">
         <v>35</v>
@@ -19995,22 +19998,22 @@
         <v>1</v>
       </c>
       <c r="B265" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C265" t="b">
         <v>0</v>
       </c>
       <c r="D265" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E265" t="s">
+        <v>964</v>
+      </c>
+      <c r="F265" t="s">
+        <v>965</v>
+      </c>
+      <c r="H265" t="s">
         <v>966</v>
-      </c>
-      <c r="F265" t="s">
-        <v>967</v>
-      </c>
-      <c r="H265" t="s">
-        <v>968</v>
       </c>
       <c r="I265" t="s">
         <v>35</v>
@@ -20054,25 +20057,25 @@
         <v>2</v>
       </c>
       <c r="B266" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C266" t="b">
         <v>0</v>
       </c>
       <c r="D266" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E266" t="s">
+        <v>967</v>
+      </c>
+      <c r="F266" t="s">
         <v>969</v>
       </c>
-      <c r="F266" t="s">
-        <v>971</v>
-      </c>
       <c r="G266" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="H266" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="I266" t="s">
         <v>35</v>
@@ -20116,25 +20119,25 @@
         <v>3</v>
       </c>
       <c r="B267" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C267" t="b">
         <v>0</v>
       </c>
       <c r="D267" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E267" t="s">
+        <v>988</v>
+      </c>
+      <c r="F267" t="s">
+        <v>989</v>
+      </c>
+      <c r="G267" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H267" t="s">
         <v>990</v>
-      </c>
-      <c r="F267" t="s">
-        <v>991</v>
-      </c>
-      <c r="G267" t="s">
-        <v>1019</v>
-      </c>
-      <c r="H267" t="s">
-        <v>992</v>
       </c>
       <c r="I267" t="s">
         <v>35</v>
@@ -20178,25 +20181,25 @@
         <v>4</v>
       </c>
       <c r="B268" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C268" t="b">
         <v>0</v>
       </c>
       <c r="D268" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E268" t="s">
+        <v>982</v>
+      </c>
+      <c r="F268" t="s">
+        <v>983</v>
+      </c>
+      <c r="G268" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H268" t="s">
         <v>984</v>
-      </c>
-      <c r="F268" t="s">
-        <v>985</v>
-      </c>
-      <c r="G268" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H268" t="s">
-        <v>986</v>
       </c>
       <c r="I268" t="s">
         <v>35</v>
@@ -20240,25 +20243,25 @@
         <v>5</v>
       </c>
       <c r="B269" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C269" t="b">
         <v>0</v>
       </c>
       <c r="D269" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E269" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F269" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="G269" t="s">
         <v>40</v>
       </c>
       <c r="H269" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="I269" t="s">
         <v>35</v>
@@ -20302,22 +20305,22 @@
         <v>1</v>
       </c>
       <c r="B270" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C270" t="b">
         <v>0</v>
       </c>
       <c r="D270" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E270" t="s">
+        <v>964</v>
+      </c>
+      <c r="F270" t="s">
+        <v>965</v>
+      </c>
+      <c r="H270" t="s">
         <v>966</v>
-      </c>
-      <c r="F270" t="s">
-        <v>967</v>
-      </c>
-      <c r="H270" t="s">
-        <v>968</v>
       </c>
       <c r="I270" t="s">
         <v>35</v>
@@ -20361,25 +20364,25 @@
         <v>2</v>
       </c>
       <c r="B271" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C271" t="b">
         <v>0</v>
       </c>
       <c r="D271" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E271" t="s">
+        <v>967</v>
+      </c>
+      <c r="F271" t="s">
         <v>969</v>
       </c>
-      <c r="F271" t="s">
-        <v>971</v>
-      </c>
       <c r="G271" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="H271" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="I271" t="s">
         <v>35</v>
@@ -20423,25 +20426,25 @@
         <v>3</v>
       </c>
       <c r="B272" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C272" t="b">
         <v>0</v>
       </c>
       <c r="D272" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E272" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F272" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G272" t="s">
         <v>819</v>
       </c>
       <c r="H272" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I272" t="s">
         <v>35</v>
@@ -20485,25 +20488,25 @@
         <v>4</v>
       </c>
       <c r="B273" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C273" t="b">
         <v>0</v>
       </c>
       <c r="D273" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E273" t="s">
+        <v>982</v>
+      </c>
+      <c r="F273" t="s">
+        <v>983</v>
+      </c>
+      <c r="G273" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H273" t="s">
         <v>984</v>
-      </c>
-      <c r="F273" t="s">
-        <v>985</v>
-      </c>
-      <c r="G273" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H273" t="s">
-        <v>986</v>
       </c>
       <c r="I273" t="s">
         <v>35</v>
@@ -20547,25 +20550,25 @@
         <v>5</v>
       </c>
       <c r="B274" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C274" t="b">
         <v>0</v>
       </c>
       <c r="D274" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E274" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F274" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G274" t="s">
         <v>40</v>
       </c>
       <c r="H274" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="I274" t="s">
         <v>35</v>
@@ -20609,22 +20612,22 @@
         <v>1</v>
       </c>
       <c r="B275" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C275" t="b">
         <v>0</v>
       </c>
       <c r="D275" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E275" t="s">
+        <v>964</v>
+      </c>
+      <c r="F275" t="s">
+        <v>965</v>
+      </c>
+      <c r="H275" t="s">
         <v>966</v>
-      </c>
-      <c r="F275" t="s">
-        <v>967</v>
-      </c>
-      <c r="H275" t="s">
-        <v>968</v>
       </c>
       <c r="I275" t="s">
         <v>35</v>
@@ -20668,25 +20671,25 @@
         <v>2</v>
       </c>
       <c r="B276" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C276" t="b">
         <v>0</v>
       </c>
       <c r="D276" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E276" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F276" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G276" t="s">
         <v>819</v>
       </c>
       <c r="H276" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="I276" t="s">
         <v>35</v>
@@ -20730,22 +20733,22 @@
         <v>3</v>
       </c>
       <c r="B277" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C277" t="b">
         <v>0</v>
       </c>
       <c r="D277" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E277" t="s">
+        <v>985</v>
+      </c>
+      <c r="F277" t="s">
+        <v>986</v>
+      </c>
+      <c r="H277" t="s">
         <v>987</v>
-      </c>
-      <c r="F277" t="s">
-        <v>988</v>
-      </c>
-      <c r="H277" t="s">
-        <v>989</v>
       </c>
       <c r="I277" t="s">
         <v>35</v>
@@ -20795,19 +20798,19 @@
         <v>0</v>
       </c>
       <c r="D278" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E278" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F278" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G278" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H278" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="I278" t="s">
         <v>35</v>
@@ -20857,19 +20860,19 @@
         <v>0</v>
       </c>
       <c r="D279" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E279" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F279" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G279" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H279" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="I279" t="s">
         <v>35</v>
@@ -20919,19 +20922,19 @@
         <v>0</v>
       </c>
       <c r="D280" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E280" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F280" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="G280" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H280" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="I280" t="s">
         <v>35</v>
@@ -20981,19 +20984,19 @@
         <v>0</v>
       </c>
       <c r="D281" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E281" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F281" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G281" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H281" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="I281" t="s">
         <v>35</v>
@@ -21043,19 +21046,19 @@
         <v>0</v>
       </c>
       <c r="D282" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E282" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F282" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G282" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H282" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I282" t="s">
         <v>35</v>
@@ -21105,19 +21108,19 @@
         <v>0</v>
       </c>
       <c r="D283" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E283" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F283" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="G283" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H283" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="I283" t="s">
         <v>35</v>
@@ -21167,19 +21170,19 @@
         <v>0</v>
       </c>
       <c r="D284" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E284" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F284" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G284" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H284" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="I284" t="s">
         <v>35</v>
@@ -21229,19 +21232,19 @@
         <v>0</v>
       </c>
       <c r="D285" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E285" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F285" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="G285" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H285" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="I285" t="s">
         <v>35</v>
@@ -21291,19 +21294,19 @@
         <v>0</v>
       </c>
       <c r="D286" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E286" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F286" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="G286" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H286" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="I286" t="s">
         <v>35</v>
@@ -21353,19 +21356,19 @@
         <v>0</v>
       </c>
       <c r="D287" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E287" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F287" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G287" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H287" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="I287" t="s">
         <v>35</v>
@@ -21415,19 +21418,19 @@
         <v>0</v>
       </c>
       <c r="D288" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E288" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F288" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="G288" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H288" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="I288" t="s">
         <v>35</v>
@@ -21477,19 +21480,19 @@
         <v>0</v>
       </c>
       <c r="D289" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E289" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F289" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G289" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H289" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="I289" t="s">
         <v>35</v>
@@ -21539,20 +21542,20 @@
         <v>0</v>
       </c>
       <c r="D290" t="s">
-        <v>860</v>
+        <v>1075</v>
       </c>
       <c r="E290" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F290" t="str">
-        <f>SUBSTITUTE(F278,"Estimate","Spatial Bias")</f>
-        <v>1Q2 Spatial Bias</v>
+        <f>SUBSTITUTE(F278,"Estimate", "Bias Correction")</f>
+        <v>1Q2 Bias Correction</v>
       </c>
       <c r="G290" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H290" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="I290" t="s">
         <v>35</v>
@@ -21602,20 +21605,20 @@
         <v>0</v>
       </c>
       <c r="D291" t="s">
-        <v>860</v>
+        <v>1075</v>
       </c>
       <c r="E291" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F291" t="str">
-        <f t="shared" ref="F291:F301" si="0">SUBSTITUTE(F279,"Estimate","Spatial Bias")</f>
-        <v>1Q5 Spatial Bias</v>
+        <f t="shared" ref="F291:F301" si="0">SUBSTITUTE(F279,"Estimate", "Bias Correction")</f>
+        <v>1Q5 Bias Correction</v>
       </c>
       <c r="G291" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H291" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="I291" t="s">
         <v>35</v>
@@ -21665,20 +21668,20 @@
         <v>0</v>
       </c>
       <c r="D292" t="s">
-        <v>860</v>
+        <v>1075</v>
       </c>
       <c r="E292" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F292" t="str">
         <f t="shared" si="0"/>
-        <v>1Q10 Spatial Bias</v>
+        <v>1Q10 Bias Correction</v>
       </c>
       <c r="G292" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H292" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="I292" t="s">
         <v>35</v>
@@ -21728,20 +21731,20 @@
         <v>0</v>
       </c>
       <c r="D293" t="s">
-        <v>860</v>
+        <v>1075</v>
       </c>
       <c r="E293" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F293" t="str">
         <f t="shared" si="0"/>
-        <v>1Q20 Spatial Bias</v>
+        <v>1Q20 Bias Correction</v>
       </c>
       <c r="G293" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H293" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="I293" t="s">
         <v>35</v>
@@ -21791,20 +21794,20 @@
         <v>0</v>
       </c>
       <c r="D294" t="s">
-        <v>860</v>
+        <v>1075</v>
       </c>
       <c r="E294" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F294" t="str">
         <f t="shared" si="0"/>
-        <v>7Q2 Spatial Bias</v>
+        <v>7Q2 Bias Correction</v>
       </c>
       <c r="G294" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H294" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="I294" t="s">
         <v>35</v>
@@ -21854,20 +21857,20 @@
         <v>0</v>
       </c>
       <c r="D295" t="s">
-        <v>860</v>
+        <v>1075</v>
       </c>
       <c r="E295" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F295" t="str">
         <f t="shared" si="0"/>
-        <v>7Q5 Spatial Bias</v>
+        <v>7Q5 Bias Correction</v>
       </c>
       <c r="G295" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H295" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="I295" t="s">
         <v>35</v>
@@ -21917,20 +21920,20 @@
         <v>0</v>
       </c>
       <c r="D296" t="s">
-        <v>860</v>
+        <v>1075</v>
       </c>
       <c r="E296" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F296" t="str">
         <f t="shared" si="0"/>
-        <v>7Q10 Spatial Bias</v>
+        <v>7Q10 Bias Correction</v>
       </c>
       <c r="G296" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H296" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="I296" t="s">
         <v>35</v>
@@ -21980,20 +21983,20 @@
         <v>0</v>
       </c>
       <c r="D297" t="s">
-        <v>860</v>
+        <v>1075</v>
       </c>
       <c r="E297" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F297" t="str">
         <f t="shared" si="0"/>
-        <v>7Q20 Spatial Bias</v>
+        <v>7Q20 Bias Correction</v>
       </c>
       <c r="G297" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H297" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="I297" t="s">
         <v>35</v>
@@ -22043,20 +22046,20 @@
         <v>0</v>
       </c>
       <c r="D298" t="s">
-        <v>860</v>
+        <v>1075</v>
       </c>
       <c r="E298" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F298" t="str">
         <f t="shared" si="0"/>
-        <v>30Q2 Spatial Bias</v>
+        <v>30Q2 Bias Correction</v>
       </c>
       <c r="G298" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H298" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="I298" t="s">
         <v>35</v>
@@ -22106,20 +22109,20 @@
         <v>0</v>
       </c>
       <c r="D299" t="s">
-        <v>860</v>
+        <v>1075</v>
       </c>
       <c r="E299" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F299" t="str">
         <f t="shared" si="0"/>
-        <v>30Q5 Spatial Bias</v>
+        <v>30Q5 Bias Correction</v>
       </c>
       <c r="G299" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H299" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I299" t="s">
         <v>35</v>
@@ -22169,20 +22172,20 @@
         <v>0</v>
       </c>
       <c r="D300" t="s">
-        <v>860</v>
+        <v>1075</v>
       </c>
       <c r="E300" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F300" t="str">
         <f t="shared" si="0"/>
-        <v>30Q10 Spatial Bias</v>
+        <v>30Q10 Bias Correction</v>
       </c>
       <c r="G300" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H300" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="I300" t="s">
         <v>35</v>
@@ -22232,20 +22235,20 @@
         <v>0</v>
       </c>
       <c r="D301" t="s">
-        <v>860</v>
+        <v>1075</v>
       </c>
       <c r="E301" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F301" t="str">
         <f t="shared" si="0"/>
-        <v>30Q20 Spatial Bias</v>
+        <v>30Q20 Bias Correction</v>
       </c>
       <c r="G301" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H301" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="I301" t="s">
         <v>35</v>

--- a/r/xlsx/themes.xlsx
+++ b/r/xlsx/themes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/git/ecosheds/lmg-restore/r/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CC873F-36D5-9746-9687-ABAA33CCCC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B51D322-6D43-6547-AC7F-088E71B1375E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{AE99D6E3-0A03-B54F-A17C-78F34962647F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4430" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4429" uniqueCount="1077">
   <si>
     <t>theme</t>
   </si>
@@ -3079,12 +3079,6 @@
     <t>To better understand the needs of riverine ecosystems and help natural resource managers make science-based regulatory decisions, flow-ecology relationships were modeled in Mississippi. The flow-ecology relationships were modeled for East, West, and Southeast bioregions using a parallel analysis on two datasets: one in which the hydrologic metrics were calculated from synthetic streamflow at 1,182 macroinvertebrate collection sites and the other in which the hydrologic metrics were calculated from observed streamflow at USGS streamgages paired with 77 macroinvertebrate collection sites. The subset of hydrologic metrics that best correlate to dissimilarities in macroinvertebrate multimetric Mississippi-Benthic Index of Stream Quality (M-BISQ) scores were used as predictor variables in quantile regression models.</t>
   </si>
   <si>
-    <t>Crowley-Ornelas, E.R., and Banks, S.M., 2023, Relating multimetric indices to hydrologic metrics to estimate flow-ecology relationship for macroinvertebrates in Mississippi, USA: U.S. Geological Survey data release</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5066/P9DBLFZ2</t>
-  </si>
-  <si>
     <t>site_no</t>
   </si>
   <si>
@@ -3271,7 +3265,10 @@
     <t>Whaling, A.R., Sanks K.M., and Asquith, W.H., 2021, RESTORE/syntheticdv2lff—Scripts demonstrating the application of a workflow to determine the feasibility of using simulated streamflow for estimation of streamflow frequency statistics: U.S. Geological Survey software release</t>
   </si>
   <si>
-    <t>For a demonstration of a workflow to assess the feasibility of streamflow frequency analyses from simulated streamflow, these datasets of low-streamflow (flow) frequency (LFF) statistics and associated bias correction values were generated from the simulated streamflow by Robinson and others (2020). Each LFF statistic and associated bias correction is represented with the NQT notation that represents the low flow (discharge/streamflow), Q, for N-day duration and T-year return period. Three, N-day averaging periods (1, 7, and 30-day) and four return periods (2, 5, 10, and 20-year; 0.05, 0.10, 0.20, and 0.50 nonexceedance probabilities) were computed as a part of the demonstration for a total of 12 LFF statistics (the 1Q2, 1Q5, 1Q10, 1Q20, 7Q2, 7Q5, 7Q10, 7Q20, 30Q2, 30Q5, 30Q10, and 30Q20) to explore the effect of the N-day averaging period and depth into the tail on the modeled bias.</t>
+    <t>Crowley-Ornelas, E.R., and Banks, S.M., 2023, Relating multimetric indices to hydrologic metrics to estimate flow-ecology relationship for macroinvertebrates in Mississippi, USA: U.S. Geological Survey data release [pending]</t>
+  </si>
+  <si>
+    <t>These datasets of low-streamflow (flow) frequency (LFF) statistics and associated bias correction values were generated from the simulated streamflow by Robinson and others (2020) as a case study of an example workflow to assess the feasibility of streamflow frequency analyses from simulated streamflow. Each LFF statistic and associated bias correction is represented with the NQT notation that represents the low flow (discharge/streamflow), Q, for N-day duration and T-year return period derived from the modelled data. Three, N-day averaging periods (1, 7, and 30-day) and four return periods (2, 5, 10, and 20-year; 0.05, 0.10, 0.20, and 0.50 nonexceedance probabilities) were computed as a part of the demonstration for a total of 12 LFF statistics (the 1Q2, 1Q5, 1Q10, 1Q20, 7Q2, 7Q5, 7Q10, 7Q20, 30Q2, 30Q5, 30Q10, and 30Q20) to explore the effect of the N-day averaging period and depth into the tail on the modeled bias.</t>
   </si>
 </sst>
 </file>
@@ -3693,10 +3690,10 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4031,17 +4028,15 @@
         <v>1012</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="1" t="s">
         <v>1013</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>1015</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -4289,10 +4284,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>890</v>
@@ -4310,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -4367,7 +4362,6 @@
     <hyperlink ref="G9" r:id="rId4" xr:uid="{796C75A3-A990-CE43-9F4F-B9CF62A99DD8}"/>
     <hyperlink ref="G7" r:id="rId5" xr:uid="{CB3A387E-3E47-3544-8A79-337A24241FC9}"/>
     <hyperlink ref="G12" r:id="rId6" xr:uid="{0999B51A-918A-E94F-97CE-572937D40B57}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{93550DA6-57C2-C248-B9F6-16675F6686F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20134,7 +20128,7 @@
         <v>989</v>
       </c>
       <c r="G267" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="H267" t="s">
         <v>990</v>
@@ -20801,16 +20795,16 @@
         <v>859</v>
       </c>
       <c r="E278" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F278" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="G278" t="s">
         <v>888</v>
       </c>
       <c r="H278" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="I278" t="s">
         <v>35</v>
@@ -20863,16 +20857,16 @@
         <v>859</v>
       </c>
       <c r="E279" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F279" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="G279" t="s">
         <v>888</v>
       </c>
       <c r="H279" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="I279" t="s">
         <v>35</v>
@@ -20925,16 +20919,16 @@
         <v>859</v>
       </c>
       <c r="E280" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F280" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="G280" t="s">
         <v>888</v>
       </c>
       <c r="H280" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="I280" t="s">
         <v>35</v>
@@ -20987,16 +20981,16 @@
         <v>859</v>
       </c>
       <c r="E281" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F281" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G281" t="s">
         <v>888</v>
       </c>
       <c r="H281" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="I281" t="s">
         <v>35</v>
@@ -21049,7 +21043,7 @@
         <v>859</v>
       </c>
       <c r="E282" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F282" t="s">
         <v>876</v>
@@ -21058,7 +21052,7 @@
         <v>888</v>
       </c>
       <c r="H282" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="I282" t="s">
         <v>35</v>
@@ -21111,16 +21105,16 @@
         <v>859</v>
       </c>
       <c r="E283" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F283" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="G283" t="s">
         <v>888</v>
       </c>
       <c r="H283" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I283" t="s">
         <v>35</v>
@@ -21173,7 +21167,7 @@
         <v>859</v>
       </c>
       <c r="E284" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F284" t="s">
         <v>879</v>
@@ -21182,7 +21176,7 @@
         <v>888</v>
       </c>
       <c r="H284" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="I284" t="s">
         <v>35</v>
@@ -21235,16 +21229,16 @@
         <v>859</v>
       </c>
       <c r="E285" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F285" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="G285" t="s">
         <v>888</v>
       </c>
       <c r="H285" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="I285" t="s">
         <v>35</v>
@@ -21297,16 +21291,16 @@
         <v>859</v>
       </c>
       <c r="E286" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F286" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="G286" t="s">
         <v>888</v>
       </c>
       <c r="H286" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="I286" t="s">
         <v>35</v>
@@ -21359,7 +21353,7 @@
         <v>859</v>
       </c>
       <c r="E287" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F287" t="s">
         <v>882</v>
@@ -21368,7 +21362,7 @@
         <v>888</v>
       </c>
       <c r="H287" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="I287" t="s">
         <v>35</v>
@@ -21421,16 +21415,16 @@
         <v>859</v>
       </c>
       <c r="E288" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F288" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G288" t="s">
         <v>888</v>
       </c>
       <c r="H288" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="I288" t="s">
         <v>35</v>
@@ -21483,7 +21477,7 @@
         <v>859</v>
       </c>
       <c r="E289" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F289" t="s">
         <v>885</v>
@@ -21492,7 +21486,7 @@
         <v>888</v>
       </c>
       <c r="H289" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="I289" t="s">
         <v>35</v>
@@ -21542,10 +21536,10 @@
         <v>0</v>
       </c>
       <c r="D290" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E290" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F290" t="str">
         <f>SUBSTITUTE(F278,"Estimate", "Bias Correction")</f>
@@ -21555,7 +21549,7 @@
         <v>888</v>
       </c>
       <c r="H290" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="I290" t="s">
         <v>35</v>
@@ -21605,10 +21599,10 @@
         <v>0</v>
       </c>
       <c r="D291" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E291" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F291" t="str">
         <f t="shared" ref="F291:F301" si="0">SUBSTITUTE(F279,"Estimate", "Bias Correction")</f>
@@ -21618,7 +21612,7 @@
         <v>888</v>
       </c>
       <c r="H291" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="I291" t="s">
         <v>35</v>
@@ -21668,10 +21662,10 @@
         <v>0</v>
       </c>
       <c r="D292" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E292" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F292" t="str">
         <f t="shared" si="0"/>
@@ -21681,7 +21675,7 @@
         <v>888</v>
       </c>
       <c r="H292" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="I292" t="s">
         <v>35</v>
@@ -21731,10 +21725,10 @@
         <v>0</v>
       </c>
       <c r="D293" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E293" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F293" t="str">
         <f t="shared" si="0"/>
@@ -21744,7 +21738,7 @@
         <v>888</v>
       </c>
       <c r="H293" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="I293" t="s">
         <v>35</v>
@@ -21794,10 +21788,10 @@
         <v>0</v>
       </c>
       <c r="D294" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E294" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F294" t="str">
         <f t="shared" si="0"/>
@@ -21807,7 +21801,7 @@
         <v>888</v>
       </c>
       <c r="H294" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="I294" t="s">
         <v>35</v>
@@ -21857,10 +21851,10 @@
         <v>0</v>
       </c>
       <c r="D295" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E295" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F295" t="str">
         <f t="shared" si="0"/>
@@ -21870,7 +21864,7 @@
         <v>888</v>
       </c>
       <c r="H295" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="I295" t="s">
         <v>35</v>
@@ -21920,10 +21914,10 @@
         <v>0</v>
       </c>
       <c r="D296" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E296" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F296" t="str">
         <f t="shared" si="0"/>
@@ -21933,7 +21927,7 @@
         <v>888</v>
       </c>
       <c r="H296" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="I296" t="s">
         <v>35</v>
@@ -21983,10 +21977,10 @@
         <v>0</v>
       </c>
       <c r="D297" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E297" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F297" t="str">
         <f t="shared" si="0"/>
@@ -21996,7 +21990,7 @@
         <v>888</v>
       </c>
       <c r="H297" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="I297" t="s">
         <v>35</v>
@@ -22046,10 +22040,10 @@
         <v>0</v>
       </c>
       <c r="D298" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E298" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F298" t="str">
         <f t="shared" si="0"/>
@@ -22059,7 +22053,7 @@
         <v>888</v>
       </c>
       <c r="H298" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="I298" t="s">
         <v>35</v>
@@ -22109,10 +22103,10 @@
         <v>0</v>
       </c>
       <c r="D299" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E299" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F299" t="str">
         <f t="shared" si="0"/>
@@ -22122,7 +22116,7 @@
         <v>888</v>
       </c>
       <c r="H299" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="I299" t="s">
         <v>35</v>
@@ -22172,10 +22166,10 @@
         <v>0</v>
       </c>
       <c r="D300" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E300" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F300" t="str">
         <f t="shared" si="0"/>
@@ -22185,7 +22179,7 @@
         <v>888</v>
       </c>
       <c r="H300" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="I300" t="s">
         <v>35</v>
@@ -22235,10 +22229,10 @@
         <v>0</v>
       </c>
       <c r="D301" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E301" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F301" t="str">
         <f t="shared" si="0"/>
@@ -22248,7 +22242,7 @@
         <v>888</v>
       </c>
       <c r="H301" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="I301" t="s">
         <v>35</v>
